--- a/data_clean/Aker BP 15.12.2020.xlsx
+++ b/data_clean/Aker BP 15.12.2020.xlsx
@@ -1437,7 +1437,7 @@
         <v>0.9333288528856546</v>
       </c>
       <c r="K2">
-        <v>46.50134497655223</v>
+        <v>-0.03498655023447869</v>
       </c>
       <c r="L2">
         <v>-0.001843729886857954</v>
@@ -1467,13 +1467,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L3">
         <v>-0.007327178636699723</v>
@@ -1538,13 +1538,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L4">
         <v>-0.03831673755698988</v>
@@ -1609,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.9980785489201442</v>
+        <v>-0.001921451079855752</v>
       </c>
       <c r="V4">
-        <v>0.9980785489201442</v>
+        <v>-0.001921451079855752</v>
       </c>
       <c r="W4">
-        <v>0.9944649446494465</v>
+        <v>-0.005535055350553542</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1650,7 +1650,7 @@
         <v>1.137980085348501</v>
       </c>
       <c r="K5">
-        <v>53.22687957418484</v>
+        <v>0.03226879574184838</v>
       </c>
       <c r="L5">
         <v>-0.02393160815976924</v>
@@ -1680,13 +1680,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.000654551054982</v>
+        <v>0.0006545510549822442</v>
       </c>
       <c r="V5">
-        <v>1.000654551054982</v>
+        <v>0.0006545510549822442</v>
       </c>
       <c r="W5">
-        <v>1.006493506493507</v>
+        <v>0.006493506493506551</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1721,7 +1721,7 @@
         <v>1.048286190011725</v>
       </c>
       <c r="K6">
-        <v>51.1786973482316</v>
+        <v>0.01178697348231605</v>
       </c>
       <c r="L6">
         <v>-0.01352058039170564</v>
@@ -1751,13 +1751,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1.000300126976798</v>
+        <v>0.000300126976797932</v>
       </c>
       <c r="V6">
-        <v>1.000300126976798</v>
+        <v>0.000300126976797932</v>
       </c>
       <c r="W6">
-        <v>0.9995391705069124</v>
+        <v>-0.0004608294930875667</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1792,7 +1792,7 @@
         <v>1.131253043198243</v>
       </c>
       <c r="K7">
-        <v>53.07924588347519</v>
+        <v>0.0307924588347519</v>
       </c>
       <c r="L7">
         <v>-0.00617785494180958</v>
@@ -1822,13 +1822,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1.000276957163959</v>
+        <v>0.0002769571639587021</v>
       </c>
       <c r="V7">
-        <v>1.000276957163959</v>
+        <v>0.0002769571639587021</v>
       </c>
       <c r="W7">
-        <v>1.000461041954818</v>
+        <v>0.0004610419548178868</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1863,7 +1863,7 @@
         <v>1.305920102538282</v>
       </c>
       <c r="K8">
-        <v>56.63336301638412</v>
+        <v>0.0663336301638412</v>
       </c>
       <c r="L8">
         <v>-0.0002442289902863538</v>
@@ -1893,13 +1893,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1.00032961961896</v>
+        <v>0.00032961961895972</v>
       </c>
       <c r="V8">
-        <v>1.00032961961896</v>
+        <v>0.00032961961895972</v>
       </c>
       <c r="W8">
-        <v>1.000921658986175</v>
+        <v>0.0009216589861751334</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1934,7 +1934,7 @@
         <v>1.857500289927931</v>
       </c>
       <c r="K9">
-        <v>65.00437800392241</v>
+        <v>0.1500437800392241</v>
       </c>
       <c r="L9">
         <v>0.006595754943524184</v>
@@ -1964,13 +1964,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1.000593119810202</v>
+        <v>0.0005931198102016033</v>
       </c>
       <c r="V9">
-        <v>1.000593119810202</v>
+        <v>0.0005931198102016033</v>
       </c>
       <c r="W9">
-        <v>1.002762430939227</v>
+        <v>0.002762430939226679</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2005,7 +2005,7 @@
         <v>1.339150280891448</v>
       </c>
       <c r="K10">
-        <v>57.2494333447058</v>
+        <v>0.07249433344705802</v>
       </c>
       <c r="L10">
         <v>0.01104658454343837</v>
@@ -2035,13 +2035,13 @@
         <v>0.006944444444428655</v>
       </c>
       <c r="U10">
-        <v>1.000256134419343</v>
+        <v>0.0002561344193432458</v>
       </c>
       <c r="V10">
-        <v>1.000256134419343</v>
+        <v>0.0002561344193432458</v>
       </c>
       <c r="W10">
-        <v>0.9981634527089073</v>
+        <v>-0.001836547291092727</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2076,7 +2076,7 @@
         <v>1.097386384740358</v>
       </c>
       <c r="K11">
-        <v>52.32161287612281</v>
+        <v>0.02321612876122814</v>
       </c>
       <c r="L11">
         <v>0.0129371237958224</v>
@@ -2106,13 +2106,13 @@
         <v>0.03000000000002956</v>
       </c>
       <c r="U11">
-        <v>1.000066577896138</v>
+        <v>6.657789613839782E-05</v>
       </c>
       <c r="V11">
-        <v>1.000066577896138</v>
+        <v>6.657789613839782E-05</v>
       </c>
       <c r="W11">
-        <v>0.9986200551977921</v>
+        <v>-0.001379944802207933</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2147,7 +2147,7 @@
         <v>0.7951647053558367</v>
       </c>
       <c r="K12">
-        <v>44.29480498271157</v>
+        <v>-0.05705195017288434</v>
       </c>
       <c r="L12">
         <v>0.01176235140679534</v>
@@ -2177,13 +2177,13 @@
         <v>0.1852272727273032</v>
       </c>
       <c r="U12">
-        <v>0.9998030729007362</v>
+        <v>-0.0001969270992637773</v>
       </c>
       <c r="V12">
-        <v>0.9998030729007362</v>
+        <v>-0.0001969270992637773</v>
       </c>
       <c r="W12">
-        <v>0.9972362966374942</v>
+        <v>-0.002763703362505754</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2218,7 +2218,7 @@
         <v>0.6404457445009798</v>
       </c>
       <c r="K13">
-        <v>39.0409586326064</v>
+        <v>-0.109590413673936</v>
       </c>
       <c r="L13">
         <v>0.008013410856868266</v>
@@ -2248,13 +2248,13 @@
         <v>0.1375000000000171</v>
       </c>
       <c r="U13">
-        <v>0.9996437850976448</v>
+        <v>-0.0003562149023551564</v>
       </c>
       <c r="V13">
-        <v>0.9996437850976448</v>
+        <v>-0.0003562149023551564</v>
       </c>
       <c r="W13">
-        <v>0.9976905311778291</v>
+        <v>-0.002309468822170868</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2289,7 +2289,7 @@
         <v>0.9271874574380561</v>
       </c>
       <c r="K14">
-        <v>48.11091177765502</v>
+        <v>-0.01889088222344981</v>
       </c>
       <c r="L14">
         <v>0.00510460485042674</v>
@@ -2319,13 +2319,13 @@
         <v>0.1240384615384471</v>
       </c>
       <c r="U14">
-        <v>0.9999467905854811</v>
+        <v>-5.32094145189177E-05</v>
       </c>
       <c r="V14">
-        <v>0.9999467905854811</v>
+        <v>-5.32094145189177E-05</v>
       </c>
       <c r="W14">
-        <v>1.003240740740741</v>
+        <v>0.003240740740740655</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2360,7 +2360,7 @@
         <v>0.7627435529899051</v>
       </c>
       <c r="K15">
-        <v>43.27025060997476</v>
+        <v>-0.06729749390025241</v>
       </c>
       <c r="L15">
         <v>0.001714410488100791</v>
@@ -2390,13 +2390,13 @@
         <v>0.06964285714283847</v>
       </c>
       <c r="U15">
-        <v>0.9997896849328258</v>
+        <v>-0.0002103150671741716</v>
       </c>
       <c r="V15">
-        <v>0.9997896849328258</v>
+        <v>-0.0002103150671741716</v>
       </c>
       <c r="W15">
-        <v>0.997692662667282</v>
+        <v>-0.00230733733271804</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2431,7 +2431,7 @@
         <v>0.7627435529899053</v>
       </c>
       <c r="K16">
-        <v>43.27025060997477</v>
+        <v>-0.06729749390025236</v>
       </c>
       <c r="L16">
         <v>-0.001624397271609106</v>
@@ -2461,13 +2461,13 @@
         <v>-0.01583333333337578</v>
       </c>
       <c r="U16">
-        <v>0.9998176885989479</v>
+        <v>-0.000182311401052071</v>
       </c>
       <c r="V16">
-        <v>0.9998176885989479</v>
+        <v>-0.000182311401052071</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2502,7 +2502,7 @@
         <v>0.6171953324155418</v>
       </c>
       <c r="K17">
-        <v>38.16455069120569</v>
+        <v>-0.1183544930879431</v>
       </c>
       <c r="L17">
         <v>-0.00589523822248992</v>
@@ -2532,13 +2532,13 @@
         <v>-0.2187500000000284</v>
       </c>
       <c r="U17">
-        <v>0.9996674407160212</v>
+        <v>-0.000332559283978795</v>
       </c>
       <c r="V17">
-        <v>0.9996001599360255</v>
+        <v>-0.0003998400639745325</v>
       </c>
       <c r="W17">
-        <v>0.9972247918593895</v>
+        <v>-0.002775208140610497</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2573,7 +2573,7 @@
         <v>0.5972024647864441</v>
       </c>
       <c r="K18">
-        <v>37.3905298766424</v>
+        <v>-0.126094701233576</v>
       </c>
       <c r="L18">
         <v>-0.01049260534813112</v>
@@ -2603,13 +2603,13 @@
         <v>-0.3687500000000341</v>
       </c>
       <c r="U18">
-        <v>0.9996793202267494</v>
+        <v>-0.0003206797732505651</v>
       </c>
       <c r="V18">
-        <v>0.9996000000000002</v>
+        <v>-0.0003999999999998449</v>
       </c>
       <c r="W18">
-        <v>0.9995361781076068</v>
+        <v>-0.0004638218923932458</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2644,7 +2644,7 @@
         <v>0.6994964520290552</v>
       </c>
       <c r="K19">
-        <v>41.15904162047032</v>
+        <v>-0.08840958379529679</v>
       </c>
       <c r="L19">
         <v>-0.01427754608310837</v>
@@ -2674,13 +2674,13 @@
         <v>-0.46875</v>
       </c>
       <c r="U19">
-        <v>0.999791802447679</v>
+        <v>-0.0002081975523210433</v>
       </c>
       <c r="V19">
-        <v>1.000061563086773</v>
+        <v>6.156308677307543E-05</v>
       </c>
       <c r="W19">
-        <v>1.001392111368909</v>
+        <v>0.001392111368909488</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2715,7 +2715,7 @@
         <v>1.02253009595307</v>
       </c>
       <c r="K20">
-        <v>50.55697801476851</v>
+        <v>0.005569780147685055</v>
       </c>
       <c r="L20">
         <v>-0.01554701463357468</v>
@@ -2745,13 +2745,13 @@
         <v>-0.5125000000000171</v>
       </c>
       <c r="U20">
-        <v>1.000032403619484</v>
+        <v>3.240361948431136E-05</v>
       </c>
       <c r="V20">
-        <v>0.9999076610545108</v>
+        <v>-9.233894548921207E-05</v>
       </c>
       <c r="W20">
-        <v>1.004170528266914</v>
+        <v>0.004170528266913776</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2786,7 +2786,7 @@
         <v>0.8335682735843608</v>
       </c>
       <c r="K21">
-        <v>45.46153451678433</v>
+        <v>-0.04538465483215665</v>
       </c>
       <c r="L21">
         <v>-0.01636577071369065</v>
@@ -2816,13 +2816,13 @@
         <v>-0.4437499999999943</v>
       </c>
       <c r="U21">
-        <v>0.9998906413278574</v>
+        <v>-0.0001093586721425677</v>
       </c>
       <c r="V21">
-        <v>0.9997537400726467</v>
+        <v>-0.0002462599273532762</v>
       </c>
       <c r="W21">
-        <v>0.9972311952007383</v>
+        <v>-0.00276880479926167</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2857,7 +2857,7 @@
         <v>1.125355061417761</v>
       </c>
       <c r="K22">
-        <v>52.94903810881698</v>
+        <v>0.02949038108816981</v>
       </c>
       <c r="L22">
         <v>-0.01514501280895978</v>
@@ -2887,13 +2887,13 @@
         <v>-0.4125000000000227</v>
       </c>
       <c r="U22">
-        <v>1.00009895438203</v>
+        <v>9.895438202978113E-05</v>
       </c>
       <c r="V22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>1.004164738546969</v>
+        <v>0.004164738546968971</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2928,7 +2928,7 @@
         <v>1.159482171105875</v>
       </c>
       <c r="K23">
-        <v>53.69260217194116</v>
+        <v>0.03692602171941162</v>
       </c>
       <c r="L23">
         <v>-0.0125941088156788</v>
@@ -2958,13 +2958,13 @@
         <v>-0.3062500000000057</v>
       </c>
       <c r="U23">
-        <v>1.00011093787479</v>
+        <v>0.0001109378747901069</v>
       </c>
       <c r="V23">
-        <v>0.9999692099267196</v>
+        <v>-3.079007328044003E-05</v>
       </c>
       <c r="W23">
-        <v>1.000460829493087</v>
+        <v>0.0004608294930874557</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2999,7 +2999,7 @@
         <v>1.375021811241347</v>
       </c>
       <c r="K24">
-        <v>57.89512351984118</v>
+        <v>0.07895123519841174</v>
       </c>
       <c r="L24">
         <v>-0.008321839126725171</v>
@@ -3029,13 +3029,13 @@
         <v>-0.1499999999999773</v>
       </c>
       <c r="U24">
-        <v>1.000221720790567</v>
+        <v>0.000221720790566815</v>
       </c>
       <c r="V24">
-        <v>0.9999692089786619</v>
+        <v>-3.079102133807243E-05</v>
       </c>
       <c r="W24">
-        <v>1.002763703362506</v>
+        <v>0.002763703362505643</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -3070,7 +3070,7 @@
         <v>1.564091671009307</v>
       </c>
       <c r="K25">
-        <v>60.99983431534768</v>
+        <v>0.1099983431534768</v>
       </c>
       <c r="L25">
         <v>-0.002415686096438688</v>
@@ -3100,13 +3100,13 @@
         <v>0.1500000000000057</v>
       </c>
       <c r="U25">
-        <v>1.000299363142544</v>
+        <v>0.0002993631425436405</v>
       </c>
       <c r="V25">
-        <v>1.000246335755635</v>
+        <v>0.0002463357556348189</v>
       </c>
       <c r="W25">
-        <v>1.002296738631144</v>
+        <v>0.00229673863114388</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -3141,7 +3141,7 @@
         <v>1.118773172432523</v>
       </c>
       <c r="K26">
-        <v>52.80287606946056</v>
+        <v>0.02802876069460558</v>
       </c>
       <c r="L26">
         <v>0.0022987357308072</v>
@@ -3171,13 +3171,13 @@
         <v>0.3749999999999716</v>
       </c>
       <c r="U26">
-        <v>1.000090751778504</v>
+        <v>9.075177850403904E-05</v>
       </c>
       <c r="V26">
-        <v>1.000030784386159</v>
+        <v>3.078438615933266E-05</v>
       </c>
       <c r="W26">
-        <v>0.995417048579285</v>
+        <v>-0.004582951420714965</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3212,7 +3212,7 @@
         <v>1.08621931562589</v>
       </c>
       <c r="K27">
-        <v>52.06640104854038</v>
+        <v>0.02066401048540378</v>
       </c>
       <c r="L27">
         <v>0.005809880428961018</v>
@@ -3242,13 +3242,13 @@
         <v>0.5374999999999943</v>
       </c>
       <c r="U27">
-        <v>1.000066016815122</v>
+        <v>6.601681512186097E-05</v>
       </c>
       <c r="V27">
-        <v>1.00018470063106</v>
+        <v>0.0001847006310604637</v>
       </c>
       <c r="W27">
-        <v>0.9995395948434622</v>
+        <v>-0.0004604051565377798</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3283,7 +3283,7 @@
         <v>1.178107158136511</v>
       </c>
       <c r="K28">
-        <v>54.08857657602326</v>
+        <v>0.04088576576023262</v>
       </c>
       <c r="L28">
         <v>0.008873436753053427</v>
@@ -3313,13 +3313,13 @@
         <v>0.5687500000000227</v>
       </c>
       <c r="U28">
-        <v>1.000112386799874</v>
+        <v>0.0001123867998744643</v>
       </c>
       <c r="V28">
-        <v>1.000430888553753</v>
+        <v>0.0004308885537533946</v>
       </c>
       <c r="W28">
-        <v>1.001381851681253</v>
+        <v>0.001381851681252932</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3354,7 +3354,7 @@
         <v>1.106741482986583</v>
       </c>
       <c r="K29">
-        <v>52.5333313044955</v>
+        <v>0.02533331304495501</v>
       </c>
       <c r="L29">
         <v>0.01108882375528039</v>
@@ -3384,13 +3384,13 @@
         <v>0.6312499999999659</v>
       </c>
       <c r="U29">
-        <v>1.000071395619604</v>
+        <v>7.139561960411989E-05</v>
       </c>
       <c r="V29">
-        <v>1.000153822488848</v>
+        <v>0.0001538224888477657</v>
       </c>
       <c r="W29">
-        <v>0.999080036798528</v>
+        <v>-0.0009199632014720294</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3425,7 +3425,7 @@
         <v>1.040400553318086</v>
       </c>
       <c r="K30">
-        <v>50.99001525098558</v>
+        <v>0.009900152509855764</v>
       </c>
       <c r="L30">
         <v>0.01226681278176517</v>
@@ -3455,13 +3455,13 @@
         <v>0.6124999999999829</v>
       </c>
       <c r="U30">
-        <v>1.000034653755018</v>
+        <v>3.465375501843226E-05</v>
       </c>
       <c r="V30">
-        <v>1.000246078129806</v>
+        <v>0.0002460781298063708</v>
       </c>
       <c r="W30">
-        <v>0.9990791896869246</v>
+        <v>-0.0009208103130754486</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3496,7 +3496,7 @@
         <v>1.040400553318086</v>
       </c>
       <c r="K31">
-        <v>50.99001525098558</v>
+        <v>0.009900152509855764</v>
       </c>
       <c r="L31">
         <v>0.01270176455336993</v>
@@ -3526,13 +3526,13 @@
         <v>0.5499999999999829</v>
       </c>
       <c r="U31">
-        <v>1.000032342383899</v>
+        <v>3.234238389882016E-05</v>
       </c>
       <c r="V31">
-        <v>1.000246017590258</v>
+        <v>0.0002460175902576633</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3567,7 +3567,7 @@
         <v>0.8922466526975646</v>
       </c>
       <c r="K32">
-        <v>47.15276686713057</v>
+        <v>-0.02847233132869426</v>
       </c>
       <c r="L32">
         <v>0.01176156675643285</v>
@@ -3597,13 +3597,13 @@
         <v>0.3812499999999943</v>
       </c>
       <c r="U32">
-        <v>0.999938498439398</v>
+        <v>-6.15015606020286E-05</v>
       </c>
       <c r="V32">
-        <v>1.000276701715551</v>
+        <v>0.0002767017155507201</v>
       </c>
       <c r="W32">
-        <v>0.9976958525345622</v>
+        <v>-0.002304147465437834</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3638,7 +3638,7 @@
         <v>1.132079626780521</v>
       </c>
       <c r="K33">
-        <v>53.09743653852092</v>
+        <v>0.03097436538520926</v>
       </c>
       <c r="L33">
         <v>0.01137737453926782</v>
@@ -3668,13 +3668,13 @@
         <v>0.1624999999999943</v>
       </c>
       <c r="U33">
-        <v>1.000076881679096</v>
+        <v>7.688167909591925E-05</v>
       </c>
       <c r="V33">
-        <v>1.000553250345781</v>
+        <v>0.0005532503457814641</v>
       </c>
       <c r="W33">
-        <v>1.003695150115473</v>
+        <v>0.003695150115473389</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3709,7 +3709,7 @@
         <v>1.163636597054592</v>
       </c>
       <c r="K34">
-        <v>53.78151759120164</v>
+        <v>0.03781517591201644</v>
       </c>
       <c r="L34">
         <v>0.0114798662660486</v>
@@ -3739,13 +3739,13 @@
         <v>0.06875000000002274</v>
       </c>
       <c r="U34">
-        <v>1.000276752767528</v>
+        <v>0.0002767527675275883</v>
       </c>
       <c r="V34">
-        <v>1.000491506159187</v>
+        <v>0.0004915061591865832</v>
       </c>
       <c r="W34">
-        <v>1.000460193281178</v>
+        <v>0.0004601932811780785</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3780,7 +3780,7 @@
         <v>1.091145549338458</v>
       </c>
       <c r="K35">
-        <v>52.17932102735012</v>
+        <v>0.02179321027350123</v>
       </c>
       <c r="L35">
         <v>0.01148655869478638</v>
@@ -3810,13 +3810,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U35">
-        <v>1.000030741799625</v>
+        <v>3.074179962481161E-05</v>
       </c>
       <c r="V35">
-        <v>1.000153520218613</v>
+        <v>0.0001535202186127016</v>
       </c>
       <c r="W35">
-        <v>0.999080036798528</v>
+        <v>-0.0009199632014720294</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3851,7 +3851,7 @@
         <v>1.123933434409339</v>
       </c>
       <c r="K36">
-        <v>52.9175451641168</v>
+        <v>0.02917545164116797</v>
       </c>
       <c r="L36">
         <v>0.01156213300131555</v>
@@ -3881,13 +3881,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U36">
-        <v>1.000061481709192</v>
+        <v>6.148170919151319E-05</v>
       </c>
       <c r="V36">
-        <v>1.000368391969055</v>
+        <v>0.0003683919690551374</v>
       </c>
       <c r="W36">
-        <v>1.000460405156538</v>
+        <v>0.0004604051565377798</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3922,7 +3922,7 @@
         <v>1.192960560874331</v>
       </c>
       <c r="K37">
-        <v>54.39954471405081</v>
+        <v>0.04399544714050807</v>
       </c>
       <c r="L37">
         <v>0.0119700472819</v>
@@ -3952,13 +3952,13 @@
         <v>-0.1062499999999886</v>
       </c>
       <c r="U37">
-        <v>1.000076847411779</v>
+        <v>7.684741177915733E-05</v>
       </c>
       <c r="V37">
-        <v>1.000153440127662</v>
+        <v>0.0001534401276623854</v>
       </c>
       <c r="W37">
-        <v>1.000920386562356</v>
+        <v>0.0009203865623561569</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3993,7 +3993,7 @@
         <v>1.229290627434854</v>
       </c>
       <c r="K38">
-        <v>55.14268136718201</v>
+        <v>0.05142681367182012</v>
       </c>
       <c r="L38">
         <v>0.01267702061039912</v>
@@ -4023,13 +4023,13 @@
         <v>-0.06874999999996589</v>
       </c>
       <c r="U38">
-        <v>1.000061473205367</v>
+        <v>6.147320536653567E-05</v>
       </c>
       <c r="V38">
-        <v>1.000153416587401</v>
+        <v>0.0001534165874013116</v>
       </c>
       <c r="W38">
-        <v>1.000459770114942</v>
+        <v>0.0004597701149424704</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4064,7 +4064,7 @@
         <v>1.141949371292138</v>
       </c>
       <c r="K39">
-        <v>53.31355570758674</v>
+        <v>0.03313555707586735</v>
       </c>
       <c r="L39">
         <v>0.01313487585488099</v>
@@ -4094,13 +4094,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U39">
-        <v>0.9999385305733561</v>
+        <v>-6.146942664386756E-05</v>
       </c>
       <c r="V39">
-        <v>0.9999079641673825</v>
+        <v>-9.20358326175208E-05</v>
       </c>
       <c r="W39">
-        <v>0.9990808823529412</v>
+        <v>-0.0009191176470587648</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -4135,7 +4135,7 @@
         <v>1.216738979468521</v>
       </c>
       <c r="K40">
-        <v>54.88868968056145</v>
+        <v>0.04888689680561453</v>
       </c>
       <c r="L40">
         <v>0.01370190850339304</v>
@@ -4165,13 +4165,13 @@
         <v>0.1062500000000171</v>
       </c>
       <c r="U40">
-        <v>1.000030736602683</v>
+        <v>3.073660268304579E-05</v>
       </c>
       <c r="V40">
-        <v>0.9998159113920166</v>
+        <v>-0.000184088607983357</v>
       </c>
       <c r="W40">
-        <v>1.000919963201472</v>
+        <v>0.0009199632014718073</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4206,7 +4206,7 @@
         <v>1.452916689499218</v>
       </c>
       <c r="K41">
-        <v>59.23220693630007</v>
+        <v>0.09232206936300069</v>
       </c>
       <c r="L41">
         <v>0.01525903149320858</v>
@@ -4236,13 +4236,13 @@
         <v>0.2187499999999716</v>
       </c>
       <c r="U41">
-        <v>1.000169046118855</v>
+        <v>0.0001690461188548209</v>
       </c>
       <c r="V41">
-        <v>1.000306870838064</v>
+        <v>0.0003068708380644658</v>
       </c>
       <c r="W41">
-        <v>1.002757352941176</v>
+        <v>0.002757352941176405</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4277,7 +4277,7 @@
         <v>1.341728492048373</v>
       </c>
       <c r="K42">
-        <v>57.29650113599321</v>
+        <v>0.07296501135993205</v>
       </c>
       <c r="L42">
         <v>0.01692184261704206</v>
@@ -4307,13 +4307,13 @@
         <v>0.2437499999999773</v>
       </c>
       <c r="U42">
-        <v>1.00023047847331</v>
+        <v>0.0002304784733104803</v>
       </c>
       <c r="V42">
-        <v>1.000276099027518</v>
+        <v>0.0002760990275179065</v>
       </c>
       <c r="W42">
-        <v>0.9990834097158571</v>
+        <v>-0.0009165902841429263</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4348,7 +4348,7 @@
         <v>1.382006165465193</v>
       </c>
       <c r="K43">
-        <v>58.01858053525628</v>
+        <v>0.08018580535256281</v>
       </c>
       <c r="L43">
         <v>0.01864809684195157</v>
@@ -4378,13 +4378,13 @@
         <v>0.2937499999999886</v>
       </c>
       <c r="U43">
-        <v>1.000322595511314</v>
+        <v>0.0003225955113139722</v>
       </c>
       <c r="V43">
-        <v>1.000214684413911</v>
+        <v>0.0002146844139114812</v>
       </c>
       <c r="W43">
-        <v>1.00045871559633</v>
+        <v>0.0004587155963302614</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4419,7 +4419,7 @@
         <v>1.593993920290576</v>
       </c>
       <c r="K44">
-        <v>61.4494084902103</v>
+        <v>0.114494084902103</v>
       </c>
       <c r="L44">
         <v>0.02107434948198266</v>
@@ -4449,13 +4449,13 @@
         <v>0.3812499999999943</v>
       </c>
       <c r="U44">
-        <v>1.00029177800301</v>
+        <v>0.000291778003010057</v>
       </c>
       <c r="V44">
-        <v>1.000429276668813</v>
+        <v>0.0004292766688129834</v>
       </c>
       <c r="W44">
-        <v>1.002292526364053</v>
+        <v>0.002292526364053193</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4490,7 +4490,7 @@
         <v>1.405778455883454</v>
       </c>
       <c r="K45">
-        <v>58.43341278768006</v>
+        <v>0.0843341278768005</v>
       </c>
       <c r="L45">
         <v>0.0231869166203264</v>
@@ -4520,13 +4520,13 @@
         <v>0.4124999999999943</v>
       </c>
       <c r="U45">
-        <v>1.000322397408539</v>
+        <v>0.0003223974085386772</v>
       </c>
       <c r="V45">
-        <v>1.000398443007325</v>
+        <v>0.0003984430073251666</v>
       </c>
       <c r="W45">
-        <v>0.9986276303751145</v>
+        <v>-0.001372369624885517</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4561,7 +4561,7 @@
         <v>1.488640144358429</v>
       </c>
       <c r="K46">
-        <v>59.81741264332936</v>
+        <v>0.0981741264332936</v>
       </c>
       <c r="L46">
         <v>0.02522530603209727</v>
@@ -4591,13 +4591,13 @@
         <v>0.4312499999999773</v>
       </c>
       <c r="U46">
-        <v>1.000352988121182</v>
+        <v>0.0003529881211823405</v>
       </c>
       <c r="V46">
-        <v>1.000459558823529</v>
+        <v>0.0004595588235294379</v>
       </c>
       <c r="W46">
-        <v>1.000916170407696</v>
+        <v>0.000916170407695871</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4632,7 +4632,7 @@
         <v>1.575862974332086</v>
       </c>
       <c r="K47">
-        <v>61.1780591605694</v>
+        <v>0.111780591605694</v>
       </c>
       <c r="L47">
         <v>0.02733146112186062</v>
@@ -4662,13 +4662,13 @@
         <v>0.4875000000000114</v>
       </c>
       <c r="U47">
-        <v>1.000475598717418</v>
+        <v>0.0004755987174178689</v>
       </c>
       <c r="V47">
-        <v>1.000673709998469</v>
+        <v>0.00067370999846883</v>
       </c>
       <c r="W47">
-        <v>1.00091533180778</v>
+        <v>0.0009153318077803618</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4703,7 +4703,7 @@
         <v>1.192618331387552</v>
       </c>
       <c r="K48">
-        <v>54.39242727815876</v>
+        <v>0.04392427278158761</v>
       </c>
       <c r="L48">
         <v>0.0280689328973868</v>
@@ -4733,13 +4733,13 @@
         <v>0.4437500000000227</v>
       </c>
       <c r="U48">
-        <v>1.000383365024842</v>
+        <v>0.0003833650248419307</v>
       </c>
       <c r="V48">
-        <v>1.000214217951464</v>
+        <v>0.0002142179514643683</v>
       </c>
       <c r="W48">
-        <v>0.9967992684042067</v>
+        <v>-0.00320073159579326</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4774,7 +4774,7 @@
         <v>1.302331119200618</v>
       </c>
       <c r="K49">
-        <v>56.56576103843805</v>
+        <v>0.06565761038438056</v>
       </c>
       <c r="L49">
         <v>0.02833168169935371</v>
@@ -4804,13 +4804,13 @@
         <v>0.3937499999999829</v>
       </c>
       <c r="U49">
-        <v>1.000383218112421</v>
+        <v>0.0003832181124208134</v>
       </c>
       <c r="V49">
-        <v>1.000275364092522</v>
+        <v>0.0002753640925223788</v>
       </c>
       <c r="W49">
-        <v>1.001376146788991</v>
+        <v>0.001376146788990784</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4845,7 +4845,7 @@
         <v>1.379322549244867</v>
       </c>
       <c r="K50">
-        <v>57.97123007482222</v>
+        <v>0.07971230074822211</v>
       </c>
       <c r="L50">
         <v>0.02852197287316327</v>
@@ -4875,13 +4875,13 @@
         <v>0.3874999999999886</v>
       </c>
       <c r="U50">
-        <v>1.00027581134504</v>
+        <v>0.0002758113450400668</v>
       </c>
       <c r="V50">
-        <v>1.000397638638241</v>
+        <v>0.000397638638240716</v>
       </c>
       <c r="W50">
-        <v>1.000916170407696</v>
+        <v>0.000916170407695871</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4916,7 +4916,7 @@
         <v>1.541409770390667</v>
       </c>
       <c r="K51">
-        <v>60.65176062314895</v>
+        <v>0.1065176062314895</v>
       </c>
       <c r="L51">
         <v>0.02922205072479275</v>
@@ -4946,13 +4946,13 @@
         <v>0.3812499999999943</v>
       </c>
       <c r="U51">
-        <v>1.000428921568628</v>
+        <v>0.000428921568627505</v>
       </c>
       <c r="V51">
-        <v>1.000489206873356</v>
+        <v>0.000489206873356407</v>
       </c>
       <c r="W51">
-        <v>1.001830663615561</v>
+        <v>0.001830663615560724</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4987,7 +4987,7 @@
         <v>1.584064302271137</v>
       </c>
       <c r="K52">
-        <v>61.30127260683495</v>
+        <v>0.1130127260683494</v>
       </c>
       <c r="L52">
         <v>0.03024612715125503</v>
@@ -5017,13 +5017,13 @@
         <v>0.3250000000000171</v>
       </c>
       <c r="U52">
-        <v>1.000306241195566</v>
+        <v>0.0003062411955656597</v>
       </c>
       <c r="V52">
-        <v>1.000458407187825</v>
+        <v>0.0004584071878246387</v>
       </c>
       <c r="W52">
-        <v>1.000456829602558</v>
+        <v>0.0004568296025582175</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -5058,7 +5058,7 @@
         <v>1.718762823998952</v>
       </c>
       <c r="K53">
-        <v>63.2185642979652</v>
+        <v>0.132185642979652</v>
       </c>
       <c r="L53">
         <v>0.03179210053252043</v>
@@ -5088,13 +5088,13 @@
         <v>0.3375000000000057</v>
       </c>
       <c r="U53">
-        <v>1.000336762184668</v>
+        <v>0.0003367621846681601</v>
       </c>
       <c r="V53">
-        <v>1.000519290099887</v>
+        <v>0.0005192900998871597</v>
       </c>
       <c r="W53">
-        <v>1.001369863013699</v>
+        <v>0.00136986301369868</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -5129,7 +5129,7 @@
         <v>1.570327207520375</v>
       </c>
       <c r="K54">
-        <v>61.0944475444933</v>
+        <v>0.110944475444933</v>
       </c>
       <c r="L54">
         <v>0.03310352089928868</v>
@@ -5159,13 +5159,13 @@
         <v>0.3187500000000227</v>
       </c>
       <c r="U54">
-        <v>1.000214231063504</v>
+        <v>0.0002142310635040445</v>
       </c>
       <c r="V54">
-        <v>1.000519020577639</v>
+        <v>0.0005190205776393064</v>
       </c>
       <c r="W54">
-        <v>0.9990880072959416</v>
+        <v>-0.0009119927040583953</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5200,7 +5200,7 @@
         <v>1.615780837062558</v>
       </c>
       <c r="K55">
-        <v>61.77049751908996</v>
+        <v>0.1177049751908996</v>
       </c>
       <c r="L55">
         <v>0.03423502911122996</v>
@@ -5230,13 +5230,13 @@
         <v>0.2687499999999829</v>
       </c>
       <c r="U55">
-        <v>1.000152989413133</v>
+        <v>0.000152989413132687</v>
       </c>
       <c r="V55">
-        <v>1.000488236550609</v>
+        <v>0.0004882365506089226</v>
       </c>
       <c r="W55">
-        <v>1.000456412596988</v>
+        <v>0.0004564125969876986</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5271,7 +5271,7 @@
         <v>1.542002308952739</v>
       </c>
       <c r="K56">
-        <v>60.66093266406266</v>
+        <v>0.1066093266406266</v>
       </c>
       <c r="L56">
         <v>0.0348925210020154</v>
@@ -5301,13 +5301,13 @@
         <v>0.3125</v>
       </c>
       <c r="U56">
-        <v>1.000290635420809</v>
+        <v>0.0002906354208094264</v>
       </c>
       <c r="V56">
-        <v>1.000274499039253</v>
+        <v>0.0002744990392531399</v>
       </c>
       <c r="W56">
-        <v>0.9995437956204379</v>
+        <v>-0.0004562043795620641</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5342,7 +5342,7 @@
         <v>1.638131198162552</v>
       </c>
       <c r="K57">
-        <v>62.09437951014354</v>
+        <v>0.1209437951014354</v>
       </c>
       <c r="L57">
         <v>0.03542763114255533</v>
@@ -5372,13 +5372,13 @@
         <v>0.3687500000000341</v>
       </c>
       <c r="U57">
-        <v>1.000336427446363</v>
+        <v>0.0003364274463628636</v>
       </c>
       <c r="V57">
-        <v>1.000396389803635</v>
+        <v>0.0003963898036345448</v>
       </c>
       <c r="W57">
-        <v>1.000912825193975</v>
+        <v>0.0009128251939753973</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5413,7 +5413,7 @@
         <v>1.559242638756118</v>
       </c>
       <c r="K58">
-        <v>60.92594016462482</v>
+        <v>0.1092594016462481</v>
       </c>
       <c r="L58">
         <v>0.03555751441355357</v>
@@ -5443,13 +5443,13 @@
         <v>0.3812500000000227</v>
       </c>
       <c r="U58">
-        <v>1.000275166246274</v>
+        <v>0.0002751662462738835</v>
       </c>
       <c r="V58">
-        <v>1.000335273857783</v>
+        <v>0.0003352738577830916</v>
       </c>
       <c r="W58">
-        <v>0.9995440036479707</v>
+        <v>-0.0004559963520293087</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5484,7 +5484,7 @@
         <v>1.415711390868726</v>
       </c>
       <c r="K59">
-        <v>58.60432650274565</v>
+        <v>0.08604326502745652</v>
       </c>
       <c r="L59">
         <v>0.0349696134584221</v>
@@ -5514,13 +5514,13 @@
         <v>0.3375000000000057</v>
       </c>
       <c r="U59">
-        <v>1.00027509055064</v>
+        <v>0.0002750905506396784</v>
       </c>
       <c r="V59">
-        <v>1.000121876904327</v>
+        <v>0.0001218769043267454</v>
       </c>
       <c r="W59">
-        <v>0.999087591240876</v>
+        <v>-0.0009124087591240171</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5555,7 +5555,7 @@
         <v>1.609504865132013</v>
       </c>
       <c r="K60">
-        <v>61.67855391411924</v>
+        <v>0.1167855391411924</v>
       </c>
       <c r="L60">
         <v>0.03452497577783729</v>
@@ -5585,13 +5585,13 @@
         <v>0.3374999999999773</v>
       </c>
       <c r="U60">
-        <v>1.000366686528854</v>
+        <v>0.0003666865288536325</v>
       </c>
       <c r="V60">
-        <v>1.000335120643432</v>
+        <v>0.0003351206434316634</v>
       </c>
       <c r="W60">
-        <v>1.001826484018265</v>
+        <v>0.001826484018264907</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5626,7 +5626,7 @@
         <v>1.660503147832874</v>
       </c>
       <c r="K61">
-        <v>62.41312471986531</v>
+        <v>0.1241312471986531</v>
       </c>
       <c r="L61">
         <v>0.03423594081935272</v>
@@ -5656,13 +5656,13 @@
         <v>0.2874999999999943</v>
       </c>
       <c r="U61">
-        <v>1.000381825124093</v>
+        <v>0.000381825124093238</v>
       </c>
       <c r="V61">
-        <v>1.000304553068372</v>
+        <v>0.000304553068372071</v>
       </c>
       <c r="W61">
-        <v>1.000455788514129</v>
+        <v>0.0004557885141294182</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5697,7 +5697,7 @@
         <v>1.49950868883193</v>
       </c>
       <c r="K62">
-        <v>59.99213747613256</v>
+        <v>0.09992137476132568</v>
       </c>
       <c r="L62">
         <v>0.03360046773041155</v>
@@ -5727,13 +5727,13 @@
         <v>0.2625000000000171</v>
       </c>
       <c r="U62">
-        <v>1.000427480916031</v>
+        <v>0.0004274809160305093</v>
       </c>
       <c r="V62">
-        <v>1.000182676206424</v>
+        <v>0.0001826762064240928</v>
       </c>
       <c r="W62">
-        <v>0.9990888382687928</v>
+        <v>-0.0009111617312071996</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5768,7 +5768,7 @@
         <v>1.426705251475892</v>
       </c>
       <c r="K63">
-        <v>58.79186401431272</v>
+        <v>0.08791864014312722</v>
       </c>
       <c r="L63">
         <v>0.03250628384290528</v>
@@ -5798,13 +5798,13 @@
         <v>0.2312499999999886</v>
       </c>
       <c r="U63">
-        <v>1.000289952386766</v>
+        <v>0.0002899523867658793</v>
       </c>
       <c r="V63">
-        <v>1.000365285683845</v>
+        <v>0.0003652856838451957</v>
       </c>
       <c r="W63">
-        <v>0.9995440036479707</v>
+        <v>-0.0004559963520293087</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -5839,7 +5839,7 @@
         <v>1.426705251475892</v>
       </c>
       <c r="K64">
-        <v>58.79186401431272</v>
+        <v>0.08791864014312722</v>
       </c>
       <c r="L64">
         <v>0.03108564275104641</v>
@@ -5869,13 +5869,13 @@
         <v>0.1687499999999886</v>
       </c>
       <c r="U64">
-        <v>1.000274612110394</v>
+        <v>0.0002746121103942567</v>
       </c>
       <c r="V64">
-        <v>1.000273864224204</v>
+        <v>0.0002738642242035016</v>
       </c>
       <c r="W64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5910,7 +5910,7 @@
         <v>1.480501957857225</v>
       </c>
       <c r="K65">
-        <v>59.68557908884509</v>
+        <v>0.09685579088845087</v>
       </c>
       <c r="L65">
         <v>0.02961133119378363</v>
@@ -5940,13 +5940,13 @@
         <v>0.1062499999999886</v>
       </c>
       <c r="U65">
-        <v>1.000320292839167</v>
+        <v>0.0003202928391670135</v>
       </c>
       <c r="V65">
-        <v>1.000243368216111</v>
+        <v>0.0002433682161109285</v>
       </c>
       <c r="W65">
-        <v>1.000456204379562</v>
+        <v>0.0004562043795621751</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5981,7 +5981,7 @@
         <v>1.401157077945279</v>
       </c>
       <c r="K66">
-        <v>58.35341181195353</v>
+        <v>0.08353411811953537</v>
       </c>
       <c r="L66">
         <v>0.02792391344348683</v>
@@ -6011,13 +6011,13 @@
         <v>0.0625</v>
       </c>
       <c r="U66">
-        <v>1.000289695971701</v>
+        <v>0.0002896959717013647</v>
       </c>
       <c r="V66">
-        <v>1.000091240875912</v>
+        <v>9.124087591239061E-05</v>
       </c>
       <c r="W66">
-        <v>0.9995440036479707</v>
+        <v>-0.0004559963520293087</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -6052,7 +6052,7 @@
         <v>1.457571002817073</v>
       </c>
       <c r="K67">
-        <v>59.30941572578303</v>
+        <v>0.09309415725783032</v>
       </c>
       <c r="L67">
         <v>0.02627993274092807</v>
@@ -6082,13 +6082,13 @@
         <v>0.07499999999996021</v>
       </c>
       <c r="U67">
-        <v>1.000274369331606</v>
+        <v>0.0002743693316056284</v>
       </c>
       <c r="V67">
-        <v>1.000091232551775</v>
+        <v>9.123255177456713E-05</v>
       </c>
       <c r="W67">
-        <v>1.000456204379562</v>
+        <v>0.0004562043795621751</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -6123,7 +6123,7 @@
         <v>1.23717009504233</v>
       </c>
       <c r="K68">
-        <v>55.30067194193034</v>
+        <v>0.05300671941930335</v>
       </c>
       <c r="L68">
         <v>0.02417167039565715</v>
@@ -6153,13 +6153,13 @@
         <v>0.02499999999997726</v>
       </c>
       <c r="U68">
-        <v>1.000213339835119</v>
+        <v>0.000213339835118953</v>
       </c>
       <c r="V68">
-        <v>0.9999087757708446</v>
+        <v>-9.122422915541772E-05</v>
       </c>
       <c r="W68">
-        <v>0.9986320109439124</v>
+        <v>-0.001367989056087593</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6194,7 +6194,7 @@
         <v>1.23717009504233</v>
       </c>
       <c r="K69">
-        <v>55.30067194193034</v>
+        <v>0.05300671941930335</v>
       </c>
       <c r="L69">
         <v>0.0218288587612909</v>
@@ -6224,13 +6224,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U69">
-        <v>1.000243764949647</v>
+        <v>0.0002437649496471739</v>
       </c>
       <c r="V69">
-        <v>0.9999695891494086</v>
+        <v>-3.041085059141135E-05</v>
       </c>
       <c r="W69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6265,7 +6265,7 @@
         <v>1.059632014680439</v>
       </c>
       <c r="K70">
-        <v>51.44763759388571</v>
+        <v>0.01447637593885709</v>
       </c>
       <c r="L70">
         <v>0.01891467147436118</v>
@@ -6295,13 +6295,13 @@
         <v>-0.06875000000002274</v>
       </c>
       <c r="U70">
-        <v>1.00016754756066</v>
+        <v>0.000167547560659953</v>
       </c>
       <c r="V70">
-        <v>0.9998479411228026</v>
+        <v>-0.0001520588771973808</v>
       </c>
       <c r="W70">
-        <v>0.9986301369863013</v>
+        <v>-0.00136986301369868</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6336,7 +6336,7 @@
         <v>0.8819916313016342</v>
       </c>
       <c r="K71">
-        <v>46.86480091793107</v>
+        <v>-0.03135199082068929</v>
       </c>
       <c r="L71">
         <v>0.01510598444468138</v>
@@ -6366,13 +6366,13 @@
         <v>-0.125</v>
       </c>
       <c r="U71">
-        <v>1.000015229044834</v>
+        <v>1.522904483430843E-05</v>
       </c>
       <c r="V71">
-        <v>0.9997566687958148</v>
+        <v>-0.0002433312041851821</v>
       </c>
       <c r="W71">
-        <v>0.9981710105166897</v>
+        <v>-0.001828989483310339</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6407,7 +6407,7 @@
         <v>0.8104802047442763</v>
       </c>
       <c r="K72">
-        <v>44.76603514473408</v>
+        <v>-0.05233964855265916</v>
       </c>
       <c r="L72">
         <v>0.01061094112784309</v>
@@ -6437,13 +6437,13 @@
         <v>-0.1999999999999886</v>
       </c>
       <c r="U72">
-        <v>1.000015228812914</v>
+        <v>1.522881291404765E-05</v>
       </c>
       <c r="V72">
-        <v>0.999634914356993</v>
+        <v>-0.0003650856430069682</v>
       </c>
       <c r="W72">
-        <v>0.9990838295923041</v>
+        <v>-0.000916170407695871</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6478,7 +6478,7 @@
         <v>0.8531536174946611</v>
       </c>
       <c r="K73">
-        <v>46.03793282113694</v>
+        <v>-0.0396206717886306</v>
       </c>
       <c r="L73">
         <v>0.006114649028146143</v>
@@ -6508,13 +6508,13 @@
         <v>-0.2687500000000114</v>
       </c>
       <c r="U73">
-        <v>1.000015228581001</v>
+        <v>1.522858100067026E-05</v>
       </c>
       <c r="V73">
-        <v>0.9996956508506558</v>
+        <v>-0.0003043491493441852</v>
       </c>
       <c r="W73">
-        <v>1.000458505272811</v>
+        <v>0.0004585052728105499</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6549,7 +6549,7 @@
         <v>0.7232091802212011</v>
       </c>
       <c r="K74">
-        <v>41.96873998363714</v>
+        <v>-0.08031260016362857</v>
       </c>
       <c r="L74">
         <v>0.001216329586682872</v>
@@ -6579,13 +6579,13 @@
         <v>-0.3562499999999886</v>
       </c>
       <c r="U74">
-        <v>0.9998781732072427</v>
+        <v>-0.0001218267927572958</v>
       </c>
       <c r="V74">
-        <v>0.9996346698328615</v>
+        <v>-0.0003653301671384668</v>
       </c>
       <c r="W74">
-        <v>0.9981668194317141</v>
+        <v>-0.001833180568285853</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6620,7 +6620,7 @@
         <v>0.8033727143009506</v>
       </c>
       <c r="K75">
-        <v>44.54834588158697</v>
+        <v>-0.0545165411841303</v>
       </c>
       <c r="L75">
         <v>-0.003285327017753803</v>
@@ -6650,13 +6650,13 @@
         <v>-0.4562499999999829</v>
       </c>
       <c r="U75">
-        <v>0.9999543093863751</v>
+        <v>-4.569061362491578E-05</v>
       </c>
       <c r="V75">
-        <v>0.999573625704279</v>
+        <v>-0.0004263742957210104</v>
       </c>
       <c r="W75">
-        <v>1.000918273645546</v>
+        <v>0.0009182736455464191</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6691,7 +6691,7 @@
         <v>0.8033727143009507</v>
       </c>
       <c r="K76">
-        <v>44.54834588158698</v>
+        <v>-0.05451654118413024</v>
       </c>
       <c r="L76">
         <v>-0.007248327230582852</v>
@@ -6721,13 +6721,13 @@
         <v>-0.4937499999999773</v>
       </c>
       <c r="U76">
-        <v>0.9999238454977457</v>
+        <v>-7.615450225428866E-05</v>
       </c>
       <c r="V76">
-        <v>0.9995429755339568</v>
+        <v>-0.0004570244660432321</v>
       </c>
       <c r="W76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6762,7 +6762,7 @@
         <v>0.7089192918929833</v>
       </c>
       <c r="K77">
-        <v>41.48348580626695</v>
+        <v>-0.08516514193733049</v>
       </c>
       <c r="L77">
         <v>-0.01110573955847578</v>
@@ -6792,13 +6792,13 @@
         <v>-0.5437499999999886</v>
       </c>
       <c r="U77">
-        <v>0.9998476793955917</v>
+        <v>-0.0001523206044082848</v>
       </c>
       <c r="V77">
-        <v>0.9995122843382309</v>
+        <v>-0.0004877156617690837</v>
       </c>
       <c r="W77">
-        <v>0.9986238532110091</v>
+        <v>-0.001376146788990895</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -6833,7 +6833,7 @@
         <v>0.7914253345606965</v>
       </c>
       <c r="K78">
-        <v>44.17852752734316</v>
+        <v>-0.05821472472656841</v>
       </c>
       <c r="L78">
         <v>-0.01428083406047806</v>
@@ -6863,13 +6863,13 @@
         <v>-0.5562500000000057</v>
       </c>
       <c r="U78">
-        <v>0.9999847656190493</v>
+        <v>-1.523438095074603E-05</v>
       </c>
       <c r="V78">
-        <v>0.9996035376639218</v>
+        <v>-0.0003964623360781516</v>
       </c>
       <c r="W78">
-        <v>1.000918695452458</v>
+        <v>0.0009186954524575963</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6904,7 +6904,7 @@
         <v>0.7002074236567903</v>
       </c>
       <c r="K79">
-        <v>41.18364700177527</v>
+        <v>-0.0881635299822473</v>
       </c>
       <c r="L79">
         <v>-0.01728806590212446</v>
@@ -6934,13 +6934,13 @@
         <v>-0.5437499999999886</v>
       </c>
       <c r="U79">
-        <v>0.9998933577087141</v>
+        <v>-0.0001066422912858744</v>
       </c>
       <c r="V79">
-        <v>0.9995118528236264</v>
+        <v>-0.0004881471763735767</v>
       </c>
       <c r="W79">
-        <v>0.9986232216613125</v>
+        <v>-0.001376778338687545</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6975,7 +6975,7 @@
         <v>0.7002074236567905</v>
       </c>
       <c r="K80">
-        <v>41.18364700177527</v>
+        <v>-0.0881635299822473</v>
       </c>
       <c r="L80">
         <v>-0.01993979296287409</v>
@@ -7005,13 +7005,13 @@
         <v>-0.5062499999999943</v>
       </c>
       <c r="U80">
-        <v>0.9998628738591868</v>
+        <v>-0.0001371261408131819</v>
       </c>
       <c r="V80">
-        <v>0.9994810903208082</v>
+        <v>-0.0005189096791917702</v>
       </c>
       <c r="W80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -7046,7 +7046,7 @@
         <v>0.7427772332741628</v>
       </c>
       <c r="K81">
-        <v>42.62031997507244</v>
+        <v>-0.0737968002492756</v>
       </c>
       <c r="L81">
         <v>-0.02196879824922157</v>
@@ -7076,13 +7076,13 @@
         <v>-0.4687499999999716</v>
       </c>
       <c r="U81">
-        <v>0.9998171400707057</v>
+        <v>-0.0001828599292943434</v>
       </c>
       <c r="V81">
-        <v>0.9995419008062546</v>
+        <v>-0.0004580991937453982</v>
       </c>
       <c r="W81">
-        <v>1.000459558823529</v>
+        <v>0.0004595588235294379</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -7117,7 +7117,7 @@
         <v>0.6298772193390716</v>
       </c>
       <c r="K82">
-        <v>38.64568520041601</v>
+        <v>-0.1135431479958399</v>
       </c>
       <c r="L82">
         <v>-0.02407785016133793</v>
@@ -7147,13 +7147,13 @@
         <v>-0.4124999999999943</v>
       </c>
       <c r="U82">
-        <v>0.9997409010546853</v>
+        <v>-0.0002590989453147285</v>
       </c>
       <c r="V82">
-        <v>0.9993889211402731</v>
+        <v>-0.0006110788597268879</v>
       </c>
       <c r="W82">
-        <v>0.998162609095085</v>
+        <v>-0.001837390904914971</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -7188,7 +7188,7 @@
         <v>0.6698764662895398</v>
       </c>
       <c r="K83">
-        <v>40.11533067341222</v>
+        <v>-0.09884669326587781</v>
       </c>
       <c r="L83">
         <v>-0.0258477191888523</v>
@@ -7218,13 +7218,13 @@
         <v>-0.3687500000000057</v>
       </c>
       <c r="U83">
-        <v>0.9997103437762024</v>
+        <v>-0.0002896562237976186</v>
       </c>
       <c r="V83">
-        <v>0.9995108379956588</v>
+        <v>-0.000489162004341237</v>
       </c>
       <c r="W83">
-        <v>1.000460193281178</v>
+        <v>0.0004601932811780785</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7259,7 +7259,7 @@
         <v>0.6698764662895398</v>
       </c>
       <c r="K84">
-        <v>40.11533067341222</v>
+        <v>-0.09884669326587781</v>
       </c>
       <c r="L84">
         <v>-0.02720590733414857</v>
@@ -7289,13 +7289,13 @@
         <v>-0.34375</v>
       </c>
       <c r="U84">
-        <v>0.9997407588142004</v>
+        <v>-0.0002592411857995636</v>
       </c>
       <c r="V84">
-        <v>0.9995105985990885</v>
+        <v>-0.0004894014009114711</v>
       </c>
       <c r="W84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7330,7 +7330,7 @@
         <v>0.7141969615255156</v>
       </c>
       <c r="K85">
-        <v>41.66364645110152</v>
+        <v>-0.08336353548898479</v>
       </c>
       <c r="L85">
         <v>-0.02796300618829106</v>
@@ -7360,13 +7360,13 @@
         <v>-0.2749999999999773</v>
       </c>
       <c r="U85">
-        <v>0.9997406915907809</v>
+        <v>-0.0002593084092190612</v>
       </c>
       <c r="V85">
-        <v>0.9996327692260613</v>
+        <v>-0.0003672307739387426</v>
       </c>
       <c r="W85">
-        <v>1.000459981600736</v>
+        <v>0.0004599816007360147</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7401,7 +7401,7 @@
         <v>0.8075032672854647</v>
       </c>
       <c r="K86">
-        <v>44.67506542868855</v>
+        <v>-0.05324934571311446</v>
       </c>
       <c r="L86">
         <v>-0.02787278023340702</v>
@@ -7431,13 +7431,13 @@
         <v>-0.2374999999999829</v>
       </c>
       <c r="U86">
-        <v>0.9997863965091086</v>
+        <v>-0.0002136034908913897</v>
       </c>
       <c r="V86">
-        <v>0.9998163171590385</v>
+        <v>-0.0001836828409614855</v>
       </c>
       <c r="W86">
-        <v>1.000919540229885</v>
+        <v>0.0009195402298849409</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7472,7 +7472,7 @@
         <v>0.9548290132222405</v>
       </c>
       <c r="K87">
-        <v>48.84463074590595</v>
+        <v>-0.01155369254094046</v>
       </c>
       <c r="L87">
         <v>-0.02667311324028257</v>
@@ -7502,13 +7502,13 @@
         <v>-0.1687499999999602</v>
       </c>
       <c r="U87">
-        <v>0.9998016115248443</v>
+        <v>-0.0001983884751557419</v>
       </c>
       <c r="V87">
-        <v>0.999969380568909</v>
+        <v>-3.061943109095022E-05</v>
       </c>
       <c r="W87">
-        <v>1.001378043178686</v>
+        <v>0.001378043178686283</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7543,7 +7543,7 @@
         <v>0.8653622491127334</v>
       </c>
       <c r="K88">
-        <v>46.39110979780716</v>
+        <v>-0.03608890202192838</v>
       </c>
       <c r="L88">
         <v>-0.0251136000362302</v>
@@ -7573,13 +7573,13 @@
         <v>-0.125</v>
       </c>
       <c r="U88">
-        <v>0.9997863084789743</v>
+        <v>-0.0002136915210256829</v>
       </c>
       <c r="V88">
-        <v>0.9998775185253231</v>
+        <v>-0.000122481474676861</v>
       </c>
       <c r="W88">
-        <v>0.9990825688073395</v>
+        <v>-0.0009174311926605228</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7614,7 +7614,7 @@
         <v>1.013308436121792</v>
       </c>
       <c r="K89">
-        <v>50.33051160674189</v>
+        <v>0.003305116067418901</v>
       </c>
       <c r="L89">
         <v>-0.02284330938655881</v>
@@ -7644,13 +7644,13 @@
         <v>-0.06875000000002274</v>
       </c>
       <c r="U89">
-        <v>0.9998625975175951</v>
+        <v>-0.0001374024824049025</v>
       </c>
       <c r="V89">
-        <v>1.00009187235867</v>
+        <v>9.187235866958687E-05</v>
       </c>
       <c r="W89">
-        <v>1.00137741046832</v>
+        <v>0.001377410468319518</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7685,7 +7685,7 @@
         <v>1.065219378931988</v>
       </c>
       <c r="K90">
-        <v>51.57899397026083</v>
+        <v>0.01578993970260822</v>
       </c>
       <c r="L90">
         <v>-0.02003646858726015</v>
@@ -7715,13 +7715,13 @@
         <v>0.01874999999998295</v>
       </c>
       <c r="U90">
-        <v>0.9998167715140781</v>
+        <v>-0.0001832284859218936</v>
       </c>
       <c r="V90">
-        <v>1.00006124261261</v>
+        <v>6.124261260986863E-05</v>
       </c>
       <c r="W90">
-        <v>1.000458505272811</v>
+        <v>0.0004585052728105499</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7756,7 +7756,7 @@
         <v>1.010028303660415</v>
       </c>
       <c r="K91">
-        <v>50.24945677735363</v>
+        <v>0.002494567773536294</v>
       </c>
       <c r="L91">
         <v>-0.01717687324098294</v>
@@ -7786,13 +7786,13 @@
         <v>0.1000000000000227</v>
       </c>
       <c r="U91">
-        <v>0.9997861942577886</v>
+        <v>-0.0002138057422114148</v>
       </c>
       <c r="V91">
-        <v>1.000030619431091</v>
+        <v>3.06194310908392E-05</v>
       </c>
       <c r="W91">
-        <v>0.9995417048579285</v>
+        <v>-0.0004582951420715187</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -7827,7 +7827,7 @@
         <v>1.010028303660414</v>
       </c>
       <c r="K92">
-        <v>50.24945677735363</v>
+        <v>0.002494567773536294</v>
       </c>
       <c r="L92">
         <v>-0.01440477958350374</v>
@@ -7857,13 +7857,13 @@
         <v>0.1812500000000057</v>
       </c>
       <c r="U92">
-        <v>0.9998166987443863</v>
+        <v>-0.0001833012556137215</v>
       </c>
       <c r="V92">
-        <v>1.000122473974281</v>
+        <v>0.000122473974280668</v>
       </c>
       <c r="W92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7898,7 +7898,7 @@
         <v>0.9551913922175312</v>
       </c>
       <c r="K93">
-        <v>48.85411198205901</v>
+        <v>-0.01145888017940988</v>
       </c>
       <c r="L93">
         <v>-0.01197672814368289</v>
@@ -7928,13 +7928,13 @@
         <v>0.2249999999999943</v>
       </c>
       <c r="U93">
-        <v>0.9998166651388762</v>
+        <v>-0.0001833348611237628</v>
       </c>
       <c r="V93">
-        <v>1.000030614744061</v>
+        <v>3.061474406074183E-05</v>
       </c>
       <c r="W93">
-        <v>0.9995414947271893</v>
+        <v>-0.0004585052728106609</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7969,7 +7969,7 @@
         <v>0.9551913922175312</v>
       </c>
       <c r="K94">
-        <v>48.85411198205901</v>
+        <v>-0.01145888017940988</v>
       </c>
       <c r="L94">
         <v>-0.009868230184761998</v>
@@ -7999,13 +7999,13 @@
         <v>0.2562499999999943</v>
       </c>
       <c r="U94">
-        <v>0.9998166315210416</v>
+        <v>-0.00018336847895839</v>
       </c>
       <c r="V94">
-        <v>1.000122455227308</v>
+        <v>0.000122455227307583</v>
       </c>
       <c r="W94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -8040,7 +8040,7 @@
         <v>1.195822750733477</v>
       </c>
       <c r="K95">
-        <v>54.45898355566418</v>
+        <v>0.04458983555664175</v>
       </c>
       <c r="L95">
         <v>-0.007383799604139715</v>
@@ -8070,13 +8070,13 @@
         <v>0.2562499999999659</v>
       </c>
       <c r="U95">
-        <v>0.999862448418157</v>
+        <v>-0.0001375515818430317</v>
       </c>
       <c r="V95">
-        <v>1.000244880467722</v>
+        <v>0.0002448804677217531</v>
       </c>
       <c r="W95">
-        <v>1.001834862385321</v>
+        <v>0.001834862385321046</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -8111,7 +8111,7 @@
         <v>1.385794875877631</v>
       </c>
       <c r="K96">
-        <v>58.08524822855347</v>
+        <v>0.08085248228553465</v>
       </c>
       <c r="L96">
         <v>-0.00430188264940473</v>
@@ -8141,13 +8141,13 @@
         <v>0.2999999999999829</v>
       </c>
       <c r="U96">
-        <v>0.9999235719417311</v>
+        <v>-7.642805826890697E-05</v>
       </c>
       <c r="V96">
-        <v>1.000306025644949</v>
+        <v>0.0003060256449489707</v>
       </c>
       <c r="W96">
-        <v>1.001373626373626</v>
+        <v>0.001373626373626369</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -8182,7 +8182,7 @@
         <v>1.452451761893143</v>
       </c>
       <c r="K97">
-        <v>59.22447831438441</v>
+        <v>0.0922447831438441</v>
       </c>
       <c r="L97">
         <v>-0.0008716114776657377</v>
@@ -8212,13 +8212,13 @@
         <v>0.3187500000000227</v>
       </c>
       <c r="U97">
-        <v>0.9999235661000369</v>
+        <v>-7.643389996314642E-05</v>
       </c>
       <c r="V97">
-        <v>1.000458898032857</v>
+        <v>0.0004588980328572578</v>
       </c>
       <c r="W97">
-        <v>1.000457247370828</v>
+        <v>0.0004572473708277514</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8253,7 +8253,7 @@
         <v>1.357222080309042</v>
       </c>
       <c r="K98">
-        <v>57.57718339933013</v>
+        <v>0.07577183399330134</v>
       </c>
       <c r="L98">
         <v>0.002387171178910964</v>
@@ -8283,13 +8283,13 @@
         <v>0.2937499999999886</v>
       </c>
       <c r="U98">
-        <v>0.9999541361544694</v>
+        <v>-4.586384553062484E-05</v>
       </c>
       <c r="V98">
-        <v>1.000397529203107</v>
+        <v>0.0003975292031066502</v>
       </c>
       <c r="W98">
-        <v>0.999542961608775</v>
+        <v>-0.0004570383912250175</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8324,7 +8324,7 @@
         <v>1.357222080309042</v>
       </c>
       <c r="K99">
-        <v>57.57718339933013</v>
+        <v>0.07577183399330134</v>
       </c>
       <c r="L99">
         <v>0.0053254631903764</v>
@@ -8354,13 +8354,13 @@
         <v>0.2874999999999943</v>
       </c>
       <c r="U99">
-        <v>0.9999541340508806</v>
+        <v>-4.586594911937247E-05</v>
       </c>
       <c r="V99">
-        <v>1.000397371236436</v>
+        <v>0.0003973712364360171</v>
       </c>
       <c r="W99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8395,7 +8395,7 @@
         <v>1.429870037021375</v>
       </c>
       <c r="K100">
-        <v>58.84553557334132</v>
+        <v>0.08845535573341312</v>
       </c>
       <c r="L100">
         <v>0.00802967629655228</v>
@@ -8425,13 +8425,13 @@
         <v>0.2874999999999943</v>
       </c>
       <c r="U100">
-        <v>1.000015289350967</v>
+        <v>1.528935096684059E-05</v>
       </c>
       <c r="V100">
-        <v>1.000397213395258</v>
+        <v>0.0003972133952578893</v>
       </c>
       <c r="W100">
-        <v>1.000457247370828</v>
+        <v>0.0004572473708277514</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8466,7 +8466,7 @@
         <v>1.240191366115017</v>
       </c>
       <c r="K101">
-        <v>55.36095642872603</v>
+        <v>0.05360956428726027</v>
       </c>
       <c r="L101">
         <v>0.0100562077058622</v>
@@ -8496,13 +8496,13 @@
         <v>0.2937500000000171</v>
       </c>
       <c r="U101">
-        <v>1.000045867351619</v>
+        <v>4.586735161926647E-05</v>
       </c>
       <c r="V101">
-        <v>1.000274884701139</v>
+        <v>0.000274884701139344</v>
       </c>
       <c r="W101">
-        <v>0.9990859232175502</v>
+        <v>-0.0009140767824498131</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8537,7 +8537,7 @@
         <v>1.159254371567441</v>
       </c>
       <c r="K102">
-        <v>53.68771678002523</v>
+        <v>0.0368771678002523</v>
       </c>
       <c r="L102">
         <v>0.01133925340778109</v>
@@ -8567,13 +8567,13 @@
         <v>0.3062500000000057</v>
       </c>
       <c r="U102">
-        <v>1.000061153663869</v>
+        <v>6.115366386882926E-05</v>
       </c>
       <c r="V102">
-        <v>1.000152671755725</v>
+        <v>0.0001526717557251978</v>
       </c>
       <c r="W102">
-        <v>0.9995425434583715</v>
+        <v>-0.0004574565416285425</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8608,7 +8608,7 @@
         <v>1.084736728498052</v>
       </c>
       <c r="K103">
-        <v>52.03231245796444</v>
+        <v>0.02032312457964436</v>
       </c>
       <c r="L103">
         <v>0.01188180104158306</v>
@@ -8638,13 +8638,13 @@
         <v>0.28125</v>
       </c>
       <c r="U103">
-        <v>1.000030574962163</v>
+        <v>3.057496216340994E-05</v>
       </c>
       <c r="V103">
-        <v>1.000183178140742</v>
+        <v>0.0001831781407417576</v>
       </c>
       <c r="W103">
-        <v>0.9995423340961098</v>
+        <v>-0.0004576659038901809</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8679,7 +8679,7 @@
         <v>1.220064446395735</v>
       </c>
       <c r="K104">
-        <v>54.95626257050801</v>
+        <v>0.04956262570508008</v>
       </c>
       <c r="L104">
         <v>0.01223180442632079</v>
@@ -8709,13 +8709,13 @@
         <v>0.2187500000000284</v>
       </c>
       <c r="U104">
-        <v>1.000122296109455</v>
+        <v>0.0001222961094551334</v>
       </c>
       <c r="V104">
-        <v>1.00015262049388</v>
+        <v>0.0001526204938799847</v>
       </c>
       <c r="W104">
-        <v>1.000915750915751</v>
+        <v>0.0009157509157509125</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8750,7 +8750,7 @@
         <v>0.8996692270343282</v>
       </c>
       <c r="K105">
-        <v>47.35925677118264</v>
+        <v>-0.02640743228817355</v>
       </c>
       <c r="L105">
         <v>0.01156368188334688</v>
@@ -8780,13 +8780,13 @@
         <v>0.1312500000000227</v>
       </c>
       <c r="U105">
-        <v>1.000015285144368</v>
+        <v>1.528514436799355E-05</v>
       </c>
       <c r="V105">
-        <v>0.9999694805591162</v>
+        <v>-3.051944088383607E-05</v>
       </c>
       <c r="W105">
-        <v>0.9977127172918573</v>
+        <v>-0.002287282708142713</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -8821,7 +8821,7 @@
         <v>0.8996692270343283</v>
       </c>
       <c r="K106">
-        <v>47.35925677118265</v>
+        <v>-0.02640743228817349</v>
       </c>
       <c r="L106">
         <v>0.0102795089852212</v>
@@ -8851,13 +8851,13 @@
         <v>0.0625</v>
       </c>
       <c r="U106">
-        <v>1.000015284910736</v>
+        <v>1.528491073621296E-05</v>
       </c>
       <c r="V106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8892,7 +8892,7 @@
         <v>0.8501922472529017</v>
       </c>
       <c r="K107">
-        <v>45.95156252088053</v>
+        <v>-0.04048437479119471</v>
       </c>
       <c r="L107">
         <v>0.008499860751949324</v>
@@ -8922,13 +8922,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U107">
-        <v>1.000045854031334</v>
+        <v>4.585403133350319E-05</v>
       </c>
       <c r="V107">
-        <v>0.9999694796276515</v>
+        <v>-3.052037234851923E-05</v>
       </c>
       <c r="W107">
-        <v>0.9995414947271893</v>
+        <v>-0.0004585052728106609</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8963,7 +8963,7 @@
         <v>0.8036686044256708</v>
       </c>
       <c r="K108">
-        <v>44.55744267287822</v>
+        <v>-0.05442557327121783</v>
       </c>
       <c r="L108">
         <v>0.006335821246771951</v>
@@ -8993,13 +8993,13 @@
         <v>-0.1187500000000057</v>
       </c>
       <c r="U108">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="V108">
-        <v>0.99996947869613</v>
+        <v>-3.052130387004581E-05</v>
       </c>
       <c r="W108">
-        <v>0.9995412844036697</v>
+        <v>-0.0004587155963302614</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -9034,7 +9034,7 @@
         <v>0.8036686044256707</v>
       </c>
       <c r="K109">
-        <v>44.55744267287821</v>
+        <v>-0.05442557327121789</v>
       </c>
       <c r="L109">
         <v>0.004053861831578279</v>
@@ -9064,13 +9064,13 @@
         <v>-0.1999999999999886</v>
       </c>
       <c r="U109">
-        <v>1.000045851928838</v>
+        <v>4.585192883799216E-05</v>
       </c>
       <c r="V109">
-        <v>0.9999694777645514</v>
+        <v>-3.052223544863786E-05</v>
       </c>
       <c r="W109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -9105,7 +9105,7 @@
         <v>0.8643016470244701</v>
       </c>
       <c r="K110">
-        <v>46.36061167482977</v>
+        <v>-0.03639388325170229</v>
       </c>
       <c r="L110">
         <v>0.001997982966621525</v>
@@ -9135,13 +9135,13 @@
         <v>-0.2624999999999886</v>
       </c>
       <c r="U110">
-        <v>1.000061133102046</v>
+        <v>6.113310204636235E-05</v>
       </c>
       <c r="V110">
-        <v>0.9998779073316647</v>
+        <v>-0.0001220926683352941</v>
       </c>
       <c r="W110">
-        <v>1.000458926112896</v>
+        <v>0.0004589261128957745</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -9176,7 +9176,7 @@
         <v>0.8643016470244702</v>
       </c>
       <c r="K111">
-        <v>46.36061167482977</v>
+        <v>-0.03639388325170229</v>
       </c>
       <c r="L111">
         <v>0.0002027517499849696</v>
@@ -9206,13 +9206,13 @@
         <v>-0.2874999999999659</v>
       </c>
       <c r="U111">
-        <v>1.000045847023764</v>
+        <v>4.584702376408956E-05</v>
       </c>
       <c r="V111">
-        <v>0.9997863117406436</v>
+        <v>-0.0002136882593564149</v>
       </c>
       <c r="W111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9247,7 +9247,7 @@
         <v>0.8643016470244702</v>
       </c>
       <c r="K112">
-        <v>46.36061167482977</v>
+        <v>-0.03639388325170229</v>
       </c>
       <c r="L112">
         <v>-0.001320972814428997</v>
@@ -9277,13 +9277,13 @@
         <v>-0.3187499999999943</v>
       </c>
       <c r="U112">
-        <v>1.000106971484459</v>
+        <v>0.0001069714844585956</v>
       </c>
       <c r="V112">
-        <v>0.9997557326493847</v>
+        <v>-0.0002442673506153348</v>
       </c>
       <c r="W112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9318,7 +9318,7 @@
         <v>1.005740440081883</v>
       </c>
       <c r="K113">
-        <v>50.14310027277627</v>
+        <v>0.001431002727762754</v>
       </c>
       <c r="L113">
         <v>-0.002244681560365701</v>
@@ -9348,13 +9348,13 @@
         <v>-0.2687500000000114</v>
       </c>
       <c r="U113">
-        <v>1.000122240048896</v>
+        <v>0.0001222400488960496</v>
       </c>
       <c r="V113">
-        <v>0.9998472956051676</v>
+        <v>-0.0001527043948323925</v>
       </c>
       <c r="W113">
-        <v>1.000917431192661</v>
+        <v>0.0009174311926605228</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9389,7 +9389,7 @@
         <v>0.8754072369017667</v>
       </c>
       <c r="K114">
-        <v>46.67824777875806</v>
+        <v>-0.03321752221241941</v>
       </c>
       <c r="L114">
         <v>-0.00307156280221085</v>
@@ -9419,13 +9419,13 @@
         <v>-0.2375000000000114</v>
       </c>
       <c r="U114">
-        <v>1.000091668831069</v>
+        <v>9.166883106948021E-05</v>
       </c>
       <c r="V114">
-        <v>0.9997861811961634</v>
+        <v>-0.0002138188038366406</v>
       </c>
       <c r="W114">
-        <v>0.9990834097158571</v>
+        <v>-0.0009165902841429263</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9460,7 +9460,7 @@
         <v>0.8195124733885089</v>
       </c>
       <c r="K115">
-        <v>45.040222882469</v>
+        <v>-0.04959777117530995</v>
       </c>
       <c r="L115">
         <v>-0.003942793939242719</v>
@@ -9490,13 +9490,13 @@
         <v>-0.1999999999999886</v>
       </c>
       <c r="U115">
-        <v>1.000061106952443</v>
+        <v>6.110695244343489E-05</v>
       </c>
       <c r="V115">
-        <v>0.9997250313158778</v>
+        <v>-0.0002749686841222454</v>
       </c>
       <c r="W115">
-        <v>0.9995412844036697</v>
+        <v>-0.0004587155963302614</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9531,7 +9531,7 @@
         <v>0.7679014052241977</v>
       </c>
       <c r="K116">
-        <v>43.43575965011554</v>
+        <v>-0.06564240349884459</v>
       </c>
       <c r="L116">
         <v>-0.004937933417365353</v>
@@ -9561,13 +9561,13 @@
         <v>-0.1500000000000057</v>
       </c>
       <c r="U116">
-        <v>1.000015275804653</v>
+        <v>1.527580465299216E-05</v>
       </c>
       <c r="V116">
-        <v>0.9997555161664936</v>
+        <v>-0.0002444838335063926</v>
       </c>
       <c r="W116">
-        <v>0.9995410738871042</v>
+        <v>-0.0004589261128957745</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9602,7 +9602,7 @@
         <v>0.6405171648910586</v>
       </c>
       <c r="K117">
-        <v>39.04361250213394</v>
+        <v>-0.1095638749786606</v>
       </c>
       <c r="L117">
         <v>-0.006427430492050151</v>
@@ -9632,13 +9632,13 @@
         <v>-0.1312500000000227</v>
       </c>
       <c r="U117">
-        <v>0.9999236221434682</v>
+        <v>-7.637785653180629E-05</v>
       </c>
       <c r="V117">
-        <v>0.9996943204744146</v>
+        <v>-0.0003056795255853562</v>
       </c>
       <c r="W117">
-        <v>0.9986225895316804</v>
+        <v>-0.001377410468319629</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9673,7 +9673,7 @@
         <v>0.5737286326758785</v>
       </c>
       <c r="K118">
-        <v>36.45664320794259</v>
+        <v>-0.1354335679205741</v>
       </c>
       <c r="L118">
         <v>-0.008432063052804601</v>
@@ -9703,13 +9703,13 @@
         <v>-0.1437500000000398</v>
       </c>
       <c r="U118">
-        <v>0.9999236163094457</v>
+        <v>-7.638369055429362E-05</v>
       </c>
       <c r="V118">
-        <v>0.9996636497064579</v>
+        <v>-0.0003363502935420648</v>
       </c>
       <c r="W118">
-        <v>0.9990804597701149</v>
+        <v>-0.0009195402298850519</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9744,7 +9744,7 @@
         <v>0.6286090652191655</v>
       </c>
       <c r="K119">
-        <v>38.5979102440138</v>
+        <v>-0.1140208975598621</v>
       </c>
       <c r="L119">
         <v>-0.01042378815062455</v>
@@ -9774,13 +9774,13 @@
         <v>-0.1562500000000284</v>
       </c>
       <c r="U119">
-        <v>0.9998930546643444</v>
+        <v>-0.0001069453356555838</v>
       </c>
       <c r="V119">
-        <v>0.9996329489493164</v>
+        <v>-0.0003670510506835756</v>
       </c>
       <c r="W119">
-        <v>1.000460193281178</v>
+        <v>0.0004601932811780785</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -9815,7 +9815,7 @@
         <v>0.6286090652191655</v>
       </c>
       <c r="K120">
-        <v>38.5979102440138</v>
+        <v>-0.1140208975598621</v>
       </c>
       <c r="L120">
         <v>-0.01224314549098082</v>
@@ -9845,13 +9845,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U120">
-        <v>0.9998777636866473</v>
+        <v>-0.0001222363133527304</v>
       </c>
       <c r="V120">
-        <v>0.9997858082678006</v>
+        <v>-0.0002141917321993869</v>
       </c>
       <c r="W120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9886,7 +9886,7 @@
         <v>0.5925749702792741</v>
       </c>
       <c r="K121">
-        <v>37.2086075279307</v>
+        <v>-0.127913924720693</v>
       </c>
       <c r="L121">
         <v>-0.01396480764014154</v>
@@ -9916,13 +9916,13 @@
         <v>-0.2187499999999716</v>
       </c>
       <c r="U121">
-        <v>0.9998777487431042</v>
+        <v>-0.0001222512568958001</v>
       </c>
       <c r="V121">
-        <v>0.9997551570055703</v>
+        <v>-0.0002448429944297281</v>
       </c>
       <c r="W121">
-        <v>0.9995400183992641</v>
+        <v>-0.0004599816007359037</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9957,7 +9957,7 @@
         <v>0.5017477431321878</v>
       </c>
       <c r="K122">
-        <v>33.41092040436132</v>
+        <v>-0.1658907959563868</v>
       </c>
       <c r="L122">
         <v>-0.01596794811948544</v>
@@ -9987,13 +9987,13 @@
         <v>-0.2749999999999773</v>
       </c>
       <c r="U122">
-        <v>0.9998318839693722</v>
+        <v>-0.0001681160306278295</v>
       </c>
       <c r="V122">
-        <v>0.9996938713034959</v>
+        <v>-0.0003061286965041488</v>
       </c>
       <c r="W122">
-        <v>0.9986194201564657</v>
+        <v>-0.001380579843534346</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -10028,7 +10028,7 @@
         <v>0.5555286216811534</v>
       </c>
       <c r="K123">
-        <v>35.71317261142777</v>
+        <v>-0.1428682738857223</v>
       </c>
       <c r="L123">
         <v>-0.01778946869803706</v>
@@ -10058,13 +10058,13 @@
         <v>-0.3187499999999943</v>
       </c>
       <c r="U123">
-        <v>0.999862427392235</v>
+        <v>-0.0001375726077650352</v>
       </c>
       <c r="V123">
-        <v>0.9997550220480157</v>
+        <v>-0.0002449779519843043</v>
       </c>
       <c r="W123">
-        <v>1.000460829493087</v>
+        <v>0.0004608294930874557</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -10099,7 +10099,7 @@
         <v>0.6121400727853277</v>
       </c>
       <c r="K124">
-        <v>37.97065051101426</v>
+        <v>-0.1202934948898575</v>
       </c>
       <c r="L124">
         <v>-0.01915359356504737</v>
@@ -10129,13 +10129,13 @@
         <v>-0.3500000000000227</v>
       </c>
       <c r="U124">
-        <v>0.9998776964119185</v>
+        <v>-0.0001223035880815182</v>
       </c>
       <c r="V124">
-        <v>0.999785591766724</v>
+        <v>-0.0002144082332760089</v>
       </c>
       <c r="W124">
-        <v>1.000460617227084</v>
+        <v>0.0004606172270842368</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -10170,7 +10170,7 @@
         <v>0.5777135442957309</v>
       </c>
       <c r="K125">
-        <v>36.61713790722473</v>
+        <v>-0.1338286209277527</v>
       </c>
       <c r="L125">
         <v>-0.02025129930178675</v>
@@ -10200,13 +10200,13 @@
         <v>-0.3499999999999943</v>
       </c>
       <c r="U125">
-        <v>0.9998012323593718</v>
+        <v>-0.0001987676406282057</v>
       </c>
       <c r="V125">
-        <v>0.9997242731533961</v>
+        <v>-0.0002757268466039298</v>
       </c>
       <c r="W125">
-        <v>0.9995395948434622</v>
+        <v>-0.0004604051565377798</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10241,7 +10241,7 @@
         <v>0.577713544295731</v>
       </c>
       <c r="K126">
-        <v>36.61713790722473</v>
+        <v>-0.1338286209277527</v>
       </c>
       <c r="L126">
         <v>-0.02104427324802493</v>
@@ -10271,13 +10271,13 @@
         <v>-0.3187500000000227</v>
       </c>
       <c r="U126">
-        <v>0.9997553142682367</v>
+        <v>-0.0002446857317632833</v>
       </c>
       <c r="V126">
-        <v>0.9997241971071341</v>
+        <v>-0.000275802892865884</v>
       </c>
       <c r="W126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10312,7 +10312,7 @@
         <v>0.577713544295731</v>
       </c>
       <c r="K127">
-        <v>36.61713790722473</v>
+        <v>-0.1338286209277527</v>
       </c>
       <c r="L127">
         <v>-0.02152576567674716</v>
@@ -10342,13 +10342,13 @@
         <v>-0.3000000000000114</v>
       </c>
       <c r="U127">
-        <v>0.9997399577813809</v>
+        <v>-0.0002600422186190832</v>
       </c>
       <c r="V127">
-        <v>0.9997241210189131</v>
+        <v>-0.0002758789810869411</v>
       </c>
       <c r="W127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10383,7 +10383,7 @@
         <v>0.4827210855494807</v>
       </c>
       <c r="K128">
-        <v>32.55643224164371</v>
+        <v>-0.1744356775835629</v>
       </c>
       <c r="L128">
         <v>-0.02221115012517654</v>
@@ -10413,13 +10413,13 @@
         <v>-0.3000000000000398</v>
       </c>
       <c r="U128">
-        <v>0.9997092889820526</v>
+        <v>-0.0002907110179474204</v>
       </c>
       <c r="V128">
-        <v>0.9995707364935303</v>
+        <v>-0.0004292635064696571</v>
       </c>
       <c r="W128">
-        <v>0.9986181483187472</v>
+        <v>-0.001381851681252821</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10454,7 +10454,7 @@
         <v>0.4563900530084397</v>
       </c>
       <c r="K129">
-        <v>31.33707567321561</v>
+        <v>-0.1866292432678439</v>
       </c>
       <c r="L129">
         <v>-0.02306324605280845</v>
@@ -10484,13 +10484,13 @@
         <v>-0.28125</v>
       </c>
       <c r="U129">
-        <v>0.9996938994153478</v>
+        <v>-0.0003061005846521914</v>
       </c>
       <c r="V129">
-        <v>0.9996012269938649</v>
+        <v>-0.0003987730061351114</v>
       </c>
       <c r="W129">
-        <v>0.9995387453874538</v>
+        <v>-0.0004612546125462025</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10525,7 +10525,7 @@
         <v>0.5138080469364251</v>
       </c>
       <c r="K130">
-        <v>33.94142658814941</v>
+        <v>-0.1605857341185059</v>
       </c>
       <c r="L130">
         <v>-0.02371145466413793</v>
@@ -10555,13 +10555,13 @@
         <v>-0.2312499999999886</v>
       </c>
       <c r="U130">
-        <v>0.9996938056890903</v>
+        <v>-0.0003061943109097243</v>
       </c>
       <c r="V130">
-        <v>0.9996624420781295</v>
+        <v>-0.0003375579218705127</v>
       </c>
       <c r="W130">
-        <v>1.000461467466544</v>
+        <v>0.0004614674665437413</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10596,7 +10596,7 @@
         <v>0.6951280277615907</v>
       </c>
       <c r="K131">
-        <v>41.00740571669412</v>
+        <v>-0.08992594283305883</v>
       </c>
       <c r="L131">
         <v>-0.02360709933971369</v>
@@ -10626,13 +10626,13 @@
         <v>-0.1812500000000057</v>
       </c>
       <c r="U131">
-        <v>0.9997702839290636</v>
+        <v>-0.0002297160709363588</v>
       </c>
       <c r="V131">
-        <v>0.9997851178781925</v>
+        <v>-0.0002148821218075359</v>
       </c>
       <c r="W131">
-        <v>1.001383763837638</v>
+        <v>0.001383763837638385</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10667,7 +10667,7 @@
         <v>0.6535485833406632</v>
       </c>
       <c r="K132">
-        <v>39.52400249530615</v>
+        <v>-0.1047599750469385</v>
       </c>
       <c r="L132">
         <v>-0.02313468961355328</v>
@@ -10697,13 +10697,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U132">
-        <v>0.9997702311474655</v>
+        <v>-0.000229768852534451</v>
       </c>
       <c r="V132">
-        <v>0.9998464797813872</v>
+        <v>-0.0001535202186128126</v>
       </c>
       <c r="W132">
-        <v>0.9995393827729158</v>
+        <v>-0.0004606172270842368</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10738,7 +10738,7 @@
         <v>0.614836217012004</v>
       </c>
       <c r="K133">
-        <v>38.07421523835153</v>
+        <v>-0.1192578476164847</v>
       </c>
       <c r="L133">
         <v>-0.02255250878087556</v>
@@ -10768,13 +10768,13 @@
         <v>-0.1437500000000114</v>
       </c>
       <c r="U133">
-        <v>0.9997701783416071</v>
+        <v>-0.0002298216583929147</v>
       </c>
       <c r="V133">
-        <v>0.9998771649674487</v>
+        <v>-0.0001228350325512828</v>
       </c>
       <c r="W133">
-        <v>0.9995391705069124</v>
+        <v>-0.0004608294930875667</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -10809,7 +10809,7 @@
         <v>0.7395395989244232</v>
       </c>
       <c r="K134">
-        <v>42.51352480746565</v>
+        <v>-0.07486475192534348</v>
       </c>
       <c r="L134">
         <v>-0.0215241698139433</v>
@@ -10839,13 +10839,13 @@
         <v>-0.1312499999999943</v>
       </c>
       <c r="U134">
-        <v>0.9997701255114706</v>
+        <v>-0.0002298744885294024</v>
       </c>
       <c r="V134">
-        <v>0.9999078624078623</v>
+        <v>-9.213759213766437E-05</v>
       </c>
       <c r="W134">
-        <v>1.000922083909636</v>
+        <v>0.0009220839096357736</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10880,7 +10880,7 @@
         <v>0.7395395989244232</v>
       </c>
       <c r="K135">
-        <v>42.51352480746565</v>
+        <v>-0.07486475192534348</v>
       </c>
       <c r="L135">
         <v>-0.02021251805645027</v>
@@ -10910,13 +10910,13 @@
         <v>-0.1124999999999829</v>
       </c>
       <c r="U135">
-        <v>0.9998467151046937</v>
+        <v>-0.0001532848953063048</v>
       </c>
       <c r="V135">
-        <v>0.9999078539177444</v>
+        <v>-9.214608225560639E-05</v>
       </c>
       <c r="W135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10951,7 +10951,7 @@
         <v>0.7395395989244232</v>
       </c>
       <c r="K136">
-        <v>42.51352480746565</v>
+        <v>-0.07486475192534348</v>
       </c>
       <c r="L136">
         <v>-0.01873906880459916</v>
@@ -10981,13 +10981,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U136">
-        <v>0.9998466916048323</v>
+        <v>-0.000153308395167695</v>
       </c>
       <c r="V136">
-        <v>0.9999385636173741</v>
+        <v>-6.143638262590123E-05</v>
       </c>
       <c r="W136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -11022,7 +11022,7 @@
         <v>0.6894034606831005</v>
       </c>
       <c r="K137">
-        <v>40.80750849204158</v>
+        <v>-0.09192491507958422</v>
       </c>
       <c r="L137">
         <v>-0.01736062225535992</v>
@@ -11052,13 +11052,13 @@
         <v>2.842170943040401E-14</v>
       </c>
       <c r="U137">
-        <v>0.9998466680977645</v>
+        <v>-0.0001533319022355428</v>
       </c>
       <c r="V137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W137">
-        <v>0.9995393827729158</v>
+        <v>-0.0004606172270842368</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -11093,7 +11093,7 @@
         <v>0.6032985158076947</v>
       </c>
       <c r="K138">
-        <v>37.62858319018468</v>
+        <v>-0.1237141680981532</v>
       </c>
       <c r="L138">
         <v>-0.01639938255623571</v>
@@ -11123,13 +11123,13 @@
         <v>0.01250000000001705</v>
       </c>
       <c r="U138">
-        <v>0.9998313090418353</v>
+        <v>-0.0001686909581647411</v>
       </c>
       <c r="V138">
-        <v>0.9999078397640698</v>
+        <v>-9.216023593017209E-05</v>
       </c>
       <c r="W138">
-        <v>0.999078341013825</v>
+        <v>-0.0009216589861750224</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -11164,7 +11164,7 @@
         <v>0.5660864490166754</v>
       </c>
       <c r="K139">
-        <v>36.14656453812709</v>
+        <v>-0.1385343546187291</v>
       </c>
       <c r="L139">
         <v>-0.01586016713660231</v>
@@ -11194,13 +11194,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U139">
-        <v>0.9998159424513399</v>
+        <v>-0.0001840575486601326</v>
       </c>
       <c r="V139">
-        <v>0.9998463854496297</v>
+        <v>-0.000153614550370329</v>
       </c>
       <c r="W139">
-        <v>0.9995387453874538</v>
+        <v>-0.0004612546125462025</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11235,7 +11235,7 @@
         <v>0.5660864490166755</v>
       </c>
       <c r="K140">
-        <v>36.14656453812709</v>
+        <v>-0.138534354618729</v>
       </c>
       <c r="L140">
         <v>-0.01555347436636765</v>
@@ -11265,13 +11265,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U140">
-        <v>0.9998005676152488</v>
+        <v>-0.0001994323847511748</v>
       </c>
       <c r="V140">
-        <v>0.9998770894788594</v>
+        <v>-0.0001229105211405512</v>
       </c>
       <c r="W140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11306,7 +11306,7 @@
         <v>0.6344310676263483</v>
       </c>
       <c r="K141">
-        <v>38.81663045892292</v>
+        <v>-0.1118336954107708</v>
       </c>
       <c r="L141">
         <v>-0.01518316130556633</v>
@@ -11336,13 +11336,13 @@
         <v>-0.01249999999996021</v>
       </c>
       <c r="U141">
-        <v>0.9998158718468054</v>
+        <v>-0.0001841281531945738</v>
       </c>
       <c r="V141">
-        <v>0.9999078057775046</v>
+        <v>-9.219422249540088E-05</v>
       </c>
       <c r="W141">
-        <v>1.000461467466544</v>
+        <v>0.0004614674665437413</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11377,7 +11377,7 @@
         <v>0.7783144752256185</v>
       </c>
       <c r="K142">
-        <v>43.76697631766575</v>
+        <v>-0.06233023682334249</v>
       </c>
       <c r="L142">
         <v>-0.01440745328114724</v>
@@ -11407,13 +11407,13 @@
         <v>-0.01874999999998295</v>
       </c>
       <c r="U142">
-        <v>0.9998465316144874</v>
+        <v>-0.0001534683855125563</v>
       </c>
       <c r="V142">
-        <v>0.9999692657589822</v>
+        <v>-3.073424101784905E-05</v>
       </c>
       <c r="W142">
-        <v>1.000922509225092</v>
+        <v>0.0009225092250921829</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11448,7 +11448,7 @@
         <v>0.6342278479291803</v>
       </c>
       <c r="K143">
-        <v>38.80902217722242</v>
+        <v>-0.1119097782277758</v>
       </c>
       <c r="L143">
         <v>-0.01388589504400062</v>
@@ -11478,13 +11478,13 @@
         <v>-0.04375000000001705</v>
       </c>
       <c r="U143">
-        <v>0.9997697620874905</v>
+        <v>-0.0002302379125095344</v>
       </c>
       <c r="V143">
-        <v>0.9999692648143595</v>
+        <v>-3.073518564045141E-05</v>
       </c>
       <c r="W143">
-        <v>0.9986175115207373</v>
+        <v>-0.0013824884792627</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11519,7 +11519,7 @@
         <v>0.6342278479291804</v>
       </c>
       <c r="K144">
-        <v>38.80902217722242</v>
+        <v>-0.1119097782277758</v>
       </c>
       <c r="L144">
         <v>-0.01350111767070935</v>
@@ -11549,13 +11549,13 @@
         <v>-0.08750000000000568</v>
       </c>
       <c r="U144">
-        <v>0.9998004145236815</v>
+        <v>-0.0001995854763184868</v>
       </c>
       <c r="V144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11590,7 +11590,7 @@
         <v>0.5936376175470598</v>
       </c>
       <c r="K145">
-        <v>37.25047721079726</v>
+        <v>-0.1274952278920274</v>
       </c>
       <c r="L145">
         <v>-0.01334235139649143</v>
@@ -11620,13 +11620,13 @@
         <v>-0.1312499999999943</v>
       </c>
       <c r="U145">
-        <v>0.9998003746813675</v>
+        <v>-0.0001996253186324903</v>
       </c>
       <c r="V145">
-        <v>0.9999385277393575</v>
+        <v>-6.147226064245892E-05</v>
       </c>
       <c r="W145">
-        <v>0.9995385325334564</v>
+        <v>-0.0004614674665436302</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11661,7 +11661,7 @@
         <v>0.5231505725264786</v>
       </c>
       <c r="K146">
-        <v>34.34660905905834</v>
+        <v>-0.1565339094094166</v>
       </c>
       <c r="L146">
         <v>-0.01361761084668871</v>
@@ -11691,13 +11691,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U146">
-        <v>0.9997849759633842</v>
+        <v>-0.0002150240366157741</v>
       </c>
       <c r="V146">
-        <v>0.9997848338610027</v>
+        <v>-0.0002151661389973025</v>
       </c>
       <c r="W146">
-        <v>0.9990766389658357</v>
+        <v>-0.0009233610341643494</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11732,7 +11732,7 @@
         <v>0.5231505725264786</v>
       </c>
       <c r="K147">
-        <v>34.34660905905834</v>
+        <v>-0.1565339094094166</v>
       </c>
       <c r="L147">
         <v>-0.01408897821101972</v>
@@ -11762,13 +11762,13 @@
         <v>-0.1500000000000057</v>
       </c>
       <c r="U147">
-        <v>0.999831016207082</v>
+        <v>-0.0001689837929179649</v>
       </c>
       <c r="V147">
-        <v>0.9998155321896329</v>
+        <v>-0.0001844678103670727</v>
       </c>
       <c r="W147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -11803,7 +11803,7 @@
         <v>0.5889331195163354</v>
       </c>
       <c r="K148">
-        <v>37.06468902200265</v>
+        <v>-0.1293531097799734</v>
       </c>
       <c r="L148">
         <v>-0.01443031529520826</v>
@@ -11833,13 +11833,13 @@
         <v>-0.1437499999999829</v>
       </c>
       <c r="U148">
-        <v>0.999877081924897</v>
+        <v>-0.0001229180751030068</v>
       </c>
       <c r="V148">
-        <v>0.9998769987699877</v>
+        <v>-0.0001230012300122985</v>
       </c>
       <c r="W148">
-        <v>1.000462107208872</v>
+        <v>0.0004621072088724087</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11874,7 +11874,7 @@
         <v>0.5172933803566451</v>
       </c>
       <c r="K149">
-        <v>34.09316794323939</v>
+        <v>-0.1590683205676061</v>
       </c>
       <c r="L149">
         <v>-0.01495426122808994</v>
@@ -11904,13 +11904,13 @@
         <v>-0.1687499999999886</v>
       </c>
       <c r="U149">
-        <v>0.9998309668695065</v>
+        <v>-0.0001690331304935455</v>
       </c>
       <c r="V149">
-        <v>0.9997539672776479</v>
+        <v>-0.0002460327223521297</v>
       </c>
       <c r="W149">
-        <v>0.9990762124711317</v>
+        <v>-0.0009237875288683473</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11945,7 +11945,7 @@
         <v>0.5172933803566451</v>
       </c>
       <c r="K150">
-        <v>34.09316794323939</v>
+        <v>-0.1590683205676061</v>
       </c>
       <c r="L150">
         <v>-0.01550127495773309</v>
@@ -11975,13 +11975,13 @@
         <v>-0.2062500000000114</v>
       </c>
       <c r="U150">
-        <v>0.9998309382924768</v>
+        <v>-0.0001690617075231771</v>
       </c>
       <c r="V150">
-        <v>0.9997539067306509</v>
+        <v>-0.0002460932693491014</v>
       </c>
       <c r="W150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -12016,7 +12016,7 @@
         <v>0.4846328198838669</v>
       </c>
       <c r="K151">
-        <v>32.64327808149739</v>
+        <v>-0.1735672191850262</v>
       </c>
       <c r="L151">
         <v>-0.01613902802341082</v>
@@ -12046,13 +12046,13 @@
         <v>-0.2124999999999773</v>
       </c>
       <c r="U151">
-        <v>0.9998309097057829</v>
+        <v>-0.000169090294217078</v>
       </c>
       <c r="V151">
-        <v>0.999723076923077</v>
+        <v>-0.0002769230769229525</v>
       </c>
       <c r="W151">
-        <v>0.9995376791493296</v>
+        <v>-0.000462320850670439</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -12087,7 +12087,7 @@
         <v>0.484632819883867</v>
       </c>
       <c r="K152">
-        <v>32.64327808149739</v>
+        <v>-0.1735672191850262</v>
       </c>
       <c r="L152">
         <v>-0.01673264437647819</v>
@@ -12117,13 +12117,13 @@
         <v>-0.21875</v>
       </c>
       <c r="U152">
-        <v>0.9998770044432144</v>
+        <v>-0.0001229955567856322</v>
       </c>
       <c r="V152">
-        <v>0.9997537779692838</v>
+        <v>-0.0002462220307162255</v>
       </c>
       <c r="W152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -12158,7 +12158,7 @@
         <v>0.4846328198838669</v>
       </c>
       <c r="K153">
-        <v>32.64327808149739</v>
+        <v>-0.1735672191850262</v>
       </c>
       <c r="L153">
         <v>-0.01720102000323382</v>
@@ -12188,13 +12188,13 @@
         <v>-0.21875</v>
       </c>
       <c r="U153">
-        <v>0.9998616129776277</v>
+        <v>-0.0001383870223723438</v>
       </c>
       <c r="V153">
-        <v>0.9998152879967982</v>
+        <v>-0.0001847120032018035</v>
       </c>
       <c r="W153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12229,7 +12229,7 @@
         <v>0.4513921406451726</v>
       </c>
       <c r="K154">
-        <v>31.10063283410918</v>
+        <v>-0.1889936716589082</v>
       </c>
       <c r="L154">
         <v>-0.01766916093178934</v>
@@ -12259,13 +12259,13 @@
         <v>-0.2124999999999773</v>
       </c>
       <c r="U154">
-        <v>0.9998308368960107</v>
+        <v>-0.0001691631039892894</v>
       </c>
       <c r="V154">
-        <v>0.999815253871971</v>
+        <v>-0.0001847461280289897</v>
       </c>
       <c r="W154">
-        <v>0.9995374653098983</v>
+        <v>-0.0004625346901017124</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12300,7 +12300,7 @@
         <v>0.4513921406451726</v>
       </c>
       <c r="K155">
-        <v>31.10063283410918</v>
+        <v>-0.1889936716589082</v>
       </c>
       <c r="L155">
         <v>-0.01804326154764489</v>
@@ -12330,13 +12330,13 @@
         <v>-0.2125000000000341</v>
       </c>
       <c r="U155">
-        <v>0.9998461893409213</v>
+        <v>-0.0001538106590787125</v>
       </c>
       <c r="V155">
-        <v>0.9998152197345324</v>
+        <v>-0.0001847802654676434</v>
       </c>
       <c r="W155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12371,7 +12371,7 @@
         <v>0.4513921406451726</v>
       </c>
       <c r="K156">
-        <v>31.10063283410918</v>
+        <v>-0.1889936716589082</v>
       </c>
       <c r="L156">
         <v>-0.01827107412803673</v>
@@ -12401,13 +12401,13 @@
         <v>-0.2249999999999943</v>
       </c>
       <c r="U156">
-        <v>0.9998461656795631</v>
+        <v>-0.0001538343204369186</v>
       </c>
       <c r="V156">
-        <v>0.9997843831818882</v>
+        <v>-0.0002156168181117746</v>
       </c>
       <c r="W156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12442,7 +12442,7 @@
         <v>0.5313914526335241</v>
       </c>
       <c r="K157">
-        <v>34.69990979247622</v>
+        <v>-0.1530009020752378</v>
       </c>
       <c r="L157">
         <v>-0.01816139172223601</v>
@@ -12472,13 +12472,13 @@
         <v>-0.2000000000000171</v>
       </c>
       <c r="U157">
-        <v>0.9998615278098315</v>
+        <v>-0.0001384721901684927</v>
       </c>
       <c r="V157">
-        <v>0.9997535276357138</v>
+        <v>-0.0002464723642862099</v>
       </c>
       <c r="W157">
-        <v>1.000462748727441</v>
+        <v>0.0004627487274408981</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12513,7 +12513,7 @@
         <v>0.5313914526335239</v>
       </c>
       <c r="K158">
-        <v>34.69990979247622</v>
+        <v>-0.1530009020752378</v>
       </c>
       <c r="L158">
         <v>-0.01778813316758218</v>
@@ -12543,13 +12543,13 @@
         <v>-0.1625000000000227</v>
       </c>
       <c r="U158">
-        <v>0.9999076724217524</v>
+        <v>-9.232757824761961E-05</v>
       </c>
       <c r="V158">
-        <v>0.9998459167950694</v>
+        <v>-0.0001540832049305996</v>
       </c>
       <c r="W158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12584,7 +12584,7 @@
         <v>0.346894913568315</v>
       </c>
       <c r="K159">
-        <v>25.75515803599627</v>
+        <v>-0.2424484196400373</v>
       </c>
       <c r="L159">
         <v>-0.01822258271126067</v>
@@ -12614,13 +12614,13 @@
         <v>-0.1687500000000171</v>
       </c>
       <c r="U159">
-        <v>0.9998307171437365</v>
+        <v>-0.0001692828562634974</v>
       </c>
       <c r="V159">
-        <v>0.9996609647095083</v>
+        <v>-0.0003390352904917293</v>
       </c>
       <c r="W159">
-        <v>0.9972247918593895</v>
+        <v>-0.002775208140610497</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12655,7 +12655,7 @@
         <v>0.4078063447000655</v>
       </c>
       <c r="K160">
-        <v>28.96750296909261</v>
+        <v>-0.2103249703090739</v>
       </c>
       <c r="L160">
         <v>-0.01888486299966268</v>
@@ -12685,13 +12685,13 @@
         <v>-0.1687500000000171</v>
       </c>
       <c r="U160">
-        <v>0.9998306884821992</v>
+        <v>-0.000169311517800752</v>
       </c>
       <c r="V160">
-        <v>0.9997225134118517</v>
+        <v>-0.0002774865881483013</v>
       </c>
       <c r="W160">
-        <v>1.000463821892393</v>
+        <v>0.0004638218923933568</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12726,7 +12726,7 @@
         <v>0.4078063447000655</v>
       </c>
       <c r="K161">
-        <v>28.96750296909261</v>
+        <v>-0.2103249703090739</v>
       </c>
       <c r="L161">
         <v>-0.01957464507306424</v>
@@ -12756,13 +12756,13 @@
         <v>-0.1749999999999829</v>
       </c>
       <c r="U161">
-        <v>0.9997844761230334</v>
+        <v>-0.0002155238769665502</v>
       </c>
       <c r="V161">
-        <v>0.9997841171935236</v>
+        <v>-0.0002158828064764418</v>
       </c>
       <c r="W161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -12797,7 +12797,7 @@
         <v>0.3820228971743199</v>
       </c>
       <c r="K162">
-        <v>27.64229868806102</v>
+        <v>-0.2235770131193898</v>
       </c>
       <c r="L162">
         <v>-0.02033439534655317</v>
@@ -12827,13 +12827,13 @@
         <v>-0.1875000000000284</v>
       </c>
       <c r="U162">
-        <v>0.9997844296624784</v>
+        <v>-0.00021557033752162</v>
       </c>
       <c r="V162">
-        <v>0.9997532235177987</v>
+        <v>-0.000246776482201283</v>
       </c>
       <c r="W162">
-        <v>0.9995363931386185</v>
+        <v>-0.0004636068613814714</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12868,7 +12868,7 @@
         <v>0.38202289717432</v>
       </c>
       <c r="K163">
-        <v>27.64229868806102</v>
+        <v>-0.2235770131193898</v>
       </c>
       <c r="L163">
         <v>-0.02101451900998208</v>
@@ -12898,13 +12898,13 @@
         <v>-0.1999999999999886</v>
       </c>
       <c r="U163">
-        <v>0.9997997843831818</v>
+        <v>-0.0002002156168181557</v>
       </c>
       <c r="V163">
-        <v>0.9997223079296513</v>
+        <v>-0.0002776920703486674</v>
       </c>
       <c r="W163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12939,7 +12939,7 @@
         <v>0.38202289717432</v>
       </c>
       <c r="K164">
-        <v>27.64229868806102</v>
+        <v>-0.2235770131193898</v>
       </c>
       <c r="L164">
         <v>-0.0215269170309625</v>
@@ -12969,13 +12969,13 @@
         <v>-0.2062500000000114</v>
       </c>
       <c r="U164">
-        <v>0.9997689357179169</v>
+        <v>-0.0002310642820830822</v>
       </c>
       <c r="V164">
-        <v>0.999783957285269</v>
+        <v>-0.0002160427147309685</v>
       </c>
       <c r="W164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -13010,7 +13010,7 @@
         <v>0.4557651145858345</v>
       </c>
       <c r="K165">
-        <v>31.30759969581355</v>
+        <v>-0.1869240030418645</v>
       </c>
       <c r="L165">
         <v>-0.02165870865077925</v>
@@ -13040,13 +13040,13 @@
         <v>-0.2312499999999602</v>
       </c>
       <c r="U165">
-        <v>0.9997842901605497</v>
+        <v>-0.0002157098394502954</v>
       </c>
       <c r="V165">
-        <v>0.9998147805149101</v>
+        <v>-0.0001852194850898714</v>
       </c>
       <c r="W165">
-        <v>1.000463821892393</v>
+        <v>0.0004638218923933568</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -13081,7 +13081,7 @@
         <v>0.4557651145858346</v>
       </c>
       <c r="K166">
-        <v>31.30759969581355</v>
+        <v>-0.1869240030418645</v>
       </c>
       <c r="L166">
         <v>-0.02147276693463778</v>
@@ -13111,13 +13111,13 @@
         <v>-0.2562499999999943</v>
       </c>
       <c r="U166">
-        <v>0.9997842436197755</v>
+        <v>-0.0002157563802245299</v>
       </c>
       <c r="V166">
-        <v>0.9998456218352476</v>
+        <v>-0.000154378164752389</v>
       </c>
       <c r="W166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -13152,7 +13152,7 @@
         <v>0.5374739427426607</v>
       </c>
       <c r="K167">
-        <v>34.95824727825141</v>
+        <v>-0.1504175272174859</v>
       </c>
       <c r="L167">
         <v>-0.02085972979858274</v>
@@ -13182,13 +13182,13 @@
         <v>-0.2062500000000114</v>
       </c>
       <c r="U167">
-        <v>0.9998150260504979</v>
+        <v>-0.0001849739495021208</v>
       </c>
       <c r="V167">
-        <v>0.9998764783991601</v>
+        <v>-0.0001235216008399487</v>
       </c>
       <c r="W167">
-        <v>1.000463606861382</v>
+        <v>0.0004636068613816935</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -13223,7 +13223,7 @@
         <v>0.5374739427426606</v>
       </c>
       <c r="K168">
-        <v>34.95824727825141</v>
+        <v>-0.1504175272174859</v>
       </c>
       <c r="L168">
         <v>-0.01995097189849208</v>
@@ -13253,13 +13253,13 @@
         <v>-0.1687499999999886</v>
       </c>
       <c r="U168">
-        <v>0.999845826524005</v>
+        <v>-0.0001541734759950009</v>
       </c>
       <c r="V168">
-        <v>0.9998764631396894</v>
+        <v>-0.0001235368603106357</v>
       </c>
       <c r="W168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -13294,7 +13294,7 @@
         <v>0.5374739427426606</v>
       </c>
       <c r="K169">
-        <v>34.95824727825141</v>
+        <v>-0.1504175272174859</v>
       </c>
       <c r="L169">
         <v>-0.01884824048710645</v>
@@ -13324,13 +13324,13 @@
         <v>-0.1312500000000227</v>
       </c>
       <c r="U169">
-        <v>0.9998612224757909</v>
+        <v>-0.0001387775242090994</v>
       </c>
       <c r="V169">
-        <v>0.9999073359073359</v>
+        <v>-9.266409266406317E-05</v>
       </c>
       <c r="W169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13365,7 +13365,7 @@
         <v>0.6327750981959953</v>
       </c>
       <c r="K170">
-        <v>38.75457795106808</v>
+        <v>-0.1124542204893192</v>
       </c>
       <c r="L170">
         <v>-0.01746112710179962</v>
@@ -13395,13 +13395,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U170">
-        <v>0.9998766250790372</v>
+        <v>-0.0001233749209628154</v>
       </c>
       <c r="V170">
-        <v>0.9999382182132707</v>
+        <v>-6.178178672933132E-05</v>
       </c>
       <c r="W170">
-        <v>1.000463392029657</v>
+        <v>0.0004633920296570615</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13436,7 +13436,7 @@
         <v>0.5750843574122807</v>
       </c>
       <c r="K171">
-        <v>36.51133697734714</v>
+        <v>-0.1348866302265286</v>
       </c>
       <c r="L171">
         <v>-0.01609484180713534</v>
@@ -13466,13 +13466,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U171">
-        <v>0.9998457623197348</v>
+        <v>-0.0001542376802652345</v>
       </c>
       <c r="V171">
-        <v>0.9999073215940686</v>
+        <v>-9.26784059314123E-05</v>
       </c>
       <c r="W171">
-        <v>0.999536822603057</v>
+        <v>-0.0004631773969430153</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13507,7 +13507,7 @@
         <v>0.671053834932705</v>
       </c>
       <c r="K172">
-        <v>40.15752340855786</v>
+        <v>-0.09842476591442134</v>
       </c>
       <c r="L172">
         <v>-0.01460111484720746</v>
@@ -13537,13 +13537,13 @@
         <v>0.01250000000001705</v>
       </c>
       <c r="U172">
-        <v>0.9998303123794832</v>
+        <v>-0.0001696876205168341</v>
       </c>
       <c r="V172">
-        <v>0.9999073130039856</v>
+        <v>-9.268699601439057E-05</v>
       </c>
       <c r="W172">
-        <v>1.000463392029657</v>
+        <v>0.0004633920296570615</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13578,7 +13578,7 @@
         <v>0.6094835049081262</v>
       </c>
       <c r="K173">
-        <v>37.86826662401347</v>
+        <v>-0.1213173337598653</v>
       </c>
       <c r="L173">
         <v>-0.01324060873548203</v>
@@ -13608,13 +13608,13 @@
         <v>0.04999999999998295</v>
       </c>
       <c r="U173">
-        <v>0.9998611411114884</v>
+        <v>-0.0001388588885116171</v>
       </c>
       <c r="V173">
-        <v>0.9998764058830798</v>
+        <v>-0.0001235941169202004</v>
       </c>
       <c r="W173">
-        <v>0.999536822603057</v>
+        <v>-0.0004631773969430153</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13649,7 +13649,7 @@
         <v>0.7060642415588336</v>
       </c>
       <c r="K174">
-        <v>41.38556007209328</v>
+        <v>-0.08614439927906725</v>
       </c>
       <c r="L174">
         <v>-0.01183075771161287</v>
@@ -13679,13 +13679,13 @@
         <v>0.09375000000002842</v>
       </c>
       <c r="U174">
-        <v>0.9998765527351283</v>
+        <v>-0.0001234472648716789</v>
       </c>
       <c r="V174">
-        <v>1.000092707045735</v>
+        <v>9.270704573549615E-05</v>
       </c>
       <c r="W174">
-        <v>1.000463392029657</v>
+        <v>0.0004633920296570615</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13720,7 +13720,7 @@
         <v>0.5410487955449876</v>
       </c>
       <c r="K175">
-        <v>35.10912808920156</v>
+        <v>-0.1489087191079844</v>
       </c>
       <c r="L175">
         <v>-0.0109433808377441</v>
@@ -13750,13 +13750,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U175">
-        <v>0.9998456718675247</v>
+        <v>-0.0001543281324752899</v>
       </c>
       <c r="V175">
-        <v>0.9999691005160217</v>
+        <v>-3.089948397827502E-05</v>
       </c>
       <c r="W175">
-        <v>0.9986104678091708</v>
+        <v>-0.001389532190829157</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -13791,7 +13791,7 @@
         <v>0.5410487955449877</v>
       </c>
       <c r="K176">
-        <v>35.10912808920156</v>
+        <v>-0.1489087191079844</v>
       </c>
       <c r="L176">
         <v>-0.01038937223453349</v>
@@ -13821,13 +13821,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U176">
-        <v>0.9998765184373408</v>
+        <v>-0.0001234815626591779</v>
       </c>
       <c r="V176">
-        <v>0.9999690995612135</v>
+        <v>-3.09004387865075E-05</v>
       </c>
       <c r="W176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -13862,7 +13862,7 @@
         <v>0.6273688916019847</v>
       </c>
       <c r="K177">
-        <v>38.55111737968653</v>
+        <v>-0.1144888262031347</v>
       </c>
       <c r="L177">
         <v>-0.009866306914929355</v>
@@ -13892,13 +13892,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U177">
-        <v>0.9998919402892915</v>
+        <v>-0.0001080597107084857</v>
       </c>
       <c r="V177">
-        <v>1.000030901393653</v>
+        <v>3.090139365280464E-05</v>
       </c>
       <c r="W177">
-        <v>1.000463821892393</v>
+        <v>0.0004638218923933568</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13933,7 +13933,7 @@
         <v>0.6273688916019847</v>
       </c>
       <c r="K178">
-        <v>38.55111737968653</v>
+        <v>-0.1144888262031347</v>
       </c>
       <c r="L178">
         <v>-0.00935941207688595</v>
@@ -13963,13 +13963,13 @@
         <v>0.006250000000022737</v>
       </c>
       <c r="U178">
-        <v>0.9998764898412894</v>
+        <v>-0.0001235101587105936</v>
       </c>
       <c r="V178">
-        <v>1.000030900438786</v>
+        <v>3.090043878639648E-05</v>
       </c>
       <c r="W178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -14004,7 +14004,7 @@
         <v>0.4874901281062438</v>
       </c>
       <c r="K179">
-        <v>32.77266308495628</v>
+        <v>-0.1722733691504372</v>
       </c>
       <c r="L179">
         <v>-0.009366428403037636</v>
@@ -14034,13 +14034,13 @@
         <v>-0.03124999999997158</v>
       </c>
       <c r="U179">
-        <v>0.9998610339077264</v>
+        <v>-0.0001389660922735958</v>
       </c>
       <c r="V179">
-        <v>0.9999382010320426</v>
+        <v>-6.179896795743822E-05</v>
       </c>
       <c r="W179">
-        <v>0.9986091794158555</v>
+        <v>-0.001390820584144525</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -14075,7 +14075,7 @@
         <v>0.5657220400646389</v>
       </c>
       <c r="K180">
-        <v>36.13170317518706</v>
+        <v>-0.1386829682481294</v>
       </c>
       <c r="L180">
         <v>-0.009481760881155755</v>
@@ -14105,13 +14105,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U180">
-        <v>0.9998764574164157</v>
+        <v>-0.0001235425835842685</v>
       </c>
       <c r="V180">
-        <v>0.9999381972126944</v>
+        <v>-6.180278730560929E-05</v>
       </c>
       <c r="W180">
-        <v>1.000464252553389</v>
+        <v>0.0004642525533891106</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -14146,7 +14146,7 @@
         <v>0.4857239129237214</v>
       </c>
       <c r="K181">
-        <v>32.69274383340016</v>
+        <v>-0.1730725616659984</v>
       </c>
       <c r="L181">
         <v>-0.009958245763873346</v>
@@ -14176,13 +14176,13 @@
         <v>-0.1125000000000114</v>
       </c>
       <c r="U181">
-        <v>0.9998609974207301</v>
+        <v>-0.000139002579269909</v>
       </c>
       <c r="V181">
-        <v>0.9998763867857474</v>
+        <v>-0.0001236132142525825</v>
       </c>
       <c r="W181">
-        <v>0.9990719257540603</v>
+        <v>-0.0009280742459396585</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -14217,7 +14217,7 @@
         <v>0.5601496458115143</v>
       </c>
       <c r="K182">
-        <v>35.90358446161436</v>
+        <v>-0.1409641553838564</v>
       </c>
       <c r="L182">
         <v>-0.01041841890328927</v>
@@ -14247,13 +14247,13 @@
         <v>-0.1562500000000284</v>
       </c>
       <c r="U182">
-        <v>0.9998764249745127</v>
+        <v>-0.0001235750254873214</v>
       </c>
       <c r="V182">
-        <v>0.9998763715036317</v>
+        <v>-0.0001236284963682666</v>
       </c>
       <c r="W182">
-        <v>1.000464468183929</v>
+        <v>0.0004644681839294229</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -14288,7 +14288,7 @@
         <v>0.6384925225355068</v>
       </c>
       <c r="K183">
-        <v>38.96829028840871</v>
+        <v>-0.1103170971159129</v>
       </c>
       <c r="L183">
         <v>-0.01063286812833235</v>
@@ -14318,13 +14318,13 @@
         <v>-0.1500000000000341</v>
       </c>
       <c r="U183">
-        <v>0.9998918584891084</v>
+        <v>-0.0001081415108915573</v>
       </c>
       <c r="V183">
-        <v>0.9999072671633025</v>
+        <v>-9.273283669752885E-05</v>
       </c>
       <c r="W183">
-        <v>1.000464252553389</v>
+        <v>0.0004642525533891106</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -14359,7 +14359,7 @@
         <v>0.5898498546915442</v>
       </c>
       <c r="K184">
-        <v>37.10097862077576</v>
+        <v>-0.1289902137922425</v>
       </c>
       <c r="L184">
         <v>-0.01081480913631776</v>
@@ -14389,13 +14389,13 @@
         <v>-0.1500000000000057</v>
       </c>
       <c r="U184">
-        <v>0.9998918467932575</v>
+        <v>-0.0001081532067425117</v>
       </c>
       <c r="V184">
-        <v>0.9998763447508346</v>
+        <v>-0.0001236552491653553</v>
       </c>
       <c r="W184">
-        <v>0.9995359628770302</v>
+        <v>-0.0004640371229698292</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14430,7 +14430,7 @@
         <v>0.5898498546915442</v>
       </c>
       <c r="K185">
-        <v>37.10097862077576</v>
+        <v>-0.1289902137922425</v>
       </c>
       <c r="L185">
         <v>-0.01092616356098352</v>
@@ -14460,13 +14460,13 @@
         <v>-0.1624999999999659</v>
       </c>
       <c r="U185">
-        <v>0.999891835094876</v>
+        <v>-0.0001081649051239975</v>
       </c>
       <c r="V185">
-        <v>0.9998454118229037</v>
+        <v>-0.0001545881770963486</v>
       </c>
       <c r="W185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14501,7 +14501,7 @@
         <v>0.5898498546915442</v>
       </c>
       <c r="K186">
-        <v>37.10097862077576</v>
+        <v>-0.1289902137922425</v>
       </c>
       <c r="L186">
         <v>-0.01094793867417184</v>
@@ -14531,13 +14531,13 @@
         <v>-0.1687499999999886</v>
       </c>
       <c r="U186">
-        <v>0.9998918233939639</v>
+        <v>-0.0001081766060361256</v>
       </c>
       <c r="V186">
-        <v>0.9998763103373637</v>
+        <v>-0.0001236896626363171</v>
       </c>
       <c r="W186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14572,7 +14572,7 @@
         <v>0.6787066722399282</v>
       </c>
       <c r="K187">
-        <v>40.43033148455399</v>
+        <v>-0.09569668515446011</v>
       </c>
       <c r="L187">
         <v>-0.01070547607795862</v>
@@ -14602,13 +14602,13 @@
         <v>-0.1375000000000171</v>
       </c>
       <c r="U187">
-        <v>0.9998918116905195</v>
+        <v>-0.0001081883094804503</v>
       </c>
       <c r="V187">
-        <v>0.9998762950363383</v>
+        <v>-0.0001237049636616527</v>
       </c>
       <c r="W187">
-        <v>1.000464252553389</v>
+        <v>0.0004642525533891106</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14643,7 +14643,7 @@
         <v>0.7722401643961222</v>
       </c>
       <c r="K188">
-        <v>43.57423897224772</v>
+        <v>-0.0642576102775228</v>
       </c>
       <c r="L188">
         <v>-0.01011058925902712</v>
@@ -14673,13 +14673,13 @@
         <v>-0.1062499999999886</v>
       </c>
       <c r="U188">
-        <v>0.9999072571296082</v>
+        <v>-9.27428703918487E-05</v>
       </c>
       <c r="V188">
-        <v>0.9999381398657634</v>
+        <v>-6.186013423659098E-05</v>
       </c>
       <c r="W188">
-        <v>1.00046403712297</v>
+        <v>0.0004640371229698292</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14714,7 +14714,7 @@
         <v>0.9691527794618212</v>
       </c>
       <c r="K189">
-        <v>49.21673877060444</v>
+        <v>-0.007832612293955543</v>
       </c>
       <c r="L189">
         <v>-0.008965599027738667</v>
@@ -14744,13 +14744,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U189">
-        <v>1.000030917157477</v>
+        <v>3.09171574766065E-05</v>
       </c>
       <c r="V189">
-        <v>0.9999690680194254</v>
+        <v>-3.09319805745778E-05</v>
       </c>
       <c r="W189">
-        <v>1.000927643784787</v>
+        <v>0.0009276437847867136</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -14785,7 +14785,7 @@
         <v>1.176429216373054</v>
       </c>
       <c r="K190">
-        <v>54.05318066504977</v>
+        <v>0.04053180665049771</v>
       </c>
       <c r="L190">
         <v>-0.007189853726921997</v>
@@ -14815,13 +14815,13 @@
         <v>0.02499999999997726</v>
       </c>
       <c r="U190">
-        <v>1.000046374302453</v>
+        <v>4.637430245302276E-05</v>
       </c>
       <c r="V190">
-        <v>1.000123731749567</v>
+        <v>0.0001237317495668133</v>
       </c>
       <c r="W190">
-        <v>1.000926784059314</v>
+        <v>0.000926784059314123</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -14856,7 +14856,7 @@
         <v>1.176429216373054</v>
       </c>
       <c r="K191">
-        <v>54.05318066504979</v>
+        <v>0.04053180665049783</v>
       </c>
       <c r="L191">
         <v>-0.005118766142501114</v>
@@ -14886,13 +14886,13 @@
         <v>0.0625</v>
       </c>
       <c r="U191">
-        <v>1.000046372151977</v>
+        <v>4.637215197700328E-05</v>
       </c>
       <c r="V191">
-        <v>1.000123716441915</v>
+        <v>0.0001237164419152226</v>
       </c>
       <c r="W191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14927,7 +14927,7 @@
         <v>1.520932989632753</v>
       </c>
       <c r="K192">
-        <v>60.33214670471352</v>
+        <v>0.1033214670471352</v>
       </c>
       <c r="L192">
         <v>-0.002475497656887351</v>
@@ -14957,13 +14957,13 @@
         <v>0.1312499999999943</v>
       </c>
       <c r="U192">
-        <v>1.000108196670634</v>
+        <v>0.0001081966706339976</v>
       </c>
       <c r="V192">
-        <v>1.000185551707076</v>
+        <v>0.0001855517070759038</v>
       </c>
       <c r="W192">
-        <v>1.001388888888889</v>
+        <v>0.001388888888888884</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14998,7 +14998,7 @@
         <v>1.520932989632753</v>
       </c>
       <c r="K193">
-        <v>60.33214670471352</v>
+        <v>0.1033214670471352</v>
       </c>
       <c r="L193">
         <v>0.0003550248109505298</v>
@@ -15028,13 +15028,13 @@
         <v>0.2062500000000114</v>
       </c>
       <c r="U193">
-        <v>1.000108184965381</v>
+        <v>0.0001081849653807865</v>
       </c>
       <c r="V193">
-        <v>1.000185517284027</v>
+        <v>0.000185517284026826</v>
       </c>
       <c r="W193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -15069,7 +15069,7 @@
         <v>1.520932989632753</v>
       </c>
       <c r="K194">
-        <v>60.33214670471352</v>
+        <v>0.1033214670471352</v>
       </c>
       <c r="L194">
         <v>0.003117212800113987</v>
@@ -15099,13 +15099,13 @@
         <v>0.28125</v>
       </c>
       <c r="U194">
-        <v>1.00010817326266</v>
+        <v>0.0001081732626599941</v>
       </c>
       <c r="V194">
-        <v>1.000278224310622</v>
+        <v>0.0002782243106220772</v>
       </c>
       <c r="W194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -15140,7 +15140,7 @@
         <v>1.08497624802016</v>
       </c>
       <c r="K195">
-        <v>52.03782292726</v>
+        <v>0.02037822927259991</v>
       </c>
       <c r="L195">
         <v>0.005143923390627841</v>
@@ -15170,13 +15170,13 @@
         <v>0.3062500000000057</v>
       </c>
       <c r="U195">
-        <v>1.000046354955345</v>
+        <v>4.635495534488498E-05</v>
       </c>
       <c r="V195">
-        <v>1.000154526068548</v>
+        <v>0.0001545260685478222</v>
       </c>
       <c r="W195">
-        <v>0.9986130374479889</v>
+        <v>-0.001386962552011095</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -15211,7 +15211,7 @@
         <v>1.286125514689333</v>
       </c>
       <c r="K196">
-        <v>56.25786976373025</v>
+        <v>0.06257869763730251</v>
       </c>
       <c r="L196">
         <v>0.00691470008062155</v>
@@ -15241,13 +15241,13 @@
         <v>0.3375000000000057</v>
       </c>
       <c r="U196">
-        <v>1.000077254677771</v>
+        <v>7.725467777097705E-05</v>
       </c>
       <c r="V196">
-        <v>1.000278103949076</v>
+        <v>0.000278103949076014</v>
       </c>
       <c r="W196">
-        <v>1.000925925925926</v>
+        <v>0.0009259259259257746</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -15282,7 +15282,7 @@
         <v>1.163000895116551</v>
       </c>
       <c r="K197">
-        <v>53.76793406522765</v>
+        <v>0.03767934065227652</v>
       </c>
       <c r="L197">
         <v>0.008223423691215178</v>
@@ -15312,13 +15312,13 @@
         <v>0.3250000000000171</v>
       </c>
       <c r="U197">
-        <v>1.000046349225968</v>
+        <v>4.634922596769009E-05</v>
       </c>
       <c r="V197">
-        <v>1.00021624293349</v>
+        <v>0.0002162429334897631</v>
       </c>
       <c r="W197">
-        <v>0.9995374653098983</v>
+        <v>-0.0004625346901017124</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -15353,7 +15353,7 @@
         <v>1.364543996824654</v>
       </c>
       <c r="K198">
-        <v>57.70854755323226</v>
+        <v>0.07708547553232259</v>
       </c>
       <c r="L198">
         <v>0.009476385610864526</v>
@@ -15383,13 +15383,13 @@
         <v>0.3062500000000057</v>
       </c>
       <c r="U198">
-        <v>1.000077245129695</v>
+        <v>7.724512969464747E-05</v>
       </c>
       <c r="V198">
-        <v>1.000247081351535</v>
+        <v>0.0002470813515349501</v>
       </c>
       <c r="W198">
-        <v>1.000925497454882</v>
+        <v>0.0009254974548820183</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15424,7 +15424,7 @@
         <v>1.125721473265372</v>
       </c>
       <c r="K199">
-        <v>52.95714831050392</v>
+        <v>0.02957148310503921</v>
       </c>
       <c r="L199">
         <v>0.01024346099291045</v>
@@ -15454,13 +15454,13 @@
         <v>0.28125</v>
       </c>
       <c r="U199">
-        <v>1.000046343498007</v>
+        <v>4.634349800736182E-05</v>
       </c>
       <c r="V199">
-        <v>1.000216142777743</v>
+        <v>0.0002161427777434</v>
       </c>
       <c r="W199">
-        <v>0.9990753582986592</v>
+        <v>-0.0009246417013407671</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15495,7 +15495,7 @@
         <v>1.125721473265372</v>
       </c>
       <c r="K200">
-        <v>52.95714831050392</v>
+        <v>0.02957148310503921</v>
       </c>
       <c r="L200">
         <v>0.01062995140228088</v>
@@ -15525,13 +15525,13 @@
         <v>0.2125000000000341</v>
       </c>
       <c r="U200">
-        <v>1.000030894233591</v>
+        <v>3.089423359114996E-05</v>
       </c>
       <c r="V200">
-        <v>1.000216096070139</v>
+        <v>0.0002160960701387271</v>
       </c>
       <c r="W200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15566,7 +15566,7 @@
         <v>1.222685475678735</v>
       </c>
       <c r="K201">
-        <v>55.00937892732516</v>
+        <v>0.05009378927325159</v>
       </c>
       <c r="L201">
         <v>0.01089126990159267</v>
@@ -15596,13 +15596,13 @@
         <v>0.1499999999999773</v>
       </c>
       <c r="U201">
-        <v>1.000061786558334</v>
+        <v>6.178655833410929E-05</v>
       </c>
       <c r="V201">
-        <v>1.000246913580247</v>
+        <v>0.0002469135802469768</v>
       </c>
       <c r="W201">
-        <v>1.000462748727441</v>
+        <v>0.0004627487274408981</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15637,7 +15637,7 @@
         <v>0.9360614744213271</v>
       </c>
       <c r="K202">
-        <v>48.34874753659918</v>
+        <v>-0.01651252463400821</v>
       </c>
       <c r="L202">
         <v>0.01051418119835317</v>
@@ -15667,13 +15667,13 @@
         <v>0.06874999999996589</v>
       </c>
       <c r="U202">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V202">
-        <v>1.00012342631449</v>
+        <v>0.0001234263144902492</v>
       </c>
       <c r="W202">
-        <v>0.9986123959296948</v>
+        <v>-0.001387604070305248</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15708,7 +15708,7 @@
         <v>1.018314700621443</v>
       </c>
       <c r="K203">
-        <v>50.45371270931643</v>
+        <v>0.004537127093164339</v>
       </c>
       <c r="L203">
         <v>0.009904924716360685</v>
@@ -15738,13 +15738,13 @@
         <v>0.03749999999996589</v>
       </c>
       <c r="U203">
-        <v>1.000030891370496</v>
+        <v>3.089137049561153E-05</v>
       </c>
       <c r="V203">
-        <v>1.000123411082315</v>
+        <v>0.0001234110823151724</v>
       </c>
       <c r="W203">
-        <v>1.000463177396943</v>
+        <v>0.0004631773969430153</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -15779,7 +15779,7 @@
         <v>1.018314700621443</v>
       </c>
       <c r="K204">
-        <v>50.45371270931643</v>
+        <v>0.004537127093164339</v>
       </c>
       <c r="L204">
         <v>0.009157826662449553</v>
@@ -15809,13 +15809,13 @@
         <v>-0.01250000000004547</v>
       </c>
       <c r="U204">
-        <v>1.000015445208124</v>
+        <v>1.544520812424288E-05</v>
       </c>
       <c r="V204">
-        <v>1.00006169792695</v>
+        <v>6.169792694965537E-05</v>
       </c>
       <c r="W204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -15850,7 +15850,7 @@
         <v>1.018314700621443</v>
       </c>
       <c r="K205">
-        <v>50.45371270931643</v>
+        <v>0.004537127093164339</v>
       </c>
       <c r="L205">
         <v>0.008341524164308034</v>
@@ -15880,13 +15880,13 @@
         <v>-0.03750000000002274</v>
       </c>
       <c r="U205">
-        <v>1.000061779878294</v>
+        <v>6.177987829358855E-05</v>
       </c>
       <c r="V205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15921,7 +15921,7 @@
         <v>1.210186929693007</v>
       </c>
       <c r="K206">
-        <v>54.75495820894664</v>
+        <v>0.04754958208946636</v>
       </c>
       <c r="L206">
         <v>0.007842306171173289</v>
@@ -15951,13 +15951,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U206">
-        <v>1.000092664092664</v>
+        <v>9.266409266417419E-05</v>
       </c>
       <c r="V206">
-        <v>1.00006169412055</v>
+        <v>6.169412055023749E-05</v>
       </c>
       <c r="W206">
-        <v>1.000925925925926</v>
+        <v>0.0009259259259257746</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15992,7 +15992,7 @@
         <v>1.210186929693007</v>
       </c>
       <c r="K207">
-        <v>54.75495820894663</v>
+        <v>0.04754958208946636</v>
       </c>
       <c r="L207">
         <v>0.007538374134035072</v>
@@ -16022,13 +16022,13 @@
         <v>-0.06249999999997158</v>
       </c>
       <c r="U207">
-        <v>1.000077212922355</v>
+        <v>7.721292235451926E-05</v>
       </c>
       <c r="V207">
-        <v>0.9999691548426896</v>
+        <v>-3.084515731044402E-05</v>
       </c>
       <c r="W207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -16063,7 +16063,7 @@
         <v>1.422787737528564</v>
       </c>
       <c r="K208">
-        <v>58.72523273458204</v>
+        <v>0.08725232734582045</v>
       </c>
       <c r="L208">
         <v>0.007681902573090089</v>
@@ -16093,13 +16093,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U208">
-        <v>1.000108089745372</v>
+        <v>0.0001080897453715757</v>
       </c>
       <c r="V208">
-        <v>1.000030846108763</v>
+        <v>3.084610876347149E-05</v>
       </c>
       <c r="W208">
-        <v>1.000925069380204</v>
+        <v>0.0009250693802036469</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -16134,7 +16134,7 @@
         <v>1.162607441472996</v>
       </c>
       <c r="K209">
-        <v>53.75952284160829</v>
+        <v>0.03759522841608298</v>
       </c>
       <c r="L209">
         <v>0.007722008667219857</v>
@@ -16164,13 +16164,13 @@
         <v>-0.02500000000003411</v>
       </c>
       <c r="U209">
-        <v>1.000123517786561</v>
+        <v>0.000123517786561278</v>
       </c>
       <c r="V209">
-        <v>0.9999691548426898</v>
+        <v>-3.084515731022197E-05</v>
       </c>
       <c r="W209">
-        <v>0.999075785582255</v>
+        <v>-0.0009242144177450395</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -16205,7 +16205,7 @@
         <v>1.060535602012694</v>
       </c>
       <c r="K210">
-        <v>51.4689288055388</v>
+        <v>0.01468928805538805</v>
       </c>
       <c r="L210">
         <v>0.007500149032072577</v>
@@ -16235,13 +16235,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U210">
-        <v>1.000092626898851</v>
+        <v>9.262689885125575E-05</v>
       </c>
       <c r="V210">
-        <v>1.000030846108763</v>
+        <v>3.084610876324945E-05</v>
       </c>
       <c r="W210">
-        <v>0.9995374653098983</v>
+        <v>-0.0004625346901017124</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -16276,7 +16276,7 @@
         <v>0.9708162222878503</v>
       </c>
       <c r="K211">
-        <v>49.25960174819671</v>
+        <v>-0.007403982518032926</v>
       </c>
       <c r="L211">
         <v>0.006937838442613263</v>
@@ -16306,13 +16306,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U211">
-        <v>1.000108054706554</v>
+        <v>0.0001080547065541726</v>
       </c>
       <c r="V211">
-        <v>0.9999383096853794</v>
+        <v>-6.169031462055496E-05</v>
       </c>
       <c r="W211">
-        <v>0.999537251272559</v>
+        <v>-0.0004627487274410091</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -16347,7 +16347,7 @@
         <v>0.9708162222878504</v>
       </c>
       <c r="K212">
-        <v>49.25960174819672</v>
+        <v>-0.00740398251803287</v>
       </c>
       <c r="L212">
         <v>0.0061799104550083</v>
@@ -16377,13 +16377,13 @@
         <v>0.02499999999997726</v>
       </c>
       <c r="U212">
-        <v>1.00009260831314</v>
+        <v>9.260831313961937E-05</v>
       </c>
       <c r="V212">
-        <v>0.9999691529397249</v>
+        <v>-3.084706027511874E-05</v>
       </c>
       <c r="W212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16418,7 +16418,7 @@
         <v>1.158291409180425</v>
       </c>
       <c r="K213">
-        <v>53.66705368207284</v>
+        <v>0.03667053682072841</v>
       </c>
       <c r="L213">
         <v>0.005666477727782359</v>
@@ -16448,13 +16448,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U213">
-        <v>1.00010803302724</v>
+        <v>0.0001080330272398289</v>
       </c>
       <c r="V213">
-        <v>0.9999691519881543</v>
+        <v>-3.084801184571884E-05</v>
       </c>
       <c r="W213">
-        <v>1.000925925925926</v>
+        <v>0.0009259259259257746</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16489,7 +16489,7 @@
         <v>1.158291409180425</v>
       </c>
       <c r="K214">
-        <v>53.66705368207284</v>
+        <v>0.03667053682072841</v>
       </c>
       <c r="L214">
         <v>0.005313218611457017</v>
@@ -16519,13 +16519,13 @@
         <v>0.04999999999998295</v>
       </c>
       <c r="U214">
-        <v>1.000123452979846</v>
+        <v>0.0001234529798461725</v>
       </c>
       <c r="V214">
-        <v>1.000030848963475</v>
+        <v>3.084896347482768E-05</v>
       </c>
       <c r="W214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16560,7 +16560,7 @@
         <v>1.262155778650025</v>
       </c>
       <c r="K215">
-        <v>55.79437943938747</v>
+        <v>0.05794379439387465</v>
       </c>
       <c r="L215">
         <v>0.005228700459184271</v>
@@ -16590,13 +16590,13 @@
         <v>0.04999999999998295</v>
       </c>
       <c r="U215">
-        <v>1.000138867458726</v>
+        <v>0.000138867458725711</v>
       </c>
       <c r="V215">
-        <v>1.000061696023691</v>
+        <v>6.169602369143767E-05</v>
       </c>
       <c r="W215">
-        <v>1.000462534690102</v>
+        <v>0.0004625346901019345</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16631,7 +16631,7 @@
         <v>1.035689924063053</v>
       </c>
       <c r="K216">
-        <v>50.87660511655477</v>
+        <v>0.008766051165547739</v>
       </c>
       <c r="L216">
         <v>0.004956183932598385</v>
@@ -16661,13 +16661,13 @@
         <v>0.01250000000001705</v>
       </c>
       <c r="U216">
-        <v>1.000107993026736</v>
+        <v>0.0001079930267358087</v>
       </c>
       <c r="V216">
-        <v>0.9999691538912365</v>
+        <v>-3.084610876347149E-05</v>
       </c>
       <c r="W216">
-        <v>0.9990753582986592</v>
+        <v>-0.0009246417013407671</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16702,7 +16702,7 @@
         <v>0.9463232340885248</v>
       </c>
       <c r="K217">
-        <v>48.62107267253036</v>
+        <v>-0.01378927327469642</v>
       </c>
       <c r="L217">
         <v>0.004400567567141469</v>
@@ -16732,13 +16732,13 @@
         <v>2.842170943040401E-14</v>
       </c>
       <c r="U217">
-        <v>1.000077129546787</v>
+        <v>7.712954678673611E-05</v>
       </c>
       <c r="V217">
-        <v>1.000030847060275</v>
+        <v>3.084706027522977E-05</v>
       </c>
       <c r="W217">
-        <v>0.999537251272559</v>
+        <v>-0.0004627487274410091</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -16773,7 +16773,7 @@
         <v>1.037151770494621</v>
       </c>
       <c r="K218">
-        <v>50.91185573487243</v>
+        <v>0.009118557348724243</v>
       </c>
       <c r="L218">
         <v>0.003861404251244544</v>
@@ -16803,13 +16803,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U218">
-        <v>1.000077123598279</v>
+        <v>7.71235982786056E-05</v>
       </c>
       <c r="V218">
-        <v>1.000030846108763</v>
+        <v>3.084610876347149E-05</v>
       </c>
       <c r="W218">
-        <v>1.000462962962963</v>
+        <v>0.0004629629629628873</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -16844,7 +16844,7 @@
         <v>0.8706649793840928</v>
       </c>
       <c r="K219">
-        <v>46.54307366521369</v>
+        <v>-0.03456926334786309</v>
       </c>
       <c r="L219">
         <v>0.00301544762966685</v>
@@ -16874,13 +16874,13 @@
         <v>-0.01874999999995453</v>
       </c>
       <c r="U219">
-        <v>1.000015423530138</v>
+        <v>1.542353013750386E-05</v>
       </c>
       <c r="V219">
-        <v>0.9999691548426896</v>
+        <v>-3.084515731044402E-05</v>
       </c>
       <c r="W219">
-        <v>0.9990745025451181</v>
+        <v>-0.0009254974548819073</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16915,7 +16915,7 @@
         <v>0.802836658883797</v>
       </c>
       <c r="K220">
-        <v>44.53185788782789</v>
+        <v>-0.05468142112172109</v>
       </c>
       <c r="L220">
         <v>0.001858066888241329</v>
@@ -16945,13 +16945,13 @@
         <v>-0.03124999999997158</v>
       </c>
       <c r="U220">
-        <v>0.9999691534154881</v>
+        <v>-3.084658451191213E-05</v>
       </c>
       <c r="V220">
-        <v>0.9999383077824733</v>
+        <v>-6.169221752672094E-05</v>
       </c>
       <c r="W220">
-        <v>0.999536822603057</v>
+        <v>-0.0004631773969430153</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16986,7 +16986,7 @@
         <v>0.9668451668545244</v>
       </c>
       <c r="K221">
-        <v>49.15715701204639</v>
+        <v>-0.00842842987953607</v>
       </c>
       <c r="L221">
         <v>0.0009160739147313109</v>
@@ -17016,13 +17016,13 @@
         <v>-0.05624999999997726</v>
       </c>
       <c r="U221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V221">
-        <v>0.9999383039763088</v>
+        <v>-6.169602369121563E-05</v>
       </c>
       <c r="W221">
-        <v>1.000926784059314</v>
+        <v>0.000926784059314123</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -17057,7 +17057,7 @@
         <v>1.053165434207539</v>
       </c>
       <c r="K222">
-        <v>51.29471871388822</v>
+        <v>0.01294718713888221</v>
       </c>
       <c r="L222">
         <v>0.0003297650772728582</v>
@@ -17087,13 +17087,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U222">
-        <v>0.999969152463947</v>
+        <v>-3.08475360529803E-05</v>
       </c>
       <c r="V222">
-        <v>0.9999691500848373</v>
+        <v>-3.084991516266733E-05</v>
       </c>
       <c r="W222">
-        <v>1.000462962962963</v>
+        <v>0.0004629629629628873</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -17128,7 +17128,7 @@
         <v>1.144028873526501</v>
       </c>
       <c r="K223">
-        <v>53.35883707782355</v>
+        <v>0.03358837077823551</v>
       </c>
       <c r="L223">
         <v>0.0001636077818711989</v>
@@ -17158,13 +17158,13 @@
         <v>-0.07500000000001705</v>
       </c>
       <c r="U223">
-        <v>0.9999845757561734</v>
+        <v>-1.542424382661167E-05</v>
       </c>
       <c r="V223">
-        <v>0.9999382982661812</v>
+        <v>-6.170173381880861E-05</v>
       </c>
       <c r="W223">
-        <v>1.000462748727441</v>
+        <v>0.0004627487274408981</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -17199,7 +17199,7 @@
         <v>1.044159482209585</v>
       </c>
       <c r="K224">
-        <v>51.08013789026511</v>
+        <v>0.01080137890265109</v>
       </c>
       <c r="L224">
         <v>9.345561254782856E-05</v>
@@ -17229,13 +17229,13 @@
         <v>-0.05625000000003411</v>
       </c>
       <c r="U224">
-        <v>0.9999691510365252</v>
+        <v>-3.084896347482768E-05</v>
       </c>
       <c r="V224">
-        <v>0.9999691472294212</v>
+        <v>-3.08527705787931E-05</v>
       </c>
       <c r="W224">
-        <v>0.9995374653098983</v>
+        <v>-0.0004625346901017124</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -17270,7 +17270,7 @@
         <v>1.136050235584004</v>
       </c>
       <c r="K225">
-        <v>53.18462162821763</v>
+        <v>0.03184621628217632</v>
       </c>
       <c r="L225">
         <v>0.0002541162137141967</v>
@@ -17300,13 +17300,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U225">
-        <v>1.000030849915163</v>
+        <v>3.084991516288937E-05</v>
       </c>
       <c r="V225">
-        <v>1.000030853722502</v>
+        <v>3.085372250155594E-05</v>
       </c>
       <c r="W225">
-        <v>1.000462748727441</v>
+        <v>0.0004627487274408981</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -17341,7 +17341,7 @@
         <v>0.819124180588353</v>
       </c>
       <c r="K226">
-        <v>45.02849169557114</v>
+        <v>-0.04971508304428857</v>
       </c>
       <c r="L226">
         <v>-0.0001306369526898258</v>
@@ -17371,13 +17371,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U226">
-        <v>0.9999383020730501</v>
+        <v>-6.169792694987741E-05</v>
       </c>
       <c r="V226">
-        <v>0.9999382944588424</v>
+        <v>-6.17055411575862E-05</v>
       </c>
       <c r="W226">
-        <v>0.998149861239593</v>
+        <v>-0.001850138760406961</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -17412,7 +17412,7 @@
         <v>0.8191241805883528</v>
       </c>
       <c r="K227">
-        <v>45.02849169557113</v>
+        <v>-0.04971508304428873</v>
       </c>
       <c r="L227">
         <v>-0.0008208224935412174</v>
@@ -17442,13 +17442,13 @@
         <v>-0.04999999999998295</v>
       </c>
       <c r="U227">
-        <v>0.9999537236996361</v>
+        <v>-4.627630036391217E-05</v>
       </c>
       <c r="V227">
-        <v>0.9999382906510336</v>
+        <v>-6.170934896643221E-05</v>
       </c>
       <c r="W227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -17483,7 +17483,7 @@
         <v>0.8191241805883529</v>
       </c>
       <c r="K228">
-        <v>45.02849169557113</v>
+        <v>-0.04971508304428868</v>
       </c>
       <c r="L228">
         <v>-0.001649090549563728</v>
@@ -17513,13 +17513,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U228">
-        <v>0.9999228692634015</v>
+        <v>-7.713073659854075E-05</v>
       </c>
       <c r="V228">
-        <v>0.9998765736855099</v>
+        <v>-0.0001234263144901382</v>
       </c>
       <c r="W228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -17554,7 +17554,7 @@
         <v>0.7045080921546153</v>
       </c>
       <c r="K229">
-        <v>41.3320473746809</v>
+        <v>-0.08667952625319097</v>
       </c>
       <c r="L229">
         <v>-0.002839304884585856</v>
@@ -17584,13 +17584,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U229">
-        <v>0.9999228633137921</v>
+        <v>-7.713668620790148E-05</v>
       </c>
       <c r="V229">
-        <v>0.9998148376743611</v>
+        <v>-0.0001851623256389212</v>
       </c>
       <c r="W229">
-        <v>0.9990732159406858</v>
+        <v>-0.000926784059314234</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -17625,7 +17625,7 @@
         <v>0.6140629717597351</v>
       </c>
       <c r="K230">
-        <v>38.04454860210638</v>
+        <v>-0.1195545139789362</v>
       </c>
       <c r="L230">
         <v>-0.004499743741329366</v>
@@ -17655,13 +17655,13 @@
         <v>-0.08750000000000568</v>
       </c>
       <c r="U230">
-        <v>0.9998920003085705</v>
+        <v>-0.0001079996914294945</v>
       </c>
       <c r="V230">
-        <v>0.9997222050743875</v>
+        <v>-0.0002777949256125289</v>
       </c>
       <c r="W230">
-        <v>0.9990723562152134</v>
+        <v>-0.0009276437847866026</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -17696,7 +17696,7 @@
         <v>0.6816316703662895</v>
       </c>
       <c r="K231">
-        <v>40.53394583237231</v>
+        <v>-0.09466054167627691</v>
       </c>
       <c r="L231">
         <v>-0.006154482326774725</v>
@@ -17726,13 +17726,13 @@
         <v>-0.125</v>
       </c>
       <c r="U231">
-        <v>0.9998919886433775</v>
+        <v>-0.0001080113566225283</v>
       </c>
       <c r="V231">
-        <v>0.9998147519219488</v>
+        <v>-0.0001852480780512034</v>
       </c>
       <c r="W231">
-        <v>1.000464252553389</v>
+        <v>0.0004642525533891106</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -17767,7 +17767,7 @@
         <v>0.6816316703662894</v>
       </c>
       <c r="K232">
-        <v>40.53394583237231</v>
+        <v>-0.09466054167627691</v>
       </c>
       <c r="L232">
         <v>-0.007678075576064603</v>
@@ -17797,13 +17797,13 @@
         <v>-0.1624999999999943</v>
       </c>
       <c r="U232">
-        <v>0.9999382725575221</v>
+        <v>-6.172744247789907E-05</v>
       </c>
       <c r="V232">
-        <v>0.9998455979989501</v>
+        <v>-0.0001544020010498803</v>
       </c>
       <c r="W232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -17838,7 +17838,7 @@
         <v>0.6816316703662892</v>
       </c>
       <c r="K233">
-        <v>40.5339458323723</v>
+        <v>-0.09466054167627697</v>
       </c>
       <c r="L233">
         <v>-0.008997338478691342</v>
@@ -17868,13 +17868,13 @@
         <v>-0.21875</v>
       </c>
       <c r="U233">
-        <v>0.9999228359337624</v>
+        <v>-7.716406623758942E-05</v>
       </c>
       <c r="V233">
-        <v>0.9998146889863486</v>
+        <v>-0.0001853110136513791</v>
       </c>
       <c r="W233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17909,7 +17909,7 @@
         <v>0.7604404746894318</v>
       </c>
       <c r="K234">
-        <v>43.19603449378684</v>
+        <v>-0.06803965506213161</v>
       </c>
       <c r="L234">
         <v>-0.009907563114701458</v>
@@ -17939,13 +17939,13 @@
         <v>-0.2124999999999773</v>
       </c>
       <c r="U234">
-        <v>0.9999382639832078</v>
+        <v>-6.173601679215768E-05</v>
       </c>
       <c r="V234">
-        <v>0.9999073273199062</v>
+        <v>-9.267268009383045E-05</v>
       </c>
       <c r="W234">
-        <v>1.00046403712297</v>
+        <v>0.0004640371229698292</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17980,7 +17980,7 @@
         <v>0.7604404746894318</v>
       </c>
       <c r="K235">
-        <v>43.19603449378684</v>
+        <v>-0.06803965506213161</v>
       </c>
       <c r="L235">
         <v>-0.01047597723528438</v>
@@ -18010,13 +18010,13 @@
         <v>-0.21875</v>
       </c>
       <c r="U235">
-        <v>0.9999382601716367</v>
+        <v>-6.173982836332748E-05</v>
       </c>
       <c r="V235">
-        <v>0.9999382124872562</v>
+        <v>-6.17875127437717E-05</v>
       </c>
       <c r="W235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -18051,7 +18051,7 @@
         <v>0.8477632495627199</v>
       </c>
       <c r="K236">
-        <v>45.88051254744601</v>
+        <v>-0.04119487452553988</v>
       </c>
       <c r="L236">
         <v>-0.0105943854724062</v>
@@ -18081,13 +18081,13 @@
         <v>-0.2250000000000227</v>
       </c>
       <c r="U236">
-        <v>0.9999228204494937</v>
+        <v>-7.717955050634551E-05</v>
       </c>
       <c r="V236">
-        <v>0.9999073130039856</v>
+        <v>-9.268699601439057E-05</v>
       </c>
       <c r="W236">
-        <v>1.000463821892393</v>
+        <v>0.0004638218923933568</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -18122,7 +18122,7 @@
         <v>0.7763977679782098</v>
       </c>
       <c r="K237">
-        <v>43.70630170639426</v>
+        <v>-0.06293698293605743</v>
       </c>
       <c r="L237">
         <v>-0.01056264057550055</v>
@@ -18152,13 +18152,13 @@
         <v>-0.1999999999999886</v>
       </c>
       <c r="U237">
-        <v>0.9999073773908211</v>
+        <v>-9.262260917886067E-05</v>
       </c>
       <c r="V237">
-        <v>0.9998455073538498</v>
+        <v>-0.000154492646150195</v>
       </c>
       <c r="W237">
-        <v>0.9995363931386185</v>
+        <v>-0.0004636068613814714</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -18193,7 +18193,7 @@
         <v>0.6133485835257436</v>
       </c>
       <c r="K238">
-        <v>38.01711482495354</v>
+        <v>-0.1198288517504645</v>
       </c>
       <c r="L238">
         <v>-0.01090945209559343</v>
@@ -18223,13 +18223,13 @@
         <v>-0.1624999999999943</v>
       </c>
       <c r="U238">
-        <v>0.9998301761536443</v>
+        <v>-0.0001698238463556656</v>
       </c>
       <c r="V238">
-        <v>0.9997218702679316</v>
+        <v>-0.0002781297320684217</v>
       </c>
       <c r="W238">
-        <v>0.9986085343228202</v>
+        <v>-0.001391465677179848</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -18264,7 +18264,7 @@
         <v>0.6870353488905374</v>
       </c>
       <c r="K239">
-        <v>40.72441928038791</v>
+        <v>-0.09275580719612092</v>
       </c>
       <c r="L239">
         <v>-0.01125532179982753</v>
@@ -18294,13 +18294,13 @@
         <v>-0.125</v>
       </c>
       <c r="U239">
-        <v>0.9998764707698959</v>
+        <v>-0.000123529230104058</v>
       </c>
       <c r="V239">
-        <v>0.9997836166924265</v>
+        <v>-0.0002163833075734534</v>
       </c>
       <c r="W239">
-        <v>1.000464468183929</v>
+        <v>0.0004644681839294229</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -18335,7 +18335,7 @@
         <v>0.6870353488905374</v>
       </c>
       <c r="K240">
-        <v>40.72441928038791</v>
+        <v>-0.09275580719612092</v>
       </c>
       <c r="L240">
         <v>-0.01153771284460832</v>
@@ -18365,13 +18365,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U240">
-        <v>0.9998918985699726</v>
+        <v>-0.0001081014300273742</v>
       </c>
       <c r="V240">
-        <v>0.9997526512692083</v>
+        <v>-0.0002473487307916855</v>
       </c>
       <c r="W240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -18406,7 +18406,7 @@
         <v>0.6870353488905373</v>
       </c>
       <c r="K241">
-        <v>40.7244192803879</v>
+        <v>-0.09275580719612103</v>
       </c>
       <c r="L241">
         <v>-0.01172173560537991</v>
@@ -18436,13 +18436,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U241">
-        <v>0.9999073316138199</v>
+        <v>-9.266838618005035E-05</v>
       </c>
       <c r="V241">
-        <v>0.9998762950363383</v>
+        <v>-0.0001237049636616527</v>
       </c>
       <c r="W241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -18477,7 +18477,7 @@
         <v>0.6870353488905373</v>
       </c>
       <c r="K242">
-        <v>40.7244192803879</v>
+        <v>-0.09275580719612103</v>
       </c>
       <c r="L242">
         <v>-0.01179183211250071</v>
@@ -18507,13 +18507,13 @@
         <v>-0.05624999999997726</v>
       </c>
       <c r="U242">
-        <v>0.9999073230255943</v>
+        <v>-9.267697440573652E-05</v>
       </c>
       <c r="V242">
-        <v>0.9998762797315272</v>
+        <v>-0.0001237202684728489</v>
       </c>
       <c r="W242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -18548,7 +18548,7 @@
         <v>0.5403753025363377</v>
       </c>
       <c r="K243">
-        <v>35.08075607591029</v>
+        <v>-0.1491924392408971</v>
       </c>
       <c r="L243">
         <v>-0.0122517905261943</v>
@@ -18578,13 +18578,13 @@
         <v>-0.07500000000001705</v>
       </c>
       <c r="U243">
-        <v>0.9998300764655904</v>
+        <v>-0.0001699235344095884</v>
       </c>
       <c r="V243">
-        <v>0.9997834627401243</v>
+        <v>-0.0002165372598756932</v>
       </c>
       <c r="W243">
-        <v>0.9986072423398328</v>
+        <v>-0.001392757660167221</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -18619,7 +18619,7 @@
         <v>0.3227837450484967</v>
       </c>
       <c r="K244">
-        <v>24.40185300558427</v>
+        <v>-0.2559814699441573</v>
       </c>
       <c r="L244">
         <v>-0.01439314093709623</v>
@@ -18649,13 +18649,13 @@
         <v>-0.1624999999999659</v>
       </c>
       <c r="U244">
-        <v>0.9996909956121377</v>
+        <v>-0.0003090043878622994</v>
       </c>
       <c r="V244">
-        <v>0.9995668316831683</v>
+        <v>-0.0004331683168317113</v>
       </c>
       <c r="W244">
-        <v>0.9958158995815899</v>
+        <v>-0.004184100418410108</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -18690,7 +18690,7 @@
         <v>0.4640705776436684</v>
       </c>
       <c r="K245">
-        <v>31.69728186127212</v>
+        <v>-0.1830271813872788</v>
       </c>
       <c r="L245">
         <v>-0.01685888981196434</v>
@@ -18720,13 +18720,13 @@
         <v>-0.2312499999999886</v>
       </c>
       <c r="U245">
-        <v>0.9997218100890207</v>
+        <v>-0.0002781899109792763</v>
       </c>
       <c r="V245">
-        <v>0.9997214139788274</v>
+        <v>-0.0002785860211725888</v>
       </c>
       <c r="W245">
-        <v>1.00140056022409</v>
+        <v>0.001400560224089631</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -18761,7 +18761,7 @@
         <v>0.5632192320964111</v>
       </c>
       <c r="K246">
-        <v>36.02944619233514</v>
+        <v>-0.1397055380766485</v>
       </c>
       <c r="L246">
         <v>-0.01896580427101371</v>
@@ -18791,13 +18791,13 @@
         <v>-0.2625000000000171</v>
       </c>
       <c r="U246">
-        <v>0.9997835698605572</v>
+        <v>-0.0002164301394428358</v>
       </c>
       <c r="V246">
-        <v>0.9997522989751371</v>
+        <v>-0.0002477010248629341</v>
       </c>
       <c r="W246">
-        <v>1.000932400932401</v>
+        <v>0.0009324009324009896</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -18832,7 +18832,7 @@
         <v>0.6675862367835235</v>
       </c>
       <c r="K247">
-        <v>40.03308626912023</v>
+        <v>-0.09966913730879773</v>
       </c>
       <c r="L247">
         <v>-0.02031484870072302</v>
@@ -18862,13 +18862,13 @@
         <v>-0.2875000000000227</v>
       </c>
       <c r="U247">
-        <v>0.9998299109351808</v>
+        <v>-0.00017008906481919</v>
       </c>
       <c r="V247">
-        <v>0.9998141782031031</v>
+        <v>-0.0001858217968968567</v>
       </c>
       <c r="W247">
-        <v>1.00093153237075</v>
+        <v>0.0009315323707499434</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18903,7 +18903,7 @@
         <v>0.6328251497468185</v>
       </c>
       <c r="K248">
-        <v>38.75645532805167</v>
+        <v>-0.1124354467194833</v>
       </c>
       <c r="L248">
         <v>-0.02121390669458855</v>
@@ -18933,13 +18933,13 @@
         <v>-0.3187499999999943</v>
       </c>
       <c r="U248">
-        <v>0.9997989514545088</v>
+        <v>-0.0002010485454911892</v>
       </c>
       <c r="V248">
-        <v>0.9997831676114363</v>
+        <v>-0.0002168323885637369</v>
       </c>
       <c r="W248">
-        <v>0.9995346672871103</v>
+        <v>-0.0004653327128897322</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18974,7 +18974,7 @@
         <v>0.5999421273669772</v>
       </c>
       <c r="K249">
-        <v>37.49773926850099</v>
+        <v>-0.12502260731499</v>
       </c>
       <c r="L249">
         <v>-0.02187498444545135</v>
@@ -19004,13 +19004,13 @@
         <v>-0.3562500000000171</v>
       </c>
       <c r="U249">
-        <v>0.9998143794084891</v>
+        <v>-0.0001856205915109488</v>
       </c>
       <c r="V249">
-        <v>0.999721155037799</v>
+        <v>-0.0002788449622009859</v>
       </c>
       <c r="W249">
-        <v>0.9995344506517689</v>
+        <v>-0.0004655493482310646</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -19045,7 +19045,7 @@
         <v>0.5407835329783668</v>
       </c>
       <c r="K250">
-        <v>35.09795642305581</v>
+        <v>-0.149020435769442</v>
       </c>
       <c r="L250">
         <v>-0.02260833294231093</v>
@@ -19075,13 +19075,13 @@
         <v>-0.3999999999999773</v>
       </c>
       <c r="U250">
-        <v>0.9997988736926789</v>
+        <v>-0.0002011263073210534</v>
       </c>
       <c r="V250">
-        <v>0.9996590944308429</v>
+        <v>-0.0003409055691571128</v>
       </c>
       <c r="W250">
-        <v>0.9990684676292502</v>
+        <v>-0.0009315323707498324</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -19116,7 +19116,7 @@
         <v>0.6445805523557022</v>
       </c>
       <c r="K251">
-        <v>39.19422198155043</v>
+        <v>-0.1080577801844956</v>
       </c>
       <c r="L251">
         <v>-0.02291894042295746</v>
@@ -19146,13 +19146,13 @@
         <v>-0.3937500000000114</v>
       </c>
       <c r="U251">
-        <v>0.99979883323275</v>
+        <v>-0.0002011667672500161</v>
       </c>
       <c r="V251">
-        <v>0.99968998015873</v>
+        <v>-0.0003100198412699928</v>
       </c>
       <c r="W251">
-        <v>1.000932400932401</v>
+        <v>0.0009324009324009896</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -19187,7 +19187,7 @@
         <v>0.6111911723755339</v>
       </c>
       <c r="K252">
-        <v>37.93411873492306</v>
+        <v>-0.1206588126507694</v>
       </c>
       <c r="L252">
         <v>-0.02303938112634853</v>
@@ -19217,13 +19217,13 @@
         <v>-0.2750000000000057</v>
       </c>
       <c r="U252">
-        <v>0.9997678377960068</v>
+        <v>-0.0002321622039932469</v>
       </c>
       <c r="V252">
-        <v>0.9996898840166223</v>
+        <v>-0.0003101159833777123</v>
       </c>
       <c r="W252">
-        <v>0.9995342338146251</v>
+        <v>-0.0004657661853748607</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -19258,7 +19258,7 @@
         <v>0.5795882583493882</v>
       </c>
       <c r="K253">
-        <v>36.69236304371095</v>
+        <v>-0.1330763695628905</v>
       </c>
       <c r="L253">
         <v>-0.02312235662802385</v>
@@ -19288,13 +19288,13 @@
         <v>-0.2062500000000114</v>
       </c>
       <c r="U253">
-        <v>0.9997368217354285</v>
+        <v>-0.0002631782645714509</v>
       </c>
       <c r="V253">
-        <v>0.9997518302518924</v>
+        <v>-0.0002481697481075962</v>
       </c>
       <c r="W253">
-        <v>0.9995340167753961</v>
+        <v>-0.0004659832246038942</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -19329,7 +19329,7 @@
         <v>0.7973023013149324</v>
       </c>
       <c r="K254">
-        <v>44.36105716504198</v>
+        <v>-0.05638942834958016</v>
       </c>
       <c r="L254">
         <v>-0.02241703121971766</v>
@@ -19359,13 +19359,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U254">
-        <v>0.9998141782031031</v>
+        <v>-0.0001858217968968567</v>
       </c>
       <c r="V254">
-        <v>0.9998448554052377</v>
+        <v>-0.0001551445947622909</v>
       </c>
       <c r="W254">
-        <v>1.001864801864802</v>
+        <v>0.001864801864801979</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -19400,7 +19400,7 @@
         <v>0.9691818089192972</v>
       </c>
       <c r="K255">
-        <v>49.21748741174854</v>
+        <v>-0.007825125882514661</v>
       </c>
       <c r="L255">
         <v>-0.02068971811990696</v>
@@ -19430,13 +19430,13 @@
         <v>-0.1062499999999886</v>
       </c>
       <c r="U255">
-        <v>0.9998451197224544</v>
+        <v>-0.0001548802775456215</v>
       </c>
       <c r="V255">
-        <v>0.9999379325326629</v>
+        <v>-6.206746733705693E-05</v>
       </c>
       <c r="W255">
-        <v>1.001395998138669</v>
+        <v>0.001395998138669086</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -19471,7 +19471,7 @@
         <v>1.089799007238167</v>
       </c>
       <c r="K256">
-        <v>52.14850822799565</v>
+        <v>0.02148508227995649</v>
       </c>
       <c r="L256">
         <v>-0.01803901212195505</v>
@@ -19501,13 +19501,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U256">
-        <v>0.9999380382923355</v>
+        <v>-6.196170766448184E-05</v>
       </c>
       <c r="V256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W256">
-        <v>1.00092936802974</v>
+        <v>0.0009293680297397522</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -19542,7 +19542,7 @@
         <v>0.9670207600830124</v>
       </c>
       <c r="K257">
-        <v>49.16169568246967</v>
+        <v>-0.008383043175303306</v>
       </c>
       <c r="L257">
         <v>-0.01526989584826942</v>
@@ -19572,13 +19572,13 @@
         <v>0.04375000000001705</v>
       </c>
       <c r="U257">
-        <v>0.9999070516792663</v>
+        <v>-9.294832073369896E-05</v>
       </c>
       <c r="V257">
-        <v>0.9999379286800533</v>
+        <v>-6.207131994673265E-05</v>
       </c>
       <c r="W257">
-        <v>0.9990714948932218</v>
+        <v>-0.0009285051067782213</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -19613,7 +19613,7 @@
         <v>0.9670207600830123</v>
       </c>
       <c r="K258">
-        <v>49.16169568246967</v>
+        <v>-0.008383043175303306</v>
       </c>
       <c r="L258">
         <v>-0.01254967932206068</v>
@@ -19643,13 +19643,13 @@
         <v>0.1437500000000114</v>
       </c>
       <c r="U258">
-        <v>0.9999070430390729</v>
+        <v>-9.295696092714856E-05</v>
       </c>
       <c r="V258">
-        <v>1.000031037586517</v>
+        <v>3.103758651734623E-05</v>
       </c>
       <c r="W258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -19684,7 +19684,7 @@
         <v>0.9670207600830123</v>
       </c>
       <c r="K259">
-        <v>49.16169568246967</v>
+        <v>-0.008383043175303306</v>
       </c>
       <c r="L259">
         <v>-0.009986616371092757</v>
@@ -19714,13 +19714,13 @@
         <v>0.1999999999999886</v>
       </c>
       <c r="U259">
-        <v>0.9999380229315152</v>
+        <v>-6.197706848476425E-05</v>
       </c>
       <c r="V259">
-        <v>1.000310366232154</v>
+        <v>0.0003103662321539691</v>
       </c>
       <c r="W259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -19755,7 +19755,7 @@
         <v>1.098423434690875</v>
       </c>
       <c r="K260">
-        <v>52.3451757415532</v>
+        <v>0.02345175741553196</v>
       </c>
       <c r="L260">
         <v>-0.007307123292879023</v>
@@ -19785,13 +19785,13 @@
         <v>0.2249999999999943</v>
       </c>
       <c r="U260">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V260">
-        <v>1.000279242941359</v>
+        <v>0.0002792429413589481</v>
       </c>
       <c r="W260">
-        <v>1.00092936802974</v>
+        <v>0.0009293680297397522</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -19826,7 +19826,7 @@
         <v>1.098423434690876</v>
       </c>
       <c r="K261">
-        <v>52.3451757415532</v>
+        <v>0.02345175741553196</v>
       </c>
       <c r="L261">
         <v>-0.004701147021904495</v>
@@ -19856,13 +19856,13 @@
         <v>0.28125</v>
       </c>
       <c r="U261">
-        <v>0.9999845047725301</v>
+        <v>-1.549522746990828E-05</v>
       </c>
       <c r="V261">
-        <v>1.000217128322839</v>
+        <v>0.0002171283228387111</v>
       </c>
       <c r="W261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19897,7 +19897,7 @@
         <v>1.171222700401593</v>
       </c>
       <c r="K262">
-        <v>53.94300180193223</v>
+        <v>0.03943001801932233</v>
       </c>
       <c r="L262">
         <v>-0.002119361585568494</v>
@@ -19927,13 +19927,13 @@
         <v>0.3062500000000057</v>
       </c>
       <c r="U262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V262">
-        <v>1.000186069590027</v>
+        <v>0.0001860695900266496</v>
       </c>
       <c r="W262">
-        <v>1.000464252553389</v>
+        <v>0.0004642525533891106</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19968,7 +19968,7 @@
         <v>1.477745924446739</v>
       </c>
       <c r="K263">
-        <v>59.64073676265689</v>
+        <v>0.09640736762656887</v>
       </c>
       <c r="L263">
         <v>0.0009681196275219422</v>
@@ -19998,13 +19998,13 @@
         <v>0.3312500000000114</v>
       </c>
       <c r="U263">
-        <v>1.000061981870303</v>
+        <v>6.198187030292956E-05</v>
       </c>
       <c r="V263">
-        <v>1.000341064120055</v>
+        <v>0.000341064120054746</v>
       </c>
       <c r="W263">
-        <v>1.001856148491879</v>
+        <v>0.001856148491879317</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -20039,7 +20039,7 @@
         <v>1.189819179077146</v>
       </c>
       <c r="K264">
-        <v>54.33412906624421</v>
+        <v>0.04334129066244208</v>
       </c>
       <c r="L264">
         <v>0.00365365845843369</v>
@@ -20069,13 +20069,13 @@
         <v>0.3062500000000057</v>
       </c>
       <c r="U264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V264">
-        <v>1.00027895731953</v>
+        <v>0.0002789573195300932</v>
       </c>
       <c r="W264">
-        <v>0.9986104678091708</v>
+        <v>-0.001389532190829157</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -20110,7 +20110,7 @@
         <v>1.189819179077146</v>
       </c>
       <c r="K265">
-        <v>54.33412906624421</v>
+        <v>0.04334129066244208</v>
       </c>
       <c r="L265">
         <v>0.005911044013672177</v>
@@ -20140,13 +20140,13 @@
         <v>0.3000000000000114</v>
       </c>
       <c r="U265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V265">
-        <v>1.000340852751611</v>
+        <v>0.0003408527516111093</v>
       </c>
       <c r="W265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -20181,7 +20181,7 @@
         <v>1.333746674579511</v>
       </c>
       <c r="K266">
-        <v>57.15044778027685</v>
+        <v>0.07150447780276847</v>
       </c>
       <c r="L266">
         <v>0.008082039563107013</v>
@@ -20211,13 +20211,13 @@
         <v>0.2937499999999602</v>
       </c>
       <c r="U266">
-        <v>1.000015494507197</v>
+        <v>1.549450719728895E-05</v>
       </c>
       <c r="V266">
-        <v>1.0003407366106</v>
+        <v>0.0003407366106003007</v>
       </c>
       <c r="W266">
-        <v>1.000927643784787</v>
+        <v>0.0009276437847867136</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -20252,7 +20252,7 @@
         <v>1.409497988001798</v>
       </c>
       <c r="K267">
-        <v>58.49757895712948</v>
+        <v>0.08497578957129481</v>
       </c>
       <c r="L267">
         <v>0.01020192302349032</v>
@@ -20282,13 +20282,13 @@
         <v>0.3062500000000341</v>
       </c>
       <c r="U267">
-        <v>1.000046482801364</v>
+        <v>4.648280136354543E-05</v>
       </c>
       <c r="V267">
-        <v>1.000402551557565</v>
+        <v>0.0004025515575647454</v>
       </c>
       <c r="W267">
-        <v>1.000463392029657</v>
+        <v>0.0004633920296570615</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -20323,7 +20323,7 @@
         <v>1.30540714019096</v>
       </c>
       <c r="K268">
-        <v>56.62371376549269</v>
+        <v>0.06623713765492689</v>
       </c>
       <c r="L268">
         <v>0.01194902022518568</v>
@@ -20353,13 +20353,13 @@
         <v>0.28125</v>
       </c>
       <c r="U268">
-        <v>1.000077467734688</v>
+        <v>7.746773468841894E-05</v>
       </c>
       <c r="V268">
-        <v>1.000402389575015</v>
+        <v>0.0004023895750147055</v>
       </c>
       <c r="W268">
-        <v>0.999536822603057</v>
+        <v>-0.0004631773969430153</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -20394,7 +20394,7 @@
         <v>1.211248991944798</v>
       </c>
       <c r="K269">
-        <v>54.77668938944329</v>
+        <v>0.04776689389443289</v>
       </c>
       <c r="L269">
         <v>0.01314594978789656</v>
@@ -20424,13 +20424,13 @@
         <v>0.2437500000000057</v>
       </c>
       <c r="U269">
-        <v>1.000046477040342</v>
+        <v>4.647704034210776E-05</v>
       </c>
       <c r="V269">
-        <v>1.000247524752475</v>
+        <v>0.0002475247524751367</v>
       </c>
       <c r="W269">
-        <v>0.9995366079703428</v>
+        <v>-0.0004633920296571725</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -20465,7 +20465,7 @@
         <v>1.287174607185893</v>
       </c>
       <c r="K270">
-        <v>56.27793361913957</v>
+        <v>0.06277933619139564</v>
       </c>
       <c r="L270">
         <v>0.01405451454658196</v>
@@ -20495,13 +20495,13 @@
         <v>0.2249999999999943</v>
       </c>
       <c r="U270">
-        <v>1.000061966507103</v>
+        <v>6.196650710288409E-05</v>
       </c>
       <c r="V270">
-        <v>1.000185597624351</v>
+        <v>0.000185597624350553</v>
       </c>
       <c r="W270">
-        <v>1.000463606861382</v>
+        <v>0.0004636068613816935</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -20536,7 +20536,7 @@
         <v>1.52693970794718</v>
       </c>
       <c r="K271">
-        <v>60.42644005889741</v>
+        <v>0.104264400588974</v>
       </c>
       <c r="L271">
         <v>0.01518669692475293</v>
@@ -20566,13 +20566,13 @@
         <v>0.1937500000000227</v>
       </c>
       <c r="U271">
-        <v>1.000108434668112</v>
+        <v>0.0001084346681123893</v>
       </c>
       <c r="V271">
-        <v>1.000216490381642</v>
+        <v>0.0002164903816415098</v>
       </c>
       <c r="W271">
-        <v>1.001390176088971</v>
+        <v>0.001390176088971184</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -20607,7 +20607,7 @@
         <v>1.695195919007756</v>
       </c>
       <c r="K272">
-        <v>62.89694589741911</v>
+        <v>0.1289694589741911</v>
       </c>
       <c r="L272">
         <v>0.01666482427641651</v>
@@ -20637,13 +20637,13 @@
         <v>0.2249999999999943</v>
       </c>
       <c r="U272">
-        <v>1.00013940088597</v>
+        <v>0.0001394008859703089</v>
       </c>
       <c r="V272">
-        <v>1.000340125537244</v>
+        <v>0.0003401255372439405</v>
       </c>
       <c r="W272">
-        <v>1.000925497454882</v>
+        <v>0.0009254974548820183</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -20678,7 +20678,7 @@
         <v>1.695195919007756</v>
       </c>
       <c r="K273">
-        <v>62.89694589741911</v>
+        <v>0.1289694589741911</v>
       </c>
       <c r="L273">
         <v>0.0181970923330999</v>
@@ -20708,13 +20708,13 @@
         <v>0.2437500000000057</v>
       </c>
       <c r="U273">
-        <v>1.000185841941429</v>
+        <v>0.0001858419414286772</v>
       </c>
       <c r="V273">
-        <v>1.000340009891197</v>
+        <v>0.0003400098911969796</v>
       </c>
       <c r="W273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -20749,7 +20749,7 @@
         <v>1.428816663495355</v>
       </c>
       <c r="K274">
-        <v>58.82768695431785</v>
+        <v>0.08827686954317848</v>
       </c>
       <c r="L274">
         <v>0.0192595227861047</v>
@@ -20779,13 +20779,13 @@
         <v>0.2249999999999943</v>
       </c>
       <c r="U274">
-        <v>1.000294195066813</v>
+        <v>0.0002941950668131632</v>
       </c>
       <c r="V274">
-        <v>1.000278095355807</v>
+        <v>0.0002780953558074728</v>
       </c>
       <c r="W274">
-        <v>0.9990753582986592</v>
+        <v>-0.0009246417013407671</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -20820,7 +20820,7 @@
         <v>1.511520737161639</v>
       </c>
       <c r="K275">
-        <v>60.18348623590756</v>
+        <v>0.1018348623590756</v>
       </c>
       <c r="L275">
         <v>0.02006831043239167</v>
@@ -20850,13 +20850,13 @@
         <v>0.1999999999999886</v>
       </c>
       <c r="U275">
-        <v>1.000263149747686</v>
+        <v>0.0002631497476859312</v>
       </c>
       <c r="V275">
-        <v>1.000247127146917</v>
+        <v>0.0002471271469171032</v>
       </c>
       <c r="W275">
-        <v>1.000462748727441</v>
+        <v>0.0004627487274408981</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20891,7 +20891,7 @@
         <v>1.598577656810384</v>
       </c>
       <c r="K276">
-        <v>61.51740944207736</v>
+        <v>0.1151740944207735</v>
       </c>
       <c r="L276">
         <v>0.02076755951633528</v>
@@ -20921,13 +20921,13 @@
         <v>0.2062499999999829</v>
       </c>
       <c r="U276">
-        <v>1.000247605193519</v>
+        <v>0.0002476051935187407</v>
       </c>
       <c r="V276">
-        <v>1.000277949351452</v>
+        <v>0.0002779493514515341</v>
       </c>
       <c r="W276">
-        <v>1.000462534690102</v>
+        <v>0.0004625346901019345</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20962,7 +20962,7 @@
         <v>1.598577656810384</v>
       </c>
       <c r="K277">
-        <v>61.51740944207736</v>
+        <v>0.1151740944207735</v>
       </c>
       <c r="L277">
         <v>0.02127990939383713</v>
@@ -20992,13 +20992,13 @@
         <v>0.2250000000000227</v>
       </c>
       <c r="U277">
-        <v>1.000216600912818</v>
+        <v>0.0002166009128181656</v>
       </c>
       <c r="V277">
-        <v>1.000246997437402</v>
+        <v>0.0002469974374015305</v>
       </c>
       <c r="W277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -21033,7 +21033,7 @@
         <v>1.457941737988635</v>
       </c>
       <c r="K278">
-        <v>59.31555314983532</v>
+        <v>0.09315553149835321</v>
       </c>
       <c r="L278">
         <v>0.02139964005334383</v>
@@ -21063,13 +21063,13 @@
         <v>0.2312499999999886</v>
       </c>
       <c r="U278">
-        <v>1.000216554007023</v>
+        <v>0.0002165540070226957</v>
       </c>
       <c r="V278">
-        <v>1.000092601166775</v>
+        <v>9.260116677478614E-05</v>
       </c>
       <c r="W278">
-        <v>0.9995376791493296</v>
+        <v>-0.000462320850670439</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -21104,7 +21104,7 @@
         <v>1.334371035021687</v>
       </c>
       <c r="K279">
-        <v>57.16190849709075</v>
+        <v>0.07161908497090752</v>
       </c>
       <c r="L279">
         <v>0.02102693132871196</v>
@@ -21134,13 +21134,13 @@
         <v>0.21875</v>
       </c>
       <c r="U279">
-        <v>1.000216507121538</v>
+        <v>0.0002165071215378678</v>
       </c>
       <c r="V279">
-        <v>1.000154320987654</v>
+        <v>0.0001543209876542218</v>
       </c>
       <c r="W279">
-        <v>0.9995374653098983</v>
+        <v>-0.0004625346901017124</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -21175,7 +21175,7 @@
         <v>1.334371035021687</v>
       </c>
       <c r="K280">
-        <v>57.16190849709075</v>
+        <v>0.07161908497090752</v>
       </c>
       <c r="L280">
         <v>0.02030313883577461</v>
@@ -21205,13 +21205,13 @@
         <v>0.1624999999999943</v>
       </c>
       <c r="U280">
-        <v>1.000247383150115</v>
+        <v>0.000247383150115299</v>
       </c>
       <c r="V280">
-        <v>1.000154297176362</v>
+        <v>0.0001542971763617285</v>
       </c>
       <c r="W280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -21246,7 +21246,7 @@
         <v>1.219814003267022</v>
       </c>
       <c r="K281">
-        <v>54.95118066071097</v>
+        <v>0.04951180660710974</v>
       </c>
       <c r="L281">
         <v>0.0191700543199892</v>
@@ -21276,13 +21276,13 @@
         <v>0.09999999999999432</v>
       </c>
       <c r="U281">
-        <v>1.000200949098048</v>
+        <v>0.0002009490980476869</v>
       </c>
       <c r="V281">
-        <v>1.000061709348966</v>
+        <v>6.170934896632119E-05</v>
       </c>
       <c r="W281">
-        <v>0.999537251272559</v>
+        <v>-0.0004627487274410091</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -21317,7 +21317,7 @@
         <v>1.033093807244908</v>
       </c>
       <c r="K282">
-        <v>50.8138780199659</v>
+        <v>0.008138780199658968</v>
       </c>
       <c r="L282">
         <v>0.01745393659209264</v>
@@ -21347,13 +21347,13 @@
         <v>0.0625</v>
       </c>
       <c r="U282">
-        <v>1.000185454208265</v>
+        <v>0.0001854542082648791</v>
       </c>
       <c r="V282">
-        <v>0.9999691472294213</v>
+        <v>-3.085277057868208E-05</v>
       </c>
       <c r="W282">
-        <v>0.9990740740740741</v>
+        <v>-0.0009259259259258856</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -21388,7 +21388,7 @@
         <v>1.033093807244908</v>
       </c>
       <c r="K283">
-        <v>50.8138780199659</v>
+        <v>0.008138780199658968</v>
       </c>
       <c r="L283">
         <v>0.01543074802537797</v>
@@ -21418,13 +21418,13 @@
         <v>0.01875000000001137</v>
       </c>
       <c r="U283">
-        <v>1.000200871473161</v>
+        <v>0.0002008714731605021</v>
       </c>
       <c r="V283">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -21459,7 +21459,7 @@
         <v>0.9523315161494746</v>
       </c>
       <c r="K284">
-        <v>48.779190842943</v>
+        <v>-0.01220809157057007</v>
       </c>
       <c r="L284">
         <v>0.0131257321955007</v>
@@ -21489,13 +21489,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U284">
-        <v>1.000123588388871</v>
+        <v>0.0001235883888708322</v>
       </c>
       <c r="V284">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W284">
-        <v>0.9995366079703428</v>
+        <v>-0.0004633920296571725</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -21530,7 +21530,7 @@
         <v>1.034621176003219</v>
       </c>
       <c r="K285">
-        <v>50.85080152540307</v>
+        <v>0.008508015254030665</v>
       </c>
       <c r="L285">
         <v>0.01091804029139014</v>
@@ -21560,13 +21560,13 @@
         <v>-0.1187500000000057</v>
       </c>
       <c r="U285">
-        <v>1.000092679837501</v>
+        <v>9.267983750138598E-05</v>
       </c>
       <c r="V285">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W285">
-        <v>1.000463606861382</v>
+        <v>0.0004636068613816935</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -21601,7 +21601,7 @@
         <v>0.8818485143444341</v>
       </c>
       <c r="K286">
-        <v>46.86075991890544</v>
+        <v>-0.03139240081094558</v>
       </c>
       <c r="L286">
         <v>0.008532838491712087</v>
@@ -21631,13 +21631,13 @@
         <v>-0.1812499999999773</v>
       </c>
       <c r="U286">
-        <v>1.000030890416248</v>
+        <v>3.089041624826372E-05</v>
       </c>
       <c r="V286">
-        <v>0.999845731387492</v>
+        <v>-0.0001542686125080017</v>
       </c>
       <c r="W286">
-        <v>0.9990732159406858</v>
+        <v>-0.000926784059314234</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -21672,7 +21672,7 @@
         <v>0.8818485143444341</v>
       </c>
       <c r="K287">
-        <v>46.86075991890544</v>
+        <v>-0.03139240081094558</v>
       </c>
       <c r="L287">
         <v>0.006161141333836013</v>
@@ -21702,13 +21702,13 @@
         <v>-0.2125000000000341</v>
       </c>
       <c r="U287">
-        <v>1.00006177892412</v>
+        <v>6.177892411995956E-05</v>
       </c>
       <c r="V287">
-        <v>0.9997839906190211</v>
+        <v>-0.0002160093809788766</v>
       </c>
       <c r="W287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -21743,7 +21743,7 @@
         <v>0.963654875628985</v>
       </c>
       <c r="K288">
-        <v>49.07455416880796</v>
+        <v>-0.009254458311920344</v>
       </c>
       <c r="L288">
         <v>0.004095063372797043</v>
@@ -21773,13 +21773,13 @@
         <v>-0.2249999999999943</v>
       </c>
       <c r="U288">
-        <v>1.000077218884651</v>
+        <v>7.721888465073157E-05</v>
       </c>
       <c r="V288">
-        <v>0.9998148090990463</v>
+        <v>-0.0001851909009537023</v>
       </c>
       <c r="W288">
-        <v>1.000463821892393</v>
+        <v>0.0004638218923933568</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -21814,7 +21814,7 @@
         <v>0.8220740597642813</v>
       </c>
       <c r="K289">
-        <v>45.11748879574257</v>
+        <v>-0.04882511204257434</v>
       </c>
       <c r="L289">
         <v>0.001993447950410183</v>
@@ -21844,13 +21844,13 @@
         <v>-0.2375000000000114</v>
       </c>
       <c r="U289">
-        <v>1.000046327753413</v>
+        <v>4.632775341284479E-05</v>
       </c>
       <c r="V289">
-        <v>0.999814774797024</v>
+        <v>-0.000185225202976036</v>
       </c>
       <c r="W289">
-        <v>0.9990727862772369</v>
+        <v>-0.0009272137227630539</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21885,7 +21885,7 @@
         <v>0.7630685154045554</v>
       </c>
       <c r="K290">
-        <v>43.28070683228445</v>
+        <v>-0.06719293167715551</v>
       </c>
       <c r="L290">
         <v>-0.000171751015743162</v>
@@ -21915,13 +21915,13 @@
         <v>-0.2437499999999773</v>
       </c>
       <c r="U290">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="V290">
-        <v>0.9997529873097232</v>
+        <v>-0.0002470126902768266</v>
       </c>
       <c r="W290">
-        <v>0.9995359628770302</v>
+        <v>-0.0004640371229698292</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21956,7 +21956,7 @@
         <v>0.7094654619427457</v>
       </c>
       <c r="K291">
-        <v>41.50218168996897</v>
+        <v>-0.0849781831003103</v>
       </c>
       <c r="L291">
         <v>-0.002405635896144288</v>
@@ -21986,13 +21986,13 @@
         <v>-0.25</v>
       </c>
       <c r="U291">
-        <v>0.9999845581309164</v>
+        <v>-1.544186908364331E-05</v>
       </c>
       <c r="V291">
-        <v>0.9996911578492231</v>
+        <v>-0.0003088421507768668</v>
       </c>
       <c r="W291">
-        <v>0.999535747446611</v>
+        <v>-0.0004642525533889996</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -22027,7 +22027,7 @@
         <v>0.6180616730640642</v>
       </c>
       <c r="K292">
-        <v>38.19765855362382</v>
+        <v>-0.1180234144637618</v>
       </c>
       <c r="L292">
         <v>-0.004867550318220766</v>
@@ -22057,13 +22057,13 @@
         <v>-0.25</v>
       </c>
       <c r="U292">
-        <v>0.9999382315698446</v>
+        <v>-6.176843015537337E-05</v>
       </c>
       <c r="V292">
-        <v>0.999629274923538</v>
+        <v>-0.0003707250764619641</v>
       </c>
       <c r="W292">
-        <v>0.9990710636321412</v>
+        <v>-0.0009289363678588458</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -22098,7 +22098,7 @@
         <v>0.6858694239485529</v>
       </c>
       <c r="K293">
-        <v>40.68342507465059</v>
+        <v>-0.09316574925349413</v>
       </c>
       <c r="L293">
         <v>-0.007124531792065135</v>
@@ -22128,13 +22128,13 @@
         <v>-0.2562500000000227</v>
       </c>
       <c r="U293">
-        <v>0.9998918985699726</v>
+        <v>-0.0001081014300273742</v>
       </c>
       <c r="V293">
-        <v>0.9996909478629044</v>
+        <v>-0.0003090521370956445</v>
       </c>
       <c r="W293">
-        <v>1.00046490004649</v>
+        <v>0.0004649000464900244</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -22169,7 +22169,7 @@
         <v>0.6858694239485529</v>
       </c>
       <c r="K294">
-        <v>40.68342507465059</v>
+        <v>-0.09316574925349413</v>
       </c>
       <c r="L294">
         <v>-0.009087839088517945</v>
@@ -22199,13 +22199,13 @@
         <v>-0.2437499999999773</v>
       </c>
       <c r="U294">
-        <v>0.9999382210758799</v>
+        <v>-6.177892412007058E-05</v>
       </c>
       <c r="V294">
-        <v>0.999721767088138</v>
+        <v>-0.0002782329118620197</v>
       </c>
       <c r="W294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -22240,7 +22240,7 @@
         <v>0.6379389987860234</v>
       </c>
       <c r="K295">
-        <v>38.94766528294637</v>
+        <v>-0.1105233471705363</v>
       </c>
       <c r="L295">
         <v>-0.01088400222375378</v>
@@ -22270,13 +22270,13 @@
         <v>-0.2437500000000057</v>
       </c>
       <c r="U295">
-        <v>0.999922771573761</v>
+        <v>-7.722842623902881E-05</v>
       </c>
       <c r="V295">
-        <v>0.9996907662811555</v>
+        <v>-0.0003092337188445038</v>
       </c>
       <c r="W295">
-        <v>0.9995353159851301</v>
+        <v>-0.0004646840148698761</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -22311,7 +22311,7 @@
         <v>0.6379389987860234</v>
       </c>
       <c r="K296">
-        <v>38.94766528294637</v>
+        <v>-0.1105233471705363</v>
       </c>
       <c r="L296">
         <v>-0.01242509354206418</v>
@@ -22341,13 +22341,13 @@
         <v>-0.2562499999999943</v>
       </c>
       <c r="U296">
-        <v>0.9998918718526986</v>
+        <v>-0.0001081281473014339</v>
       </c>
       <c r="V296">
-        <v>0.9997216035634744</v>
+        <v>-0.0002783964365256075</v>
       </c>
       <c r="W296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -22382,7 +22382,7 @@
         <v>0.6379389987860234</v>
       </c>
       <c r="K297">
-        <v>38.94766528294637</v>
+        <v>-0.1105233471705363</v>
       </c>
       <c r="L297">
         <v>-0.01366846179198309</v>
@@ -22412,13 +22412,13 @@
         <v>-0.25</v>
       </c>
       <c r="U297">
-        <v>0.9998764116111289</v>
+        <v>-0.0001235883888710543</v>
       </c>
       <c r="V297">
-        <v>0.9997834091401342</v>
+        <v>-0.0002165908598658062</v>
       </c>
       <c r="W297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data_clean/Aker BP 15.12.2020.xlsx
+++ b/data_clean/Aker BP 15.12.2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="320">
   <si>
     <t>tid</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>open_15_sma</t>
+  </si>
+  <si>
+    <t>open_3_sma</t>
   </si>
   <si>
     <t>sma8-16</t>
@@ -1328,13 +1331,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W297"/>
+  <dimension ref="A1:X297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1404,10 +1407,13 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>216.9</v>
@@ -1464,7 +1470,7 @@
         <v>216.9</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>216.9</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1475,10 +1481,13 @@
       <c r="W2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>216.8</v>
@@ -1535,7 +1544,7 @@
         <v>216.85</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>216.85</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1546,10 +1555,13 @@
       <c r="W3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>215.6</v>
@@ -1606,21 +1618,24 @@
         <v>216.4333333333333</v>
       </c>
       <c r="T4">
+        <v>216.4333333333333</v>
+      </c>
+      <c r="U4">
         <v>0</v>
-      </c>
-      <c r="U4">
-        <v>-0.001921451079855752</v>
       </c>
       <c r="V4">
         <v>-0.001921451079855752</v>
       </c>
       <c r="W4">
+        <v>-0.001921451079855752</v>
+      </c>
+      <c r="X4">
         <v>-0.005535055350553542</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>217</v>
@@ -1677,21 +1692,24 @@
         <v>216.575</v>
       </c>
       <c r="T5">
+        <v>216.4666666666667</v>
+      </c>
+      <c r="U5">
         <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0.0006545510549822442</v>
       </c>
       <c r="V5">
         <v>0.0006545510549822442</v>
       </c>
       <c r="W5">
+        <v>0.0006545510549822442</v>
+      </c>
+      <c r="X5">
         <v>0.006493506493506551</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>216.9</v>
@@ -1748,21 +1766,24 @@
         <v>216.64</v>
       </c>
       <c r="T6">
+        <v>216.5</v>
+      </c>
+      <c r="U6">
         <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0.000300126976797932</v>
       </c>
       <c r="V6">
         <v>0.000300126976797932</v>
       </c>
       <c r="W6">
+        <v>0.000300126976797932</v>
+      </c>
+      <c r="X6">
         <v>-0.0004608294930875667</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>217</v>
@@ -1819,21 +1840,24 @@
         <v>216.7</v>
       </c>
       <c r="T7">
+        <v>216.9666666666667</v>
+      </c>
+      <c r="U7">
         <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0.0002769571639587021</v>
       </c>
       <c r="V7">
         <v>0.0002769571639587021</v>
       </c>
       <c r="W7">
+        <v>0.0002769571639587021</v>
+      </c>
+      <c r="X7">
         <v>0.0004610419548178868</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>217.2</v>
@@ -1890,21 +1914,24 @@
         <v>216.7714285714286</v>
       </c>
       <c r="T8">
+        <v>217.0333333333333</v>
+      </c>
+      <c r="U8">
         <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0.00032961961895972</v>
       </c>
       <c r="V8">
         <v>0.00032961961895972</v>
       </c>
       <c r="W8">
+        <v>0.00032961961895972</v>
+      </c>
+      <c r="X8">
         <v>0.0009216589861751334</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>217.8</v>
@@ -1961,21 +1988,24 @@
         <v>216.9</v>
       </c>
       <c r="T9">
+        <v>217.3333333333333</v>
+      </c>
+      <c r="U9">
         <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0.0005931198102016033</v>
       </c>
       <c r="V9">
         <v>0.0005931198102016033</v>
       </c>
       <c r="W9">
+        <v>0.0005931198102016033</v>
+      </c>
+      <c r="X9">
         <v>0.002762430939226679</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>217.4</v>
@@ -2032,21 +2062,24 @@
         <v>216.9555555555555</v>
       </c>
       <c r="T10">
+        <v>217.4666666666667</v>
+      </c>
+      <c r="U10">
         <v>0.006944444444428655</v>
-      </c>
-      <c r="U10">
-        <v>0.0002561344193432458</v>
       </c>
       <c r="V10">
         <v>0.0002561344193432458</v>
       </c>
       <c r="W10">
+        <v>0.0002561344193432458</v>
+      </c>
+      <c r="X10">
         <v>-0.001836547291092727</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>217.1</v>
@@ -2103,21 +2136,24 @@
         <v>216.97</v>
       </c>
       <c r="T11">
+        <v>217.4333333333333</v>
+      </c>
+      <c r="U11">
         <v>0.03000000000002956</v>
-      </c>
-      <c r="U11">
-        <v>6.657789613839782E-05</v>
       </c>
       <c r="V11">
         <v>6.657789613839782E-05</v>
       </c>
       <c r="W11">
+        <v>6.657789613839782E-05</v>
+      </c>
+      <c r="X11">
         <v>-0.001379944802207933</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>216.5</v>
@@ -2174,21 +2210,24 @@
         <v>216.9272727272727</v>
       </c>
       <c r="T12">
+        <v>217</v>
+      </c>
+      <c r="U12">
         <v>0.1852272727273032</v>
-      </c>
-      <c r="U12">
-        <v>-0.0001969270992637773</v>
       </c>
       <c r="V12">
         <v>-0.0001969270992637773</v>
       </c>
       <c r="W12">
+        <v>-0.0001969270992637773</v>
+      </c>
+      <c r="X12">
         <v>-0.002763703362505754</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>216</v>
@@ -2245,21 +2284,24 @@
         <v>216.85</v>
       </c>
       <c r="T13">
+        <v>216.5333333333333</v>
+      </c>
+      <c r="U13">
         <v>0.1375000000000171</v>
-      </c>
-      <c r="U13">
-        <v>-0.0003562149023551564</v>
       </c>
       <c r="V13">
         <v>-0.0003562149023551564</v>
       </c>
       <c r="W13">
+        <v>-0.0003562149023551564</v>
+      </c>
+      <c r="X13">
         <v>-0.002309468822170868</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>216.7</v>
@@ -2316,21 +2358,24 @@
         <v>216.8384615384616</v>
       </c>
       <c r="T14">
+        <v>216.4</v>
+      </c>
+      <c r="U14">
         <v>0.1240384615384471</v>
-      </c>
-      <c r="U14">
-        <v>-5.32094145189177E-05</v>
       </c>
       <c r="V14">
         <v>-5.32094145189177E-05</v>
       </c>
       <c r="W14">
+        <v>-5.32094145189177E-05</v>
+      </c>
+      <c r="X14">
         <v>0.003240740740740655</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>216.2</v>
@@ -2387,21 +2432,24 @@
         <v>216.7928571428571</v>
       </c>
       <c r="T15">
+        <v>216.3</v>
+      </c>
+      <c r="U15">
         <v>0.06964285714283847</v>
-      </c>
-      <c r="U15">
-        <v>-0.0002103150671741716</v>
       </c>
       <c r="V15">
         <v>-0.0002103150671741716</v>
       </c>
       <c r="W15">
+        <v>-0.0002103150671741716</v>
+      </c>
+      <c r="X15">
         <v>-0.00230733733271804</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>216.2</v>
@@ -2458,21 +2506,24 @@
         <v>216.7533333333334</v>
       </c>
       <c r="T16">
+        <v>216.3666666666666</v>
+      </c>
+      <c r="U16">
         <v>-0.01583333333337578</v>
-      </c>
-      <c r="U16">
-        <v>-0.000182311401052071</v>
       </c>
       <c r="V16">
         <v>-0.000182311401052071</v>
       </c>
       <c r="W16">
+        <v>-0.000182311401052071</v>
+      </c>
+      <c r="X16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>215.6</v>
@@ -2529,21 +2580,24 @@
         <v>216.6666666666667</v>
       </c>
       <c r="T17">
+        <v>216</v>
+      </c>
+      <c r="U17">
         <v>-0.2187500000000284</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-0.000332559283978795</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>-0.0003998400639745325</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>-0.002775208140610497</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>215.5</v>
@@ -2600,21 +2654,24 @@
         <v>216.58</v>
       </c>
       <c r="T18">
+        <v>215.7666666666667</v>
+      </c>
+      <c r="U18">
         <v>-0.3687500000000341</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>-0.0003206797732505651</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>-0.0003999999999998449</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>-0.0004638218923932458</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>215.8</v>
@@ -2671,21 +2728,24 @@
         <v>216.5933333333333</v>
       </c>
       <c r="T19">
+        <v>215.6333333333334</v>
+      </c>
+      <c r="U19">
         <v>-0.46875</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>-0.0002081975523210433</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>6.156308677307543E-05</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0.001392111368909488</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>216.7</v>
@@ -2742,21 +2802,24 @@
         <v>216.5733333333333</v>
       </c>
       <c r="T20">
+        <v>216</v>
+      </c>
+      <c r="U20">
         <v>-0.5125000000000171</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>3.240361948431136E-05</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>-9.233894548921207E-05</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.004170528266913776</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>216.1</v>
@@ -2813,21 +2876,24 @@
         <v>216.52</v>
       </c>
       <c r="T21">
+        <v>216.2</v>
+      </c>
+      <c r="U21">
         <v>-0.4437499999999943</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>-0.0001093586721425677</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>-0.0002462599273532762</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>-0.00276880479926167</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>217</v>
@@ -2884,21 +2950,24 @@
         <v>216.52</v>
       </c>
       <c r="T22">
+        <v>216.6</v>
+      </c>
+      <c r="U22">
         <v>-0.4125000000000227</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>9.895438202978113E-05</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.004164738546968971</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>217.1</v>
@@ -2955,21 +3024,24 @@
         <v>216.5133333333333</v>
       </c>
       <c r="T23">
+        <v>216.7333333333333</v>
+      </c>
+      <c r="U23">
         <v>-0.3062500000000057</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>0.0001109378747901069</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>-3.079007328044003E-05</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0.0004608294930874557</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>217.7</v>
@@ -3026,21 +3098,24 @@
         <v>216.5066666666667</v>
       </c>
       <c r="T24">
+        <v>217.2666666666667</v>
+      </c>
+      <c r="U24">
         <v>-0.1499999999999773</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>0.000221720790566815</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>-3.079102133807243E-05</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>0.002763703362505643</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>218.2</v>
@@ -3097,21 +3172,24 @@
         <v>216.56</v>
       </c>
       <c r="T25">
+        <v>217.6666666666667</v>
+      </c>
+      <c r="U25">
         <v>0.1500000000000057</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>0.0002993631425436405</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>0.0002463357556348189</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>0.00229673863114388</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <v>217.2</v>
@@ -3168,21 +3246,24 @@
         <v>216.5666666666667</v>
       </c>
       <c r="T26">
+        <v>217.7</v>
+      </c>
+      <c r="U26">
         <v>0.3749999999999716</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>9.075177850403904E-05</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>3.078438615933266E-05</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>-0.004582951420714965</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>217.1</v>
@@ -3239,21 +3320,24 @@
         <v>216.6066666666667</v>
       </c>
       <c r="T27">
+        <v>217.5</v>
+      </c>
+      <c r="U27">
         <v>0.5374999999999943</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>6.601681512186097E-05</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>0.0001847006310604637</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>-0.0004604051565377798</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>217.4</v>
@@ -3310,21 +3394,24 @@
         <v>216.7</v>
       </c>
       <c r="T28">
+        <v>217.2333333333333</v>
+      </c>
+      <c r="U28">
         <v>0.5687500000000227</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>0.0001123867998744643</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>0.0004308885537533946</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>0.001381851681252932</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29">
         <v>217.2</v>
@@ -3381,21 +3468,24 @@
         <v>216.7333333333333</v>
       </c>
       <c r="T29">
+        <v>217.2333333333333</v>
+      </c>
+      <c r="U29">
         <v>0.6312499999999659</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>7.139561960411989E-05</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0.0001538224888477657</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-0.0009199632014720294</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30">
         <v>217</v>
@@ -3452,21 +3542,24 @@
         <v>216.7866666666667</v>
       </c>
       <c r="T30">
+        <v>217.2</v>
+      </c>
+      <c r="U30">
         <v>0.6124999999999829</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>3.465375501843226E-05</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.0002460781298063708</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>-0.0009208103130754486</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>217</v>
@@ -3523,21 +3616,24 @@
         <v>216.84</v>
       </c>
       <c r="T31">
+        <v>217.0666666666667</v>
+      </c>
+      <c r="U31">
         <v>0.5499999999999829</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>3.234238389882016E-05</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0.0002460175902576633</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32">
         <v>216.5</v>
@@ -3594,21 +3690,24 @@
         <v>216.9</v>
       </c>
       <c r="T32">
+        <v>216.8333333333333</v>
+      </c>
+      <c r="U32">
         <v>0.3812499999999943</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>-6.15015606020286E-05</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>0.0002767017155507201</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>-0.002304147465437834</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33">
         <v>217.3</v>
@@ -3665,21 +3764,24 @@
         <v>217.02</v>
       </c>
       <c r="T33">
+        <v>216.9333333333333</v>
+      </c>
+      <c r="U33">
         <v>0.1624999999999943</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>7.688167909591925E-05</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>0.0005532503457814641</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>0.003695150115473389</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34">
         <v>217.4</v>
@@ -3736,21 +3838,24 @@
         <v>217.1266666666667</v>
       </c>
       <c r="T34">
+        <v>217.0666666666667</v>
+      </c>
+      <c r="U34">
         <v>0.06875000000002274</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>0.0002767527675275883</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0.0004915061591865832</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>0.0004601932811780785</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <v>217.2</v>
@@ -3807,21 +3912,24 @@
         <v>217.16</v>
       </c>
       <c r="T35">
+        <v>217.3</v>
+      </c>
+      <c r="U35">
         <v>-0.006249999999994316</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>3.074179962481161E-05</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>0.0001535202186127016</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>-0.0009199632014720294</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36">
         <v>217.3</v>
@@ -3878,21 +3986,24 @@
         <v>217.24</v>
       </c>
       <c r="T36">
+        <v>217.3</v>
+      </c>
+      <c r="U36">
         <v>-0.05625000000000568</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>6.148170919151319E-05</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>0.0003683919690551374</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>0.0004604051565377798</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37">
         <v>217.5</v>
@@ -3949,21 +4060,24 @@
         <v>217.2733333333333</v>
       </c>
       <c r="T37">
+        <v>217.3333333333333</v>
+      </c>
+      <c r="U37">
         <v>-0.1062499999999886</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>7.684741177915733E-05</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>0.0001534401276623854</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>0.0009203865623561569</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38">
         <v>217.6</v>
@@ -4020,21 +4134,24 @@
         <v>217.3066666666667</v>
       </c>
       <c r="T38">
+        <v>217.4666666666667</v>
+      </c>
+      <c r="U38">
         <v>-0.06874999999996589</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>6.147320536653567E-05</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>0.0001534165874013116</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>0.0004597701149424704</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39">
         <v>217.4</v>
@@ -4091,21 +4208,24 @@
         <v>217.2866666666667</v>
       </c>
       <c r="T39">
+        <v>217.5</v>
+      </c>
+      <c r="U39">
         <v>-0.03749999999999432</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>-6.146942664386756E-05</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>-9.20358326175208E-05</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>-0.0009191176470587648</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40">
         <v>217.6</v>
@@ -4162,21 +4282,24 @@
         <v>217.2466666666666</v>
       </c>
       <c r="T40">
+        <v>217.5333333333333</v>
+      </c>
+      <c r="U40">
         <v>0.1062500000000171</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>3.073660268304579E-05</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>-0.000184088607983357</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>0.0009199632014718073</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41">
         <v>218.2</v>
@@ -4233,21 +4356,24 @@
         <v>217.3133333333334</v>
       </c>
       <c r="T41">
+        <v>217.7333333333333</v>
+      </c>
+      <c r="U41">
         <v>0.2187499999999716</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>0.0001690461188548209</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>0.0003068708380644658</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>0.002757352941176405</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B42">
         <v>218</v>
@@ -4304,21 +4430,24 @@
         <v>217.3733333333334</v>
       </c>
       <c r="T42">
+        <v>217.9333333333333</v>
+      </c>
+      <c r="U42">
         <v>0.2437499999999773</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>0.0002304784733104803</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>0.0002760990275179065</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>-0.0009165902841429263</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43">
         <v>218.1</v>
@@ -4375,21 +4504,24 @@
         <v>217.42</v>
       </c>
       <c r="T43">
+        <v>218.1</v>
+      </c>
+      <c r="U43">
         <v>0.2937499999999886</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>0.0003225955113139722</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>0.0002146844139114812</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>0.0004587155963302614</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B44">
         <v>218.6</v>
@@ -4446,21 +4578,24 @@
         <v>217.5133333333333</v>
       </c>
       <c r="T44">
+        <v>218.2333333333333</v>
+      </c>
+      <c r="U44">
         <v>0.3812499999999943</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>0.000291778003010057</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>0.0004292766688129834</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>0.002292526364053193</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45">
         <v>218.3</v>
@@ -4517,21 +4652,24 @@
         <v>217.6</v>
       </c>
       <c r="T45">
+        <v>218.3333333333333</v>
+      </c>
+      <c r="U45">
         <v>0.4124999999999943</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>0.0003223974085386772</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>0.0003984430073251666</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>-0.001372369624885517</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46">
         <v>218.5</v>
@@ -4588,21 +4726,24 @@
         <v>217.7</v>
       </c>
       <c r="T46">
+        <v>218.4666666666667</v>
+      </c>
+      <c r="U46">
         <v>0.4312499999999773</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>0.0003529881211823405</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>0.0004595588235294379</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>0.000916170407695871</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47">
         <v>218.7</v>
@@ -4659,21 +4800,24 @@
         <v>217.8466666666667</v>
       </c>
       <c r="T47">
+        <v>218.5</v>
+      </c>
+      <c r="U47">
         <v>0.4875000000000114</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>0.0004755987174178689</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>0.00067370999846883</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>0.0009153318077803618</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48">
         <v>218</v>
@@ -4730,21 +4874,24 @@
         <v>217.8933333333333</v>
       </c>
       <c r="T48">
+        <v>218.4</v>
+      </c>
+      <c r="U48">
         <v>0.4437500000000227</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>0.0003833650248419307</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>0.0002142179514643683</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>-0.00320073159579326</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49">
         <v>218.3</v>
@@ -4801,21 +4948,24 @@
         <v>217.9533333333333</v>
       </c>
       <c r="T49">
+        <v>218.3333333333333</v>
+      </c>
+      <c r="U49">
         <v>0.3937499999999829</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>0.0003832181124208134</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>0.0002753640925223788</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>0.001376146788990784</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50">
         <v>218.5</v>
@@ -4872,21 +5022,24 @@
         <v>218.04</v>
       </c>
       <c r="T50">
+        <v>218.2666666666667</v>
+      </c>
+      <c r="U50">
         <v>0.3874999999999886</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>0.0002758113450400668</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>0.000397638638240716</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>0.000916170407695871</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51">
         <v>218.9</v>
@@ -4943,21 +5096,24 @@
         <v>218.1466666666666</v>
       </c>
       <c r="T51">
+        <v>218.5666666666667</v>
+      </c>
+      <c r="U51">
         <v>0.3812499999999943</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>0.000428921568627505</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>0.000489206873356407</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>0.001830663615560724</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52">
         <v>219</v>
@@ -5014,21 +5170,24 @@
         <v>218.2466666666666</v>
       </c>
       <c r="T52">
+        <v>218.8</v>
+      </c>
+      <c r="U52">
         <v>0.3250000000000171</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>0.0003062411955656597</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>0.0004584071878246387</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>0.0004568296025582175</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53">
         <v>219.3</v>
@@ -5085,21 +5244,24 @@
         <v>218.36</v>
       </c>
       <c r="T53">
+        <v>219.0666666666667</v>
+      </c>
+      <c r="U53">
         <v>0.3375000000000057</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>0.0003367621846681601</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>0.0005192900998871597</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>0.00136986301369868</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54">
         <v>219.1</v>
@@ -5156,21 +5318,24 @@
         <v>218.4733333333333</v>
       </c>
       <c r="T54">
+        <v>219.1333333333334</v>
+      </c>
+      <c r="U54">
         <v>0.3187500000000227</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>0.0002142310635040445</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>0.0005190205776393064</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>-0.0009119927040583953</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55">
         <v>219.2</v>
@@ -5227,21 +5392,24 @@
         <v>218.58</v>
       </c>
       <c r="T55">
+        <v>219.2</v>
+      </c>
+      <c r="U55">
         <v>0.2687499999999829</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>0.000152989413132687</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>0.0004882365506089226</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>0.0004564125969876986</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56">
         <v>219.1</v>
@@ -5298,21 +5466,24 @@
         <v>218.64</v>
       </c>
       <c r="T56">
+        <v>219.1333333333333</v>
+      </c>
+      <c r="U56">
         <v>0.3125</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>0.0002906354208094264</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>0.0002744990392531399</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>-0.0004562043795620641</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57">
         <v>219.3</v>
@@ -5369,21 +5540,24 @@
         <v>218.7266666666666</v>
       </c>
       <c r="T57">
+        <v>219.2</v>
+      </c>
+      <c r="U57">
         <v>0.3687500000000341</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>0.0003364274463628636</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>0.0003963898036345448</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>0.0009128251939753973</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58">
         <v>219.2</v>
@@ -5440,21 +5614,24 @@
         <v>218.8</v>
       </c>
       <c r="T58">
+        <v>219.2</v>
+      </c>
+      <c r="U58">
         <v>0.3812500000000227</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>0.0002751662462738835</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>0.0003352738577830916</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>-0.0004559963520293087</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59">
         <v>219</v>
@@ -5511,21 +5688,24 @@
         <v>218.8266666666667</v>
       </c>
       <c r="T59">
+        <v>219.1666666666667</v>
+      </c>
+      <c r="U59">
         <v>0.3375000000000057</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>0.0002750905506396784</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>0.0001218769043267454</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>-0.0009124087591240171</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60">
         <v>219.4</v>
@@ -5582,21 +5762,24 @@
         <v>218.9</v>
       </c>
       <c r="T60">
+        <v>219.2</v>
+      </c>
+      <c r="U60">
         <v>0.3374999999999773</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>0.0003666865288536325</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>0.0003351206434316634</v>
       </c>
-      <c r="W60">
+      <c r="X60">
         <v>0.001826484018264907</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B61">
         <v>219.5</v>
@@ -5653,21 +5836,24 @@
         <v>218.9666666666667</v>
       </c>
       <c r="T61">
+        <v>219.3</v>
+      </c>
+      <c r="U61">
         <v>0.2874999999999943</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>0.000381825124093238</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>0.000304553068372071</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>0.0004557885141294182</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62">
         <v>219.3</v>
@@ -5724,21 +5910,24 @@
         <v>219.0066666666667</v>
       </c>
       <c r="T62">
+        <v>219.4</v>
+      </c>
+      <c r="U62">
         <v>0.2625000000000171</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>0.0004274809160305093</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>0.0001826762064240928</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>-0.0009111617312071996</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63">
         <v>219.2</v>
@@ -5795,21 +5984,24 @@
         <v>219.0866666666667</v>
       </c>
       <c r="T63">
+        <v>219.3333333333333</v>
+      </c>
+      <c r="U63">
         <v>0.2312499999999886</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>0.0002899523867658793</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>0.0003652856838451957</v>
       </c>
-      <c r="W63">
+      <c r="X63">
         <v>-0.0004559963520293087</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64">
         <v>219.2</v>
@@ -5866,21 +6058,24 @@
         <v>219.1466666666666</v>
       </c>
       <c r="T64">
+        <v>219.2333333333333</v>
+      </c>
+      <c r="U64">
         <v>0.1687499999999886</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>0.0002746121103942567</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>0.0002738642242035016</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65">
         <v>219.3</v>
@@ -5937,21 +6132,24 @@
         <v>219.2</v>
       </c>
       <c r="T65">
+        <v>219.2333333333333</v>
+      </c>
+      <c r="U65">
         <v>0.1062499999999886</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>0.0003202928391670135</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <v>0.0002433682161109285</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <v>0.0004562043795621751</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66">
         <v>219.2</v>
@@ -6008,21 +6206,24 @@
         <v>219.22</v>
       </c>
       <c r="T66">
+        <v>219.2333333333333</v>
+      </c>
+      <c r="U66">
         <v>0.0625</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>0.0002896959717013647</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <v>9.124087591239061E-05</v>
       </c>
-      <c r="W66">
+      <c r="X66">
         <v>-0.0004559963520293087</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67">
         <v>219.3</v>
@@ -6079,21 +6280,24 @@
         <v>219.24</v>
       </c>
       <c r="T67">
+        <v>219.2666666666667</v>
+      </c>
+      <c r="U67">
         <v>0.07499999999996021</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>0.0002743693316056284</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>9.123255177456713E-05</v>
       </c>
-      <c r="W67">
+      <c r="X67">
         <v>0.0004562043795621751</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68">
         <v>219</v>
@@ -6150,21 +6354,24 @@
         <v>219.22</v>
       </c>
       <c r="T68">
+        <v>219.1666666666667</v>
+      </c>
+      <c r="U68">
         <v>0.02499999999997726</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>0.000213339835118953</v>
       </c>
-      <c r="V68">
+      <c r="W68">
         <v>-9.122422915541772E-05</v>
       </c>
-      <c r="W68">
+      <c r="X68">
         <v>-0.001367989056087593</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69">
         <v>219</v>
@@ -6221,21 +6428,24 @@
         <v>219.2133333333333</v>
       </c>
       <c r="T69">
+        <v>219.1</v>
+      </c>
+      <c r="U69">
         <v>-0.01875000000001137</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <v>0.0002437649496471739</v>
       </c>
-      <c r="V69">
+      <c r="W69">
         <v>-3.041085059141135E-05</v>
       </c>
-      <c r="W69">
+      <c r="X69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70">
         <v>218.7</v>
@@ -6292,21 +6502,24 @@
         <v>219.18</v>
       </c>
       <c r="T70">
+        <v>218.9</v>
+      </c>
+      <c r="U70">
         <v>-0.06875000000002274</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <v>0.000167547560659953</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <v>-0.0001520588771973808</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <v>-0.00136986301369868</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71">
         <v>218.3</v>
@@ -6363,21 +6576,24 @@
         <v>219.1266666666667</v>
       </c>
       <c r="T71">
+        <v>218.6666666666667</v>
+      </c>
+      <c r="U71">
         <v>-0.125</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <v>1.522904483430843E-05</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <v>-0.0002433312041851821</v>
       </c>
-      <c r="W71">
+      <c r="X71">
         <v>-0.001828989483310339</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72">
         <v>218.1</v>
@@ -6434,21 +6650,24 @@
         <v>219.0466666666667</v>
       </c>
       <c r="T72">
+        <v>218.3666666666667</v>
+      </c>
+      <c r="U72">
         <v>-0.1999999999999886</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <v>1.522881291404765E-05</v>
       </c>
-      <c r="V72">
+      <c r="W72">
         <v>-0.0003650856430069682</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <v>-0.000916170407695871</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73">
         <v>218.2</v>
@@ -6505,21 +6724,24 @@
         <v>218.98</v>
       </c>
       <c r="T73">
+        <v>218.2</v>
+      </c>
+      <c r="U73">
         <v>-0.2687500000000114</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>1.522858100067026E-05</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <v>-0.0003043491493441852</v>
       </c>
-      <c r="W73">
+      <c r="X73">
         <v>0.0004585052728105499</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74">
         <v>217.8</v>
@@ -6576,21 +6798,24 @@
         <v>218.9</v>
       </c>
       <c r="T74">
+        <v>218.0333333333333</v>
+      </c>
+      <c r="U74">
         <v>-0.3562499999999886</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <v>-0.0001218267927572958</v>
       </c>
-      <c r="V74">
+      <c r="W74">
         <v>-0.0003653301671384668</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <v>-0.001833180568285853</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75">
         <v>218</v>
@@ -6647,21 +6872,24 @@
         <v>218.8066666666667</v>
       </c>
       <c r="T75">
+        <v>218</v>
+      </c>
+      <c r="U75">
         <v>-0.4562499999999829</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>-4.569061362491578E-05</v>
       </c>
-      <c r="V75">
+      <c r="W75">
         <v>-0.0004263742957210104</v>
       </c>
-      <c r="W75">
+      <c r="X75">
         <v>0.0009182736455464191</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76">
         <v>218</v>
@@ -6718,21 +6946,24 @@
         <v>218.7066666666666</v>
       </c>
       <c r="T76">
+        <v>217.9333333333334</v>
+      </c>
+      <c r="U76">
         <v>-0.4937499999999773</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>-7.615450225428866E-05</v>
       </c>
-      <c r="V76">
+      <c r="W76">
         <v>-0.0004570244660432321</v>
       </c>
-      <c r="W76">
+      <c r="X76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B77">
         <v>217.7</v>
@@ -6789,21 +7020,24 @@
         <v>218.6</v>
       </c>
       <c r="T77">
+        <v>217.9</v>
+      </c>
+      <c r="U77">
         <v>-0.5437499999999886</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>-0.0001523206044082848</v>
       </c>
-      <c r="V77">
+      <c r="W77">
         <v>-0.0004877156617690837</v>
       </c>
-      <c r="W77">
+      <c r="X77">
         <v>-0.001376146788990895</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78">
         <v>217.9</v>
@@ -6860,21 +7094,24 @@
         <v>218.5133333333333</v>
       </c>
       <c r="T78">
+        <v>217.8666666666666</v>
+      </c>
+      <c r="U78">
         <v>-0.5562500000000057</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>-1.523438095074603E-05</v>
       </c>
-      <c r="V78">
+      <c r="W78">
         <v>-0.0003964623360781516</v>
       </c>
-      <c r="W78">
+      <c r="X78">
         <v>0.0009186954524575963</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B79">
         <v>217.6</v>
@@ -6931,21 +7168,24 @@
         <v>218.4066666666667</v>
       </c>
       <c r="T79">
+        <v>217.7333333333333</v>
+      </c>
+      <c r="U79">
         <v>-0.5437499999999886</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <v>-0.0001066422912858744</v>
       </c>
-      <c r="V79">
+      <c r="W79">
         <v>-0.0004881471763735767</v>
       </c>
-      <c r="W79">
+      <c r="X79">
         <v>-0.001376778338687545</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B80">
         <v>217.6</v>
@@ -7002,21 +7242,24 @@
         <v>218.2933333333333</v>
       </c>
       <c r="T80">
+        <v>217.7</v>
+      </c>
+      <c r="U80">
         <v>-0.5062499999999943</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <v>-0.0001371261408131819</v>
       </c>
-      <c r="V80">
+      <c r="W80">
         <v>-0.0005189096791917702</v>
       </c>
-      <c r="W80">
+      <c r="X80">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B81">
         <v>217.7</v>
@@ -7073,21 +7316,24 @@
         <v>218.1933333333333</v>
       </c>
       <c r="T81">
+        <v>217.6333333333333</v>
+      </c>
+      <c r="U81">
         <v>-0.4687499999999716</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <v>-0.0001828599292943434</v>
       </c>
-      <c r="V81">
+      <c r="W81">
         <v>-0.0004580991937453982</v>
       </c>
-      <c r="W81">
+      <c r="X81">
         <v>0.0004595588235294379</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B82">
         <v>217.3</v>
@@ -7144,21 +7390,24 @@
         <v>218.06</v>
       </c>
       <c r="T82">
+        <v>217.5333333333333</v>
+      </c>
+      <c r="U82">
         <v>-0.4124999999999943</v>
       </c>
-      <c r="U82">
+      <c r="V82">
         <v>-0.0002590989453147285</v>
       </c>
-      <c r="V82">
+      <c r="W82">
         <v>-0.0006110788597268879</v>
       </c>
-      <c r="W82">
+      <c r="X82">
         <v>-0.001837390904914971</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83">
         <v>217.4</v>
@@ -7215,21 +7464,24 @@
         <v>217.9533333333333</v>
       </c>
       <c r="T83">
+        <v>217.4666666666667</v>
+      </c>
+      <c r="U83">
         <v>-0.3687500000000057</v>
       </c>
-      <c r="U83">
+      <c r="V83">
         <v>-0.0002896562237976186</v>
       </c>
-      <c r="V83">
+      <c r="W83">
         <v>-0.000489162004341237</v>
       </c>
-      <c r="W83">
+      <c r="X83">
         <v>0.0004601932811780785</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84">
         <v>217.4</v>
@@ -7286,21 +7538,24 @@
         <v>217.8466666666667</v>
       </c>
       <c r="T84">
+        <v>217.3666666666667</v>
+      </c>
+      <c r="U84">
         <v>-0.34375</v>
       </c>
-      <c r="U84">
+      <c r="V84">
         <v>-0.0002592411857995636</v>
       </c>
-      <c r="V84">
+      <c r="W84">
         <v>-0.0004894014009114711</v>
       </c>
-      <c r="W84">
+      <c r="X84">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85">
         <v>217.5</v>
@@ -7357,21 +7612,24 @@
         <v>217.7666666666667</v>
       </c>
       <c r="T85">
+        <v>217.4333333333333</v>
+      </c>
+      <c r="U85">
         <v>-0.2749999999999773</v>
       </c>
-      <c r="U85">
+      <c r="V85">
         <v>-0.0002593084092190612</v>
       </c>
-      <c r="V85">
+      <c r="W85">
         <v>-0.0003672307739387426</v>
       </c>
-      <c r="W85">
+      <c r="X85">
         <v>0.0004599816007360147</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86">
         <v>217.7</v>
@@ -7428,21 +7686,24 @@
         <v>217.7266666666666</v>
       </c>
       <c r="T86">
+        <v>217.5333333333333</v>
+      </c>
+      <c r="U86">
         <v>-0.2374999999999829</v>
       </c>
-      <c r="U86">
+      <c r="V86">
         <v>-0.0002136034908913897</v>
       </c>
-      <c r="V86">
+      <c r="W86">
         <v>-0.0001836828409614855</v>
       </c>
-      <c r="W86">
+      <c r="X86">
         <v>0.0009195402298849409</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87">
         <v>218</v>
@@ -7499,21 +7760,24 @@
         <v>217.72</v>
       </c>
       <c r="T87">
+        <v>217.7333333333333</v>
+      </c>
+      <c r="U87">
         <v>-0.1687499999999602</v>
       </c>
-      <c r="U87">
+      <c r="V87">
         <v>-0.0001983884751557419</v>
       </c>
-      <c r="V87">
+      <c r="W87">
         <v>-3.061943109095022E-05</v>
       </c>
-      <c r="W87">
+      <c r="X87">
         <v>0.001378043178686283</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88">
         <v>217.8</v>
@@ -7570,21 +7834,24 @@
         <v>217.6933333333333</v>
       </c>
       <c r="T88">
+        <v>217.8333333333333</v>
+      </c>
+      <c r="U88">
         <v>-0.125</v>
       </c>
-      <c r="U88">
+      <c r="V88">
         <v>-0.0002136915210256829</v>
       </c>
-      <c r="V88">
+      <c r="W88">
         <v>-0.000122481474676861</v>
       </c>
-      <c r="W88">
+      <c r="X88">
         <v>-0.0009174311926605228</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B89">
         <v>218.1</v>
@@ -7641,21 +7908,24 @@
         <v>217.7133333333333</v>
       </c>
       <c r="T89">
+        <v>217.9666666666667</v>
+      </c>
+      <c r="U89">
         <v>-0.06875000000002274</v>
       </c>
-      <c r="U89">
+      <c r="V89">
         <v>-0.0001374024824049025</v>
       </c>
-      <c r="V89">
+      <c r="W89">
         <v>9.187235866958687E-05</v>
       </c>
-      <c r="W89">
+      <c r="X89">
         <v>0.001377410468319518</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B90">
         <v>218.2</v>
@@ -7712,21 +7982,24 @@
         <v>217.7266666666667</v>
       </c>
       <c r="T90">
+        <v>218.0333333333333</v>
+      </c>
+      <c r="U90">
         <v>0.01874999999998295</v>
       </c>
-      <c r="U90">
+      <c r="V90">
         <v>-0.0001832284859218936</v>
       </c>
-      <c r="V90">
+      <c r="W90">
         <v>6.124261260986863E-05</v>
       </c>
-      <c r="W90">
+      <c r="X90">
         <v>0.0004585052728105499</v>
       </c>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91">
         <v>218.1</v>
@@ -7783,21 +8056,24 @@
         <v>217.7333333333333</v>
       </c>
       <c r="T91">
+        <v>218.1333333333333</v>
+      </c>
+      <c r="U91">
         <v>0.1000000000000227</v>
       </c>
-      <c r="U91">
+      <c r="V91">
         <v>-0.0002138057422114148</v>
       </c>
-      <c r="V91">
+      <c r="W91">
         <v>3.06194310908392E-05</v>
       </c>
-      <c r="W91">
+      <c r="X91">
         <v>-0.0004582951420715187</v>
       </c>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92">
         <v>218.1</v>
@@ -7854,21 +8130,24 @@
         <v>217.76</v>
       </c>
       <c r="T92">
+        <v>218.1333333333333</v>
+      </c>
+      <c r="U92">
         <v>0.1812500000000057</v>
       </c>
-      <c r="U92">
+      <c r="V92">
         <v>-0.0001833012556137215</v>
       </c>
-      <c r="V92">
+      <c r="W92">
         <v>0.000122473974280668</v>
       </c>
-      <c r="W92">
+      <c r="X92">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B93">
         <v>218</v>
@@ -7925,21 +8204,24 @@
         <v>217.7666666666667</v>
       </c>
       <c r="T93">
+        <v>218.0666666666667</v>
+      </c>
+      <c r="U93">
         <v>0.2249999999999943</v>
       </c>
-      <c r="U93">
+      <c r="V93">
         <v>-0.0001833348611237628</v>
       </c>
-      <c r="V93">
+      <c r="W93">
         <v>3.061474406074183E-05</v>
       </c>
-      <c r="W93">
+      <c r="X93">
         <v>-0.0004585052728106609</v>
       </c>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94">
         <v>218</v>
@@ -7996,21 +8278,24 @@
         <v>217.7933333333334</v>
       </c>
       <c r="T94">
+        <v>218.0333333333333</v>
+      </c>
+      <c r="U94">
         <v>0.2562499999999943</v>
       </c>
-      <c r="U94">
+      <c r="V94">
         <v>-0.00018336847895839</v>
       </c>
-      <c r="V94">
+      <c r="W94">
         <v>0.000122455227307583</v>
       </c>
-      <c r="W94">
+      <c r="X94">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95">
         <v>218.4</v>
@@ -8067,21 +8352,24 @@
         <v>217.8466666666667</v>
       </c>
       <c r="T95">
+        <v>218.1333333333333</v>
+      </c>
+      <c r="U95">
         <v>0.2562499999999659</v>
       </c>
-      <c r="U95">
+      <c r="V95">
         <v>-0.0001375515818430317</v>
       </c>
-      <c r="V95">
+      <c r="W95">
         <v>0.0002448804677217531</v>
       </c>
-      <c r="W95">
+      <c r="X95">
         <v>0.001834862385321046</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96">
         <v>218.7</v>
@@ -8138,21 +8426,24 @@
         <v>217.9133333333333</v>
       </c>
       <c r="T96">
+        <v>218.3666666666666</v>
+      </c>
+      <c r="U96">
         <v>0.2999999999999829</v>
       </c>
-      <c r="U96">
+      <c r="V96">
         <v>-7.642805826890697E-05</v>
       </c>
-      <c r="V96">
+      <c r="W96">
         <v>0.0003060256449489707</v>
       </c>
-      <c r="W96">
+      <c r="X96">
         <v>0.001373626373626369</v>
       </c>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B97">
         <v>218.8</v>
@@ -8209,21 +8500,24 @@
         <v>218.0133333333333</v>
       </c>
       <c r="T97">
+        <v>218.6333333333333</v>
+      </c>
+      <c r="U97">
         <v>0.3187500000000227</v>
       </c>
-      <c r="U97">
+      <c r="V97">
         <v>-7.643389996314642E-05</v>
       </c>
-      <c r="V97">
+      <c r="W97">
         <v>0.0004588980328572578</v>
       </c>
-      <c r="W97">
+      <c r="X97">
         <v>0.0004572473708277514</v>
       </c>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B98">
         <v>218.7</v>
@@ -8280,21 +8574,24 @@
         <v>218.1</v>
       </c>
       <c r="T98">
+        <v>218.7333333333333</v>
+      </c>
+      <c r="U98">
         <v>0.2937499999999886</v>
       </c>
-      <c r="U98">
+      <c r="V98">
         <v>-4.586384553062484E-05</v>
       </c>
-      <c r="V98">
+      <c r="W98">
         <v>0.0003975292031066502</v>
       </c>
-      <c r="W98">
+      <c r="X98">
         <v>-0.0004570383912250175</v>
       </c>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B99">
         <v>218.7</v>
@@ -8351,21 +8648,24 @@
         <v>218.1866666666667</v>
       </c>
       <c r="T99">
+        <v>218.7333333333333</v>
+      </c>
+      <c r="U99">
         <v>0.2874999999999943</v>
       </c>
-      <c r="U99">
+      <c r="V99">
         <v>-4.586594911937247E-05</v>
       </c>
-      <c r="V99">
+      <c r="W99">
         <v>0.0003973712364360171</v>
       </c>
-      <c r="W99">
+      <c r="X99">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B100">
         <v>218.8</v>
@@ -8422,21 +8722,24 @@
         <v>218.2733333333333</v>
       </c>
       <c r="T100">
+        <v>218.7333333333333</v>
+      </c>
+      <c r="U100">
         <v>0.2874999999999943</v>
       </c>
-      <c r="U100">
+      <c r="V100">
         <v>1.528935096684059E-05</v>
       </c>
-      <c r="V100">
+      <c r="W100">
         <v>0.0003972133952578893</v>
       </c>
-      <c r="W100">
+      <c r="X100">
         <v>0.0004572473708277514</v>
       </c>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B101">
         <v>218.6</v>
@@ -8493,21 +8796,24 @@
         <v>218.3333333333333</v>
       </c>
       <c r="T101">
+        <v>218.7</v>
+      </c>
+      <c r="U101">
         <v>0.2937500000000171</v>
       </c>
-      <c r="U101">
+      <c r="V101">
         <v>4.586735161926647E-05</v>
       </c>
-      <c r="V101">
+      <c r="W101">
         <v>0.000274884701139344</v>
       </c>
-      <c r="W101">
+      <c r="X101">
         <v>-0.0009140767824498131</v>
       </c>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B102">
         <v>218.5</v>
@@ -8564,21 +8870,24 @@
         <v>218.3666666666667</v>
       </c>
       <c r="T102">
+        <v>218.6333333333333</v>
+      </c>
+      <c r="U102">
         <v>0.3062500000000057</v>
       </c>
-      <c r="U102">
+      <c r="V102">
         <v>6.115366386882926E-05</v>
       </c>
-      <c r="V102">
+      <c r="W102">
         <v>0.0001526717557251978</v>
       </c>
-      <c r="W102">
+      <c r="X102">
         <v>-0.0004574565416285425</v>
       </c>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B103">
         <v>218.4</v>
@@ -8635,21 +8944,24 @@
         <v>218.4066666666667</v>
       </c>
       <c r="T103">
+        <v>218.5</v>
+      </c>
+      <c r="U103">
         <v>0.28125</v>
       </c>
-      <c r="U103">
+      <c r="V103">
         <v>3.057496216340994E-05</v>
       </c>
-      <c r="V103">
+      <c r="W103">
         <v>0.0001831781407417576</v>
       </c>
-      <c r="W103">
+      <c r="X103">
         <v>-0.0004576659038901809</v>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B104">
         <v>218.6</v>
@@ -8706,21 +9018,24 @@
         <v>218.44</v>
       </c>
       <c r="T104">
+        <v>218.5</v>
+      </c>
+      <c r="U104">
         <v>0.2187500000000284</v>
       </c>
-      <c r="U104">
+      <c r="V104">
         <v>0.0001222961094551334</v>
       </c>
-      <c r="V104">
+      <c r="W104">
         <v>0.0001526204938799847</v>
       </c>
-      <c r="W104">
+      <c r="X104">
         <v>0.0009157509157509125</v>
       </c>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B105">
         <v>218.1</v>
@@ -8777,21 +9092,24 @@
         <v>218.4333333333333</v>
       </c>
       <c r="T105">
+        <v>218.3666666666666</v>
+      </c>
+      <c r="U105">
         <v>0.1312500000000227</v>
       </c>
-      <c r="U105">
+      <c r="V105">
         <v>1.528514436799355E-05</v>
       </c>
-      <c r="V105">
+      <c r="W105">
         <v>-3.051944088383607E-05</v>
       </c>
-      <c r="W105">
+      <c r="X105">
         <v>-0.002287282708142713</v>
       </c>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B106">
         <v>218.1</v>
@@ -8848,21 +9166,24 @@
         <v>218.4333333333333</v>
       </c>
       <c r="T106">
+        <v>218.2666666666667</v>
+      </c>
+      <c r="U106">
         <v>0.0625</v>
       </c>
-      <c r="U106">
+      <c r="V106">
         <v>1.528491073621296E-05</v>
-      </c>
-      <c r="V106">
-        <v>0</v>
       </c>
       <c r="W106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:23">
+      <c r="X106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B107">
         <v>218</v>
@@ -8919,21 +9240,24 @@
         <v>218.4266666666667</v>
       </c>
       <c r="T107">
+        <v>218.0666666666666</v>
+      </c>
+      <c r="U107">
         <v>-0.01875000000001137</v>
       </c>
-      <c r="U107">
+      <c r="V107">
         <v>4.585403133350319E-05</v>
       </c>
-      <c r="V107">
+      <c r="W107">
         <v>-3.052037234851923E-05</v>
       </c>
-      <c r="W107">
+      <c r="X107">
         <v>-0.0004585052728106609</v>
       </c>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:24">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B108">
         <v>217.9</v>
@@ -8990,21 +9314,24 @@
         <v>218.42</v>
       </c>
       <c r="T108">
+        <v>218</v>
+      </c>
+      <c r="U108">
         <v>-0.1187500000000057</v>
       </c>
-      <c r="U108">
+      <c r="V108">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="V108">
+      <c r="W108">
         <v>-3.052130387004581E-05</v>
       </c>
-      <c r="W108">
+      <c r="X108">
         <v>-0.0004587155963302614</v>
       </c>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B109">
         <v>217.9</v>
@@ -9061,21 +9388,24 @@
         <v>218.4133333333333</v>
       </c>
       <c r="T109">
+        <v>217.9333333333333</v>
+      </c>
+      <c r="U109">
         <v>-0.1999999999999886</v>
       </c>
-      <c r="U109">
+      <c r="V109">
         <v>4.585192883799216E-05</v>
       </c>
-      <c r="V109">
+      <c r="W109">
         <v>-3.052223544863786E-05</v>
       </c>
-      <c r="W109">
+      <c r="X109">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B110">
         <v>218</v>
@@ -9132,21 +9462,24 @@
         <v>218.3866666666667</v>
       </c>
       <c r="T110">
+        <v>217.9333333333333</v>
+      </c>
+      <c r="U110">
         <v>-0.2624999999999886</v>
       </c>
-      <c r="U110">
+      <c r="V110">
         <v>6.113310204636235E-05</v>
       </c>
-      <c r="V110">
+      <c r="W110">
         <v>-0.0001220926683352941</v>
       </c>
-      <c r="W110">
+      <c r="X110">
         <v>0.0004589261128957745</v>
       </c>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B111">
         <v>218</v>
@@ -9203,21 +9536,24 @@
         <v>218.34</v>
       </c>
       <c r="T111">
+        <v>217.9666666666667</v>
+      </c>
+      <c r="U111">
         <v>-0.2874999999999659</v>
       </c>
-      <c r="U111">
+      <c r="V111">
         <v>4.584702376408956E-05</v>
       </c>
-      <c r="V111">
+      <c r="W111">
         <v>-0.0002136882593564149</v>
       </c>
-      <c r="W111">
+      <c r="X111">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B112">
         <v>218</v>
@@ -9274,21 +9610,24 @@
         <v>218.2866666666667</v>
       </c>
       <c r="T112">
+        <v>218</v>
+      </c>
+      <c r="U112">
         <v>-0.3187499999999943</v>
       </c>
-      <c r="U112">
+      <c r="V112">
         <v>0.0001069714844585956</v>
       </c>
-      <c r="V112">
+      <c r="W112">
         <v>-0.0002442673506153348</v>
       </c>
-      <c r="W112">
+      <c r="X112">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:24">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B113">
         <v>218.2</v>
@@ -9345,21 +9684,24 @@
         <v>218.2533333333334</v>
       </c>
       <c r="T113">
+        <v>218.0666666666667</v>
+      </c>
+      <c r="U113">
         <v>-0.2687500000000114</v>
       </c>
-      <c r="U113">
+      <c r="V113">
         <v>0.0001222400488960496</v>
       </c>
-      <c r="V113">
+      <c r="W113">
         <v>-0.0001527043948323925</v>
       </c>
-      <c r="W113">
+      <c r="X113">
         <v>0.0009174311926605228</v>
       </c>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B114">
         <v>218</v>
@@ -9416,21 +9758,24 @@
         <v>218.2066666666667</v>
       </c>
       <c r="T114">
+        <v>218.0666666666667</v>
+      </c>
+      <c r="U114">
         <v>-0.2375000000000114</v>
       </c>
-      <c r="U114">
+      <c r="V114">
         <v>9.166883106948021E-05</v>
       </c>
-      <c r="V114">
+      <c r="W114">
         <v>-0.0002138188038366406</v>
       </c>
-      <c r="W114">
+      <c r="X114">
         <v>-0.0009165902841429263</v>
       </c>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:24">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B115">
         <v>217.9</v>
@@ -9487,21 +9832,24 @@
         <v>218.1466666666666</v>
       </c>
       <c r="T115">
+        <v>218.0333333333333</v>
+      </c>
+      <c r="U115">
         <v>-0.1999999999999886</v>
       </c>
-      <c r="U115">
+      <c r="V115">
         <v>6.110695244343489E-05</v>
       </c>
-      <c r="V115">
+      <c r="W115">
         <v>-0.0002749686841222454</v>
       </c>
-      <c r="W115">
+      <c r="X115">
         <v>-0.0004587155963302614</v>
       </c>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:24">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B116">
         <v>217.8</v>
@@ -9558,21 +9906,24 @@
         <v>218.0933333333333</v>
       </c>
       <c r="T116">
+        <v>217.9</v>
+      </c>
+      <c r="U116">
         <v>-0.1500000000000057</v>
       </c>
-      <c r="U116">
+      <c r="V116">
         <v>1.527580465299216E-05</v>
       </c>
-      <c r="V116">
+      <c r="W116">
         <v>-0.0002444838335063926</v>
       </c>
-      <c r="W116">
+      <c r="X116">
         <v>-0.0004589261128957745</v>
       </c>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:24">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B117">
         <v>217.5</v>
@@ -9629,21 +9980,24 @@
         <v>218.0266666666667</v>
       </c>
       <c r="T117">
+        <v>217.7333333333333</v>
+      </c>
+      <c r="U117">
         <v>-0.1312500000000227</v>
       </c>
-      <c r="U117">
+      <c r="V117">
         <v>-7.637785653180629E-05</v>
       </c>
-      <c r="V117">
+      <c r="W117">
         <v>-0.0003056795255853562</v>
       </c>
-      <c r="W117">
+      <c r="X117">
         <v>-0.001377410468319629</v>
       </c>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:24">
       <c r="A118" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B118">
         <v>217.3</v>
@@ -9700,21 +10054,24 @@
         <v>217.9533333333333</v>
       </c>
       <c r="T118">
+        <v>217.5333333333333</v>
+      </c>
+      <c r="U118">
         <v>-0.1437500000000398</v>
       </c>
-      <c r="U118">
+      <c r="V118">
         <v>-7.638369055429362E-05</v>
       </c>
-      <c r="V118">
+      <c r="W118">
         <v>-0.0003363502935420648</v>
       </c>
-      <c r="W118">
+      <c r="X118">
         <v>-0.0009195402298850519</v>
       </c>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:24">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B119">
         <v>217.4</v>
@@ -9771,21 +10128,24 @@
         <v>217.8733333333334</v>
       </c>
       <c r="T119">
+        <v>217.4</v>
+      </c>
+      <c r="U119">
         <v>-0.1562500000000284</v>
       </c>
-      <c r="U119">
+      <c r="V119">
         <v>-0.0001069453356555838</v>
       </c>
-      <c r="V119">
+      <c r="W119">
         <v>-0.0003670510506835756</v>
       </c>
-      <c r="W119">
+      <c r="X119">
         <v>0.0004601932811780785</v>
       </c>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B120">
         <v>217.4</v>
@@ -9842,21 +10202,24 @@
         <v>217.8266666666667</v>
       </c>
       <c r="T120">
+        <v>217.3666666666667</v>
+      </c>
+      <c r="U120">
         <v>-0.15625</v>
       </c>
-      <c r="U120">
+      <c r="V120">
         <v>-0.0001222363133527304</v>
       </c>
-      <c r="V120">
+      <c r="W120">
         <v>-0.0002141917321993869</v>
       </c>
-      <c r="W120">
+      <c r="X120">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:24">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B121">
         <v>217.3</v>
@@ -9913,21 +10276,24 @@
         <v>217.7733333333333</v>
       </c>
       <c r="T121">
+        <v>217.3666666666667</v>
+      </c>
+      <c r="U121">
         <v>-0.2187499999999716</v>
       </c>
-      <c r="U121">
+      <c r="V121">
         <v>-0.0001222512568958001</v>
       </c>
-      <c r="V121">
+      <c r="W121">
         <v>-0.0002448429944297281</v>
       </c>
-      <c r="W121">
+      <c r="X121">
         <v>-0.0004599816007359037</v>
       </c>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:24">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B122">
         <v>217</v>
@@ -9984,21 +10350,24 @@
         <v>217.7066666666666</v>
       </c>
       <c r="T122">
+        <v>217.2333333333333</v>
+      </c>
+      <c r="U122">
         <v>-0.2749999999999773</v>
       </c>
-      <c r="U122">
+      <c r="V122">
         <v>-0.0001681160306278295</v>
       </c>
-      <c r="V122">
+      <c r="W122">
         <v>-0.0003061286965041488</v>
       </c>
-      <c r="W122">
+      <c r="X122">
         <v>-0.001380579843534346</v>
       </c>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B123">
         <v>217.1</v>
@@ -10055,21 +10424,24 @@
         <v>217.6533333333333</v>
       </c>
       <c r="T123">
+        <v>217.1333333333333</v>
+      </c>
+      <c r="U123">
         <v>-0.3187499999999943</v>
       </c>
-      <c r="U123">
+      <c r="V123">
         <v>-0.0001375726077650352</v>
       </c>
-      <c r="V123">
+      <c r="W123">
         <v>-0.0002449779519843043</v>
       </c>
-      <c r="W123">
+      <c r="X123">
         <v>0.0004608294930874557</v>
       </c>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B124">
         <v>217.2</v>
@@ -10126,21 +10498,24 @@
         <v>217.6066666666667</v>
       </c>
       <c r="T124">
+        <v>217.1</v>
+      </c>
+      <c r="U124">
         <v>-0.3500000000000227</v>
       </c>
-      <c r="U124">
+      <c r="V124">
         <v>-0.0001223035880815182</v>
       </c>
-      <c r="V124">
+      <c r="W124">
         <v>-0.0002144082332760089</v>
       </c>
-      <c r="W124">
+      <c r="X124">
         <v>0.0004606172270842368</v>
       </c>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:24">
       <c r="A125" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B125">
         <v>217.1</v>
@@ -10197,21 +10572,24 @@
         <v>217.5466666666667</v>
       </c>
       <c r="T125">
+        <v>217.1333333333333</v>
+      </c>
+      <c r="U125">
         <v>-0.3499999999999943</v>
       </c>
-      <c r="U125">
+      <c r="V125">
         <v>-0.0001987676406282057</v>
       </c>
-      <c r="V125">
+      <c r="W125">
         <v>-0.0002757268466039298</v>
       </c>
-      <c r="W125">
+      <c r="X125">
         <v>-0.0004604051565377798</v>
       </c>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:24">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B126">
         <v>217.1</v>
@@ -10268,21 +10646,24 @@
         <v>217.4866666666667</v>
       </c>
       <c r="T126">
+        <v>217.1333333333333</v>
+      </c>
+      <c r="U126">
         <v>-0.3187500000000227</v>
       </c>
-      <c r="U126">
+      <c r="V126">
         <v>-0.0002446857317632833</v>
       </c>
-      <c r="V126">
+      <c r="W126">
         <v>-0.000275802892865884</v>
       </c>
-      <c r="W126">
+      <c r="X126">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B127">
         <v>217.1</v>
@@ -10339,21 +10720,24 @@
         <v>217.4266666666667</v>
       </c>
       <c r="T127">
+        <v>217.1</v>
+      </c>
+      <c r="U127">
         <v>-0.3000000000000114</v>
       </c>
-      <c r="U127">
+      <c r="V127">
         <v>-0.0002600422186190832</v>
       </c>
-      <c r="V127">
+      <c r="W127">
         <v>-0.0002758789810869411</v>
       </c>
-      <c r="W127">
+      <c r="X127">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:24">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B128">
         <v>216.8</v>
@@ -10410,21 +10794,24 @@
         <v>217.3333333333333</v>
       </c>
       <c r="T128">
+        <v>217</v>
+      </c>
+      <c r="U128">
         <v>-0.3000000000000398</v>
       </c>
-      <c r="U128">
+      <c r="V128">
         <v>-0.0002907110179474204</v>
       </c>
-      <c r="V128">
+      <c r="W128">
         <v>-0.0004292635064696571</v>
       </c>
-      <c r="W128">
+      <c r="X128">
         <v>-0.001381851681252821</v>
       </c>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:24">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B129">
         <v>216.7</v>
@@ -10481,21 +10868,24 @@
         <v>217.2466666666666</v>
       </c>
       <c r="T129">
+        <v>216.8666666666666</v>
+      </c>
+      <c r="U129">
         <v>-0.28125</v>
       </c>
-      <c r="U129">
+      <c r="V129">
         <v>-0.0003061005846521914</v>
       </c>
-      <c r="V129">
+      <c r="W129">
         <v>-0.0003987730061351114</v>
       </c>
-      <c r="W129">
+      <c r="X129">
         <v>-0.0004612546125462025</v>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:24">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B130">
         <v>216.8</v>
@@ -10552,21 +10942,24 @@
         <v>217.1733333333333</v>
       </c>
       <c r="T130">
+        <v>216.7666666666667</v>
+      </c>
+      <c r="U130">
         <v>-0.2312499999999886</v>
       </c>
-      <c r="U130">
+      <c r="V130">
         <v>-0.0003061943109097243</v>
       </c>
-      <c r="V130">
+      <c r="W130">
         <v>-0.0003375579218705127</v>
       </c>
-      <c r="W130">
+      <c r="X130">
         <v>0.0004614674665437413</v>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:24">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B131">
         <v>217.1</v>
@@ -10623,21 +11016,24 @@
         <v>217.1266666666667</v>
       </c>
       <c r="T131">
+        <v>216.8666666666667</v>
+      </c>
+      <c r="U131">
         <v>-0.1812500000000057</v>
       </c>
-      <c r="U131">
+      <c r="V131">
         <v>-0.0002297160709363588</v>
       </c>
-      <c r="V131">
+      <c r="W131">
         <v>-0.0002148821218075359</v>
       </c>
-      <c r="W131">
+      <c r="X131">
         <v>0.001383763837638385</v>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:24">
       <c r="A132" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B132">
         <v>217</v>
@@ -10694,21 +11090,24 @@
         <v>217.0933333333333</v>
       </c>
       <c r="T132">
+        <v>216.9666666666667</v>
+      </c>
+      <c r="U132">
         <v>-0.15625</v>
       </c>
-      <c r="U132">
+      <c r="V132">
         <v>-0.000229768852534451</v>
       </c>
-      <c r="V132">
+      <c r="W132">
         <v>-0.0001535202186128126</v>
       </c>
-      <c r="W132">
+      <c r="X132">
         <v>-0.0004606172270842368</v>
       </c>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:24">
       <c r="A133" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B133">
         <v>216.9</v>
@@ -10765,21 +11164,24 @@
         <v>217.0666666666667</v>
       </c>
       <c r="T133">
+        <v>217</v>
+      </c>
+      <c r="U133">
         <v>-0.1437500000000114</v>
       </c>
-      <c r="U133">
+      <c r="V133">
         <v>-0.0002298216583929147</v>
       </c>
-      <c r="V133">
+      <c r="W133">
         <v>-0.0001228350325512828</v>
       </c>
-      <c r="W133">
+      <c r="X133">
         <v>-0.0004608294930875667</v>
       </c>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:24">
       <c r="A134" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B134">
         <v>217.1</v>
@@ -10836,21 +11238,24 @@
         <v>217.0466666666667</v>
       </c>
       <c r="T134">
+        <v>217</v>
+      </c>
+      <c r="U134">
         <v>-0.1312499999999943</v>
       </c>
-      <c r="U134">
+      <c r="V134">
         <v>-0.0002298744885294024</v>
       </c>
-      <c r="V134">
+      <c r="W134">
         <v>-9.213759213766437E-05</v>
       </c>
-      <c r="W134">
+      <c r="X134">
         <v>0.0009220839096357736</v>
       </c>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:24">
       <c r="A135" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B135">
         <v>217.1</v>
@@ -10907,21 +11312,24 @@
         <v>217.0266666666667</v>
       </c>
       <c r="T135">
+        <v>217.0333333333333</v>
+      </c>
+      <c r="U135">
         <v>-0.1124999999999829</v>
       </c>
-      <c r="U135">
+      <c r="V135">
         <v>-0.0001532848953063048</v>
       </c>
-      <c r="V135">
+      <c r="W135">
         <v>-9.214608225560639E-05</v>
       </c>
-      <c r="W135">
+      <c r="X135">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:24">
       <c r="A136" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B136">
         <v>217.1</v>
@@ -10978,21 +11386,24 @@
         <v>217.0133333333333</v>
       </c>
       <c r="T136">
+        <v>217.1</v>
+      </c>
+      <c r="U136">
         <v>-0.05625000000000568</v>
       </c>
-      <c r="U136">
+      <c r="V136">
         <v>-0.000153308395167695</v>
       </c>
-      <c r="V136">
+      <c r="W136">
         <v>-6.143638262590123E-05</v>
       </c>
-      <c r="W136">
+      <c r="X136">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:24">
       <c r="A137" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B137">
         <v>217</v>
@@ -11049,21 +11460,24 @@
         <v>217.0133333333333</v>
       </c>
       <c r="T137">
+        <v>217.0666666666666</v>
+      </c>
+      <c r="U137">
         <v>2.842170943040401E-14</v>
       </c>
-      <c r="U137">
+      <c r="V137">
         <v>-0.0001533319022355428</v>
       </c>
-      <c r="V137">
+      <c r="W137">
         <v>0</v>
       </c>
-      <c r="W137">
+      <c r="X137">
         <v>-0.0004606172270842368</v>
       </c>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:24">
       <c r="A138" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B138">
         <v>216.8</v>
@@ -11120,21 +11534,24 @@
         <v>216.9933333333333</v>
       </c>
       <c r="T138">
+        <v>216.9666666666667</v>
+      </c>
+      <c r="U138">
         <v>0.01250000000001705</v>
       </c>
-      <c r="U138">
+      <c r="V138">
         <v>-0.0001686909581647411</v>
       </c>
-      <c r="V138">
+      <c r="W138">
         <v>-9.216023593017209E-05</v>
       </c>
-      <c r="W138">
+      <c r="X138">
         <v>-0.0009216589861750224</v>
       </c>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:24">
       <c r="A139" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B139">
         <v>216.7</v>
@@ -11191,21 +11608,24 @@
         <v>216.96</v>
       </c>
       <c r="T139">
+        <v>216.8333333333333</v>
+      </c>
+      <c r="U139">
         <v>-0.01249999999998863</v>
       </c>
-      <c r="U139">
+      <c r="V139">
         <v>-0.0001840575486601326</v>
       </c>
-      <c r="V139">
+      <c r="W139">
         <v>-0.000153614550370329</v>
       </c>
-      <c r="W139">
+      <c r="X139">
         <v>-0.0004612546125462025</v>
       </c>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:24">
       <c r="A140" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B140">
         <v>216.7</v>
@@ -11262,21 +11682,24 @@
         <v>216.9333333333333</v>
       </c>
       <c r="T140">
+        <v>216.7333333333333</v>
+      </c>
+      <c r="U140">
         <v>-0.01875000000001137</v>
       </c>
-      <c r="U140">
+      <c r="V140">
         <v>-0.0001994323847511748</v>
       </c>
-      <c r="V140">
+      <c r="W140">
         <v>-0.0001229105211405512</v>
       </c>
-      <c r="W140">
+      <c r="X140">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:24">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B141">
         <v>216.8</v>
@@ -11333,21 +11756,24 @@
         <v>216.9133333333333</v>
       </c>
       <c r="T141">
+        <v>216.7333333333333</v>
+      </c>
+      <c r="U141">
         <v>-0.01249999999996021</v>
       </c>
-      <c r="U141">
+      <c r="V141">
         <v>-0.0001841281531945738</v>
       </c>
-      <c r="V141">
+      <c r="W141">
         <v>-9.219422249540088E-05</v>
       </c>
-      <c r="W141">
+      <c r="X141">
         <v>0.0004614674665437413</v>
       </c>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:24">
       <c r="A142" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B142">
         <v>217</v>
@@ -11404,21 +11830,24 @@
         <v>216.9066666666667</v>
       </c>
       <c r="T142">
+        <v>216.8333333333333</v>
+      </c>
+      <c r="U142">
         <v>-0.01874999999998295</v>
       </c>
-      <c r="U142">
+      <c r="V142">
         <v>-0.0001534683855125563</v>
       </c>
-      <c r="V142">
+      <c r="W142">
         <v>-3.073424101784905E-05</v>
       </c>
-      <c r="W142">
+      <c r="X142">
         <v>0.0009225092250921829</v>
       </c>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:24">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B143">
         <v>216.7</v>
@@ -11475,21 +11904,24 @@
         <v>216.9</v>
       </c>
       <c r="T143">
+        <v>216.8333333333333</v>
+      </c>
+      <c r="U143">
         <v>-0.04375000000001705</v>
       </c>
-      <c r="U143">
+      <c r="V143">
         <v>-0.0002302379125095344</v>
       </c>
-      <c r="V143">
+      <c r="W143">
         <v>-3.073518564045141E-05</v>
       </c>
-      <c r="W143">
+      <c r="X143">
         <v>-0.0013824884792627</v>
       </c>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:24">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B144">
         <v>216.7</v>
@@ -11546,21 +11978,24 @@
         <v>216.9</v>
       </c>
       <c r="T144">
+        <v>216.8</v>
+      </c>
+      <c r="U144">
         <v>-0.08750000000000568</v>
       </c>
-      <c r="U144">
+      <c r="V144">
         <v>-0.0001995854763184868</v>
-      </c>
-      <c r="V144">
-        <v>0</v>
       </c>
       <c r="W144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:23">
+      <c r="X144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24">
       <c r="A145" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B145">
         <v>216.6</v>
@@ -11617,21 +12052,24 @@
         <v>216.8866666666667</v>
       </c>
       <c r="T145">
+        <v>216.6666666666667</v>
+      </c>
+      <c r="U145">
         <v>-0.1312499999999943</v>
       </c>
-      <c r="U145">
+      <c r="V145">
         <v>-0.0001996253186324903</v>
       </c>
-      <c r="V145">
+      <c r="W145">
         <v>-6.147226064245892E-05</v>
       </c>
-      <c r="W145">
+      <c r="X145">
         <v>-0.0004614674665436302</v>
       </c>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:24">
       <c r="A146" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B146">
         <v>216.4</v>
@@ -11688,21 +12126,24 @@
         <v>216.84</v>
       </c>
       <c r="T146">
+        <v>216.5666666666667</v>
+      </c>
+      <c r="U146">
         <v>-0.15625</v>
       </c>
-      <c r="U146">
+      <c r="V146">
         <v>-0.0002150240366157741</v>
       </c>
-      <c r="V146">
+      <c r="W146">
         <v>-0.0002151661389973025</v>
       </c>
-      <c r="W146">
+      <c r="X146">
         <v>-0.0009233610341643494</v>
       </c>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:24">
       <c r="A147" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B147">
         <v>216.4</v>
@@ -11759,21 +12200,24 @@
         <v>216.8</v>
       </c>
       <c r="T147">
+        <v>216.4666666666667</v>
+      </c>
+      <c r="U147">
         <v>-0.1500000000000057</v>
       </c>
-      <c r="U147">
+      <c r="V147">
         <v>-0.0001689837929179649</v>
       </c>
-      <c r="V147">
+      <c r="W147">
         <v>-0.0001844678103670727</v>
       </c>
-      <c r="W147">
+      <c r="X147">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:24">
       <c r="A148" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B148">
         <v>216.5</v>
@@ -11830,21 +12274,24 @@
         <v>216.7733333333333</v>
       </c>
       <c r="T148">
+        <v>216.4333333333333</v>
+      </c>
+      <c r="U148">
         <v>-0.1437499999999829</v>
       </c>
-      <c r="U148">
+      <c r="V148">
         <v>-0.0001229180751030068</v>
       </c>
-      <c r="V148">
+      <c r="W148">
         <v>-0.0001230012300122985</v>
       </c>
-      <c r="W148">
+      <c r="X148">
         <v>0.0004621072088724087</v>
       </c>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:24">
       <c r="A149" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B149">
         <v>216.3</v>
@@ -11901,21 +12348,24 @@
         <v>216.72</v>
       </c>
       <c r="T149">
+        <v>216.4</v>
+      </c>
+      <c r="U149">
         <v>-0.1687499999999886</v>
       </c>
-      <c r="U149">
+      <c r="V149">
         <v>-0.0001690331304935455</v>
       </c>
-      <c r="V149">
+      <c r="W149">
         <v>-0.0002460327223521297</v>
       </c>
-      <c r="W149">
+      <c r="X149">
         <v>-0.0009237875288683473</v>
       </c>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:24">
       <c r="A150" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B150">
         <v>216.3</v>
@@ -11972,21 +12422,24 @@
         <v>216.6666666666667</v>
       </c>
       <c r="T150">
+        <v>216.3666666666667</v>
+      </c>
+      <c r="U150">
         <v>-0.2062500000000114</v>
       </c>
-      <c r="U150">
+      <c r="V150">
         <v>-0.0001690617075231771</v>
       </c>
-      <c r="V150">
+      <c r="W150">
         <v>-0.0002460932693491014</v>
       </c>
-      <c r="W150">
+      <c r="X150">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:24">
       <c r="A151" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B151">
         <v>216.2</v>
@@ -12043,21 +12496,24 @@
         <v>216.6066666666667</v>
       </c>
       <c r="T151">
+        <v>216.2666666666667</v>
+      </c>
+      <c r="U151">
         <v>-0.2124999999999773</v>
       </c>
-      <c r="U151">
+      <c r="V151">
         <v>-0.000169090294217078</v>
       </c>
-      <c r="V151">
+      <c r="W151">
         <v>-0.0002769230769229525</v>
       </c>
-      <c r="W151">
+      <c r="X151">
         <v>-0.000462320850670439</v>
       </c>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:24">
       <c r="A152" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B152">
         <v>216.2</v>
@@ -12114,21 +12570,24 @@
         <v>216.5533333333333</v>
       </c>
       <c r="T152">
+        <v>216.2333333333333</v>
+      </c>
+      <c r="U152">
         <v>-0.21875</v>
       </c>
-      <c r="U152">
+      <c r="V152">
         <v>-0.0001229955567856322</v>
       </c>
-      <c r="V152">
+      <c r="W152">
         <v>-0.0002462220307162255</v>
       </c>
-      <c r="W152">
+      <c r="X152">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:24">
       <c r="A153" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B153">
         <v>216.2</v>
@@ -12185,21 +12644,24 @@
         <v>216.5133333333333</v>
       </c>
       <c r="T153">
+        <v>216.2</v>
+      </c>
+      <c r="U153">
         <v>-0.21875</v>
       </c>
-      <c r="U153">
+      <c r="V153">
         <v>-0.0001383870223723438</v>
       </c>
-      <c r="V153">
+      <c r="W153">
         <v>-0.0001847120032018035</v>
       </c>
-      <c r="W153">
+      <c r="X153">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:24">
       <c r="A154" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B154">
         <v>216.1</v>
@@ -12256,21 +12718,24 @@
         <v>216.4733333333333</v>
       </c>
       <c r="T154">
+        <v>216.1666666666667</v>
+      </c>
+      <c r="U154">
         <v>-0.2124999999999773</v>
       </c>
-      <c r="U154">
+      <c r="V154">
         <v>-0.0001691631039892894</v>
       </c>
-      <c r="V154">
+      <c r="W154">
         <v>-0.0001847461280289897</v>
       </c>
-      <c r="W154">
+      <c r="X154">
         <v>-0.0004625346901017124</v>
       </c>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:24">
       <c r="A155" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B155">
         <v>216.1</v>
@@ -12327,21 +12792,24 @@
         <v>216.4333333333333</v>
       </c>
       <c r="T155">
+        <v>216.1333333333333</v>
+      </c>
+      <c r="U155">
         <v>-0.2125000000000341</v>
       </c>
-      <c r="U155">
+      <c r="V155">
         <v>-0.0001538106590787125</v>
       </c>
-      <c r="V155">
+      <c r="W155">
         <v>-0.0001847802654676434</v>
       </c>
-      <c r="W155">
+      <c r="X155">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:24">
       <c r="A156" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B156">
         <v>216.1</v>
@@ -12398,21 +12866,24 @@
         <v>216.3866666666667</v>
       </c>
       <c r="T156">
+        <v>216.1</v>
+      </c>
+      <c r="U156">
         <v>-0.2249999999999943</v>
       </c>
-      <c r="U156">
+      <c r="V156">
         <v>-0.0001538343204369186</v>
       </c>
-      <c r="V156">
+      <c r="W156">
         <v>-0.0002156168181117746</v>
       </c>
-      <c r="W156">
+      <c r="X156">
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:24">
       <c r="A157" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B157">
         <v>216.2</v>
@@ -12469,21 +12940,24 @@
         <v>216.3333333333333</v>
       </c>
       <c r="T157">
+        <v>216.1333333333333</v>
+      </c>
+      <c r="U157">
         <v>-0.2000000000000171</v>
       </c>
-      <c r="U157">
+      <c r="V157">
         <v>-0.0001384721901684927</v>
       </c>
-      <c r="V157">
+      <c r="W157">
         <v>-0.0002464723642862099</v>
       </c>
-      <c r="W157">
+      <c r="X157">
         <v>0.0004627487274408981</v>
       </c>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:24">
       <c r="A158" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B158">
         <v>216.2</v>
@@ -12540,21 +13014,24 @@
         <v>216.3</v>
       </c>
       <c r="T158">
+        <v>216.1666666666667</v>
+      </c>
+      <c r="U158">
         <v>-0.1625000000000227</v>
       </c>
-      <c r="U158">
+      <c r="V158">
         <v>-9.232757824761961E-05</v>
       </c>
-      <c r="V158">
+      <c r="W158">
         <v>-0.0001540832049305996</v>
       </c>
-      <c r="W158">
+      <c r="X158">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:24">
       <c r="A159" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B159">
         <v>215.6</v>
@@ -12611,21 +13088,24 @@
         <v>216.2266666666667</v>
       </c>
       <c r="T159">
+        <v>216</v>
+      </c>
+      <c r="U159">
         <v>-0.1687500000000171</v>
       </c>
-      <c r="U159">
+      <c r="V159">
         <v>-0.0001692828562634974</v>
       </c>
-      <c r="V159">
+      <c r="W159">
         <v>-0.0003390352904917293</v>
       </c>
-      <c r="W159">
+      <c r="X159">
         <v>-0.002775208140610497</v>
       </c>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:24">
       <c r="A160" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B160">
         <v>215.7</v>
@@ -12682,21 +13162,24 @@
         <v>216.1666666666667</v>
       </c>
       <c r="T160">
+        <v>215.8333333333333</v>
+      </c>
+      <c r="U160">
         <v>-0.1687500000000171</v>
       </c>
-      <c r="U160">
+      <c r="V160">
         <v>-0.000169311517800752</v>
       </c>
-      <c r="V160">
+      <c r="W160">
         <v>-0.0002774865881483013</v>
       </c>
-      <c r="W160">
+      <c r="X160">
         <v>0.0004638218923933568</v>
       </c>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:24">
       <c r="A161" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B161">
         <v>215.7</v>
@@ -12753,21 +13236,24 @@
         <v>216.12</v>
       </c>
       <c r="T161">
+        <v>215.6666666666667</v>
+      </c>
+      <c r="U161">
         <v>-0.1749999999999829</v>
       </c>
-      <c r="U161">
+      <c r="V161">
         <v>-0.0002155238769665502</v>
       </c>
-      <c r="V161">
+      <c r="W161">
         <v>-0.0002158828064764418</v>
       </c>
-      <c r="W161">
+      <c r="X161">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:24">
       <c r="A162" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B162">
         <v>215.6</v>
@@ -12824,21 +13310,24 @@
         <v>216.0666666666667</v>
       </c>
       <c r="T162">
+        <v>215.6666666666667</v>
+      </c>
+      <c r="U162">
         <v>-0.1875000000000284</v>
       </c>
-      <c r="U162">
+      <c r="V162">
         <v>-0.00021557033752162</v>
       </c>
-      <c r="V162">
+      <c r="W162">
         <v>-0.000246776482201283</v>
       </c>
-      <c r="W162">
+      <c r="X162">
         <v>-0.0004636068613814714</v>
       </c>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:24">
       <c r="A163" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B163">
         <v>215.6</v>
@@ -12895,21 +13384,24 @@
         <v>216.0066666666667</v>
       </c>
       <c r="T163">
+        <v>215.6333333333333</v>
+      </c>
+      <c r="U163">
         <v>-0.1999999999999886</v>
       </c>
-      <c r="U163">
+      <c r="V163">
         <v>-0.0002002156168181557</v>
       </c>
-      <c r="V163">
+      <c r="W163">
         <v>-0.0002776920703486674</v>
       </c>
-      <c r="W163">
+      <c r="X163">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:24">
       <c r="A164" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B164">
         <v>215.6</v>
@@ -12966,21 +13458,24 @@
         <v>215.96</v>
       </c>
       <c r="T164">
+        <v>215.6</v>
+      </c>
+      <c r="U164">
         <v>-0.2062500000000114</v>
       </c>
-      <c r="U164">
+      <c r="V164">
         <v>-0.0002310642820830822</v>
       </c>
-      <c r="V164">
+      <c r="W164">
         <v>-0.0002160427147309685</v>
       </c>
-      <c r="W164">
+      <c r="X164">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:24">
       <c r="A165" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B165">
         <v>215.7</v>
@@ -13037,21 +13532,24 @@
         <v>215.92</v>
       </c>
       <c r="T165">
+        <v>215.6333333333333</v>
+      </c>
+      <c r="U165">
         <v>-0.2312499999999602</v>
       </c>
-      <c r="U165">
+      <c r="V165">
         <v>-0.0002157098394502954</v>
       </c>
-      <c r="V165">
+      <c r="W165">
         <v>-0.0001852194850898714</v>
       </c>
-      <c r="W165">
+      <c r="X165">
         <v>0.0004638218923933568</v>
       </c>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:24">
       <c r="A166" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B166">
         <v>215.7</v>
@@ -13108,21 +13606,24 @@
         <v>215.8866666666667</v>
       </c>
       <c r="T166">
+        <v>215.6666666666667</v>
+      </c>
+      <c r="U166">
         <v>-0.2562499999999943</v>
       </c>
-      <c r="U166">
+      <c r="V166">
         <v>-0.0002157563802245299</v>
       </c>
-      <c r="V166">
+      <c r="W166">
         <v>-0.000154378164752389</v>
       </c>
-      <c r="W166">
+      <c r="X166">
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:24">
       <c r="A167" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B167">
         <v>215.8</v>
@@ -13179,21 +13680,24 @@
         <v>215.86</v>
       </c>
       <c r="T167">
+        <v>215.7333333333333</v>
+      </c>
+      <c r="U167">
         <v>-0.2062500000000114</v>
       </c>
-      <c r="U167">
+      <c r="V167">
         <v>-0.0001849739495021208</v>
       </c>
-      <c r="V167">
+      <c r="W167">
         <v>-0.0001235216008399487</v>
       </c>
-      <c r="W167">
+      <c r="X167">
         <v>0.0004636068613816935</v>
       </c>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" spans="1:24">
       <c r="A168" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B168">
         <v>215.8</v>
@@ -13250,21 +13754,24 @@
         <v>215.8333333333333</v>
       </c>
       <c r="T168">
+        <v>215.7666666666667</v>
+      </c>
+      <c r="U168">
         <v>-0.1687499999999886</v>
       </c>
-      <c r="U168">
+      <c r="V168">
         <v>-0.0001541734759950009</v>
       </c>
-      <c r="V168">
+      <c r="W168">
         <v>-0.0001235368603106357</v>
       </c>
-      <c r="W168">
+      <c r="X168">
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:23">
+    <row r="169" spans="1:24">
       <c r="A169" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B169">
         <v>215.8</v>
@@ -13321,21 +13828,24 @@
         <v>215.8133333333334</v>
       </c>
       <c r="T169">
+        <v>215.8</v>
+      </c>
+      <c r="U169">
         <v>-0.1312500000000227</v>
       </c>
-      <c r="U169">
+      <c r="V169">
         <v>-0.0001387775242090994</v>
       </c>
-      <c r="V169">
+      <c r="W169">
         <v>-9.266409266406317E-05</v>
       </c>
-      <c r="W169">
+      <c r="X169">
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" spans="1:24">
       <c r="A170" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B170">
         <v>215.9</v>
@@ -13392,21 +13902,24 @@
         <v>215.8</v>
       </c>
       <c r="T170">
+        <v>215.8333333333333</v>
+      </c>
+      <c r="U170">
         <v>-0.08125000000001137</v>
       </c>
-      <c r="U170">
+      <c r="V170">
         <v>-0.0001233749209628154</v>
       </c>
-      <c r="V170">
+      <c r="W170">
         <v>-6.178178672933132E-05</v>
       </c>
-      <c r="W170">
+      <c r="X170">
         <v>0.0004633920296570615</v>
       </c>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:24">
       <c r="A171" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B171">
         <v>215.8</v>
@@ -13463,21 +13976,24 @@
         <v>215.78</v>
       </c>
       <c r="T171">
+        <v>215.8333333333333</v>
+      </c>
+      <c r="U171">
         <v>-0.03749999999999432</v>
       </c>
-      <c r="U171">
+      <c r="V171">
         <v>-0.0001542376802652345</v>
       </c>
-      <c r="V171">
+      <c r="W171">
         <v>-9.26784059314123E-05</v>
       </c>
-      <c r="W171">
+      <c r="X171">
         <v>-0.0004631773969430153</v>
       </c>
     </row>
-    <row r="172" spans="1:23">
+    <row r="172" spans="1:24">
       <c r="A172" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B172">
         <v>215.9</v>
@@ -13534,21 +14050,24 @@
         <v>215.76</v>
       </c>
       <c r="T172">
+        <v>215.8666666666667</v>
+      </c>
+      <c r="U172">
         <v>0.01250000000001705</v>
       </c>
-      <c r="U172">
+      <c r="V172">
         <v>-0.0001696876205168341</v>
       </c>
-      <c r="V172">
+      <c r="W172">
         <v>-9.268699601439057E-05</v>
       </c>
-      <c r="W172">
+      <c r="X172">
         <v>0.0004633920296570615</v>
       </c>
     </row>
-    <row r="173" spans="1:23">
+    <row r="173" spans="1:24">
       <c r="A173" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B173">
         <v>215.8</v>
@@ -13605,21 +14124,24 @@
         <v>215.7333333333333</v>
       </c>
       <c r="T173">
+        <v>215.8333333333333</v>
+      </c>
+      <c r="U173">
         <v>0.04999999999998295</v>
       </c>
-      <c r="U173">
+      <c r="V173">
         <v>-0.0001388588885116171</v>
       </c>
-      <c r="V173">
+      <c r="W173">
         <v>-0.0001235941169202004</v>
       </c>
-      <c r="W173">
+      <c r="X173">
         <v>-0.0004631773969430153</v>
       </c>
     </row>
-    <row r="174" spans="1:23">
+    <row r="174" spans="1:24">
       <c r="A174" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B174">
         <v>215.9</v>
@@ -13676,21 +14198,24 @@
         <v>215.7533333333333</v>
       </c>
       <c r="T174">
+        <v>215.8666666666667</v>
+      </c>
+      <c r="U174">
         <v>0.09375000000002842</v>
       </c>
-      <c r="U174">
+      <c r="V174">
         <v>-0.0001234472648716789</v>
       </c>
-      <c r="V174">
+      <c r="W174">
         <v>9.270704573549615E-05</v>
       </c>
-      <c r="W174">
+      <c r="X174">
         <v>0.0004633920296570615</v>
       </c>
     </row>
-    <row r="175" spans="1:23">
+    <row r="175" spans="1:24">
       <c r="A175" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B175">
         <v>215.6</v>
@@ -13747,21 +14272,24 @@
         <v>215.7466666666667</v>
       </c>
       <c r="T175">
+        <v>215.7666666666667</v>
+      </c>
+      <c r="U175">
         <v>0.06874999999999432</v>
       </c>
-      <c r="U175">
+      <c r="V175">
         <v>-0.0001543281324752899</v>
       </c>
-      <c r="V175">
+      <c r="W175">
         <v>-3.089948397827502E-05</v>
       </c>
-      <c r="W175">
+      <c r="X175">
         <v>-0.001389532190829157</v>
       </c>
     </row>
-    <row r="176" spans="1:23">
+    <row r="176" spans="1:24">
       <c r="A176" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B176">
         <v>215.6</v>
@@ -13818,21 +14346,24 @@
         <v>215.74</v>
       </c>
       <c r="T176">
+        <v>215.7</v>
+      </c>
+      <c r="U176">
         <v>0.05000000000001137</v>
       </c>
-      <c r="U176">
+      <c r="V176">
         <v>-0.0001234815626591779</v>
       </c>
-      <c r="V176">
+      <c r="W176">
         <v>-3.09004387865075E-05</v>
       </c>
-      <c r="W176">
+      <c r="X176">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:23">
+    <row r="177" spans="1:24">
       <c r="A177" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B177">
         <v>215.7</v>
@@ -13889,21 +14420,24 @@
         <v>215.7466666666666</v>
       </c>
       <c r="T177">
+        <v>215.6333333333333</v>
+      </c>
+      <c r="U177">
         <v>0.03749999999999432</v>
       </c>
-      <c r="U177">
+      <c r="V177">
         <v>-0.0001080597107084857</v>
       </c>
-      <c r="V177">
+      <c r="W177">
         <v>3.090139365280464E-05</v>
       </c>
-      <c r="W177">
+      <c r="X177">
         <v>0.0004638218923933568</v>
       </c>
     </row>
-    <row r="178" spans="1:23">
+    <row r="178" spans="1:24">
       <c r="A178" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B178">
         <v>215.7</v>
@@ -13960,21 +14494,24 @@
         <v>215.7533333333334</v>
       </c>
       <c r="T178">
+        <v>215.6666666666667</v>
+      </c>
+      <c r="U178">
         <v>0.006250000000022737</v>
       </c>
-      <c r="U178">
+      <c r="V178">
         <v>-0.0001235101587105936</v>
       </c>
-      <c r="V178">
+      <c r="W178">
         <v>3.090043878639648E-05</v>
       </c>
-      <c r="W178">
+      <c r="X178">
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:23">
+    <row r="179" spans="1:24">
       <c r="A179" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B179">
         <v>215.4</v>
@@ -14031,21 +14568,24 @@
         <v>215.74</v>
       </c>
       <c r="T179">
+        <v>215.6</v>
+      </c>
+      <c r="U179">
         <v>-0.03124999999997158</v>
       </c>
-      <c r="U179">
+      <c r="V179">
         <v>-0.0001389660922735958</v>
       </c>
-      <c r="V179">
+      <c r="W179">
         <v>-6.179896795743822E-05</v>
       </c>
-      <c r="W179">
+      <c r="X179">
         <v>-0.001390820584144525</v>
       </c>
     </row>
-    <row r="180" spans="1:23">
+    <row r="180" spans="1:24">
       <c r="A180" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B180">
         <v>215.5</v>
@@ -14102,21 +14642,24 @@
         <v>215.7266666666667</v>
       </c>
       <c r="T180">
+        <v>215.5333333333333</v>
+      </c>
+      <c r="U180">
         <v>-0.07499999999998863</v>
       </c>
-      <c r="U180">
+      <c r="V180">
         <v>-0.0001235425835842685</v>
       </c>
-      <c r="V180">
+      <c r="W180">
         <v>-6.180278730560929E-05</v>
       </c>
-      <c r="W180">
+      <c r="X180">
         <v>0.0004642525533891106</v>
       </c>
     </row>
-    <row r="181" spans="1:23">
+    <row r="181" spans="1:24">
       <c r="A181" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B181">
         <v>215.3</v>
@@ -14173,21 +14716,24 @@
         <v>215.7</v>
       </c>
       <c r="T181">
+        <v>215.4</v>
+      </c>
+      <c r="U181">
         <v>-0.1125000000000114</v>
       </c>
-      <c r="U181">
+      <c r="V181">
         <v>-0.000139002579269909</v>
       </c>
-      <c r="V181">
+      <c r="W181">
         <v>-0.0001236132142525825</v>
       </c>
-      <c r="W181">
+      <c r="X181">
         <v>-0.0009280742459396585</v>
       </c>
     </row>
-    <row r="182" spans="1:23">
+    <row r="182" spans="1:24">
       <c r="A182" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B182">
         <v>215.4</v>
@@ -14244,21 +14790,24 @@
         <v>215.6733333333333</v>
       </c>
       <c r="T182">
+        <v>215.4</v>
+      </c>
+      <c r="U182">
         <v>-0.1562500000000284</v>
       </c>
-      <c r="U182">
+      <c r="V182">
         <v>-0.0001235750254873214</v>
       </c>
-      <c r="V182">
+      <c r="W182">
         <v>-0.0001236284963682666</v>
       </c>
-      <c r="W182">
+      <c r="X182">
         <v>0.0004644681839294229</v>
       </c>
     </row>
-    <row r="183" spans="1:23">
+    <row r="183" spans="1:24">
       <c r="A183" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B183">
         <v>215.5</v>
@@ -14315,21 +14864,24 @@
         <v>215.6533333333333</v>
       </c>
       <c r="T183">
+        <v>215.4</v>
+      </c>
+      <c r="U183">
         <v>-0.1500000000000341</v>
       </c>
-      <c r="U183">
+      <c r="V183">
         <v>-0.0001081415108915573</v>
       </c>
-      <c r="V183">
+      <c r="W183">
         <v>-9.273283669752885E-05</v>
       </c>
-      <c r="W183">
+      <c r="X183">
         <v>0.0004642525533891106</v>
       </c>
     </row>
-    <row r="184" spans="1:23">
+    <row r="184" spans="1:24">
       <c r="A184" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B184">
         <v>215.4</v>
@@ -14386,21 +14938,24 @@
         <v>215.6266666666667</v>
       </c>
       <c r="T184">
+        <v>215.4333333333333</v>
+      </c>
+      <c r="U184">
         <v>-0.1500000000000057</v>
       </c>
-      <c r="U184">
+      <c r="V184">
         <v>-0.0001081532067425117</v>
       </c>
-      <c r="V184">
+      <c r="W184">
         <v>-0.0001236552491653553</v>
       </c>
-      <c r="W184">
+      <c r="X184">
         <v>-0.0004640371229698292</v>
       </c>
     </row>
-    <row r="185" spans="1:23">
+    <row r="185" spans="1:24">
       <c r="A185" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B185">
         <v>215.4</v>
@@ -14457,21 +15012,24 @@
         <v>215.5933333333333</v>
       </c>
       <c r="T185">
+        <v>215.4333333333333</v>
+      </c>
+      <c r="U185">
         <v>-0.1624999999999659</v>
       </c>
-      <c r="U185">
+      <c r="V185">
         <v>-0.0001081649051239975</v>
       </c>
-      <c r="V185">
+      <c r="W185">
         <v>-0.0001545881770963486</v>
       </c>
-      <c r="W185">
+      <c r="X185">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:23">
+    <row r="186" spans="1:24">
       <c r="A186" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B186">
         <v>215.4</v>
@@ -14528,21 +15086,24 @@
         <v>215.5666666666667</v>
       </c>
       <c r="T186">
+        <v>215.4</v>
+      </c>
+      <c r="U186">
         <v>-0.1687499999999886</v>
       </c>
-      <c r="U186">
+      <c r="V186">
         <v>-0.0001081766060361256</v>
       </c>
-      <c r="V186">
+      <c r="W186">
         <v>-0.0001236896626363171</v>
       </c>
-      <c r="W186">
+      <c r="X186">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:23">
+    <row r="187" spans="1:24">
       <c r="A187" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B187">
         <v>215.5</v>
@@ -14599,21 +15160,24 @@
         <v>215.54</v>
       </c>
       <c r="T187">
+        <v>215.4333333333334</v>
+      </c>
+      <c r="U187">
         <v>-0.1375000000000171</v>
       </c>
-      <c r="U187">
+      <c r="V187">
         <v>-0.0001081883094804503</v>
       </c>
-      <c r="V187">
+      <c r="W187">
         <v>-0.0001237049636616527</v>
       </c>
-      <c r="W187">
+      <c r="X187">
         <v>0.0004642525533891106</v>
       </c>
     </row>
-    <row r="188" spans="1:23">
+    <row r="188" spans="1:24">
       <c r="A188" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B188">
         <v>215.6</v>
@@ -14670,21 +15234,24 @@
         <v>215.5266666666666</v>
       </c>
       <c r="T188">
+        <v>215.5</v>
+      </c>
+      <c r="U188">
         <v>-0.1062499999999886</v>
       </c>
-      <c r="U188">
+      <c r="V188">
         <v>-9.27428703918487E-05</v>
       </c>
-      <c r="V188">
+      <c r="W188">
         <v>-6.186013423659098E-05</v>
       </c>
-      <c r="W188">
+      <c r="X188">
         <v>0.0004640371229698292</v>
       </c>
     </row>
-    <row r="189" spans="1:23">
+    <row r="189" spans="1:24">
       <c r="A189" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B189">
         <v>215.8</v>
@@ -14741,21 +15308,24 @@
         <v>215.52</v>
       </c>
       <c r="T189">
+        <v>215.6333333333334</v>
+      </c>
+      <c r="U189">
         <v>-0.04374999999998863</v>
       </c>
-      <c r="U189">
+      <c r="V189">
         <v>3.09171574766065E-05</v>
       </c>
-      <c r="V189">
+      <c r="W189">
         <v>-3.09319805745778E-05</v>
       </c>
-      <c r="W189">
+      <c r="X189">
         <v>0.0009276437847867136</v>
       </c>
     </row>
-    <row r="190" spans="1:23">
+    <row r="190" spans="1:24">
       <c r="A190" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B190">
         <v>216</v>
@@ -14812,21 +15382,24 @@
         <v>215.5466666666667</v>
       </c>
       <c r="T190">
+        <v>215.8</v>
+      </c>
+      <c r="U190">
         <v>0.02499999999997726</v>
       </c>
-      <c r="U190">
+      <c r="V190">
         <v>4.637430245302276E-05</v>
       </c>
-      <c r="V190">
+      <c r="W190">
         <v>0.0001237317495668133</v>
       </c>
-      <c r="W190">
+      <c r="X190">
         <v>0.000926784059314123</v>
       </c>
     </row>
-    <row r="191" spans="1:23">
+    <row r="191" spans="1:24">
       <c r="A191" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B191">
         <v>216</v>
@@ -14883,21 +15456,24 @@
         <v>215.5733333333333</v>
       </c>
       <c r="T191">
+        <v>215.9333333333333</v>
+      </c>
+      <c r="U191">
         <v>0.0625</v>
       </c>
-      <c r="U191">
+      <c r="V191">
         <v>4.637215197700328E-05</v>
       </c>
-      <c r="V191">
+      <c r="W191">
         <v>0.0001237164419152226</v>
       </c>
-      <c r="W191">
+      <c r="X191">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:23">
+    <row r="192" spans="1:24">
       <c r="A192" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B192">
         <v>216.3</v>
@@ -14954,21 +15530,24 @@
         <v>215.6133333333333</v>
       </c>
       <c r="T192">
+        <v>216.1</v>
+      </c>
+      <c r="U192">
         <v>0.1312499999999943</v>
       </c>
-      <c r="U192">
+      <c r="V192">
         <v>0.0001081966706339976</v>
       </c>
-      <c r="V192">
+      <c r="W192">
         <v>0.0001855517070759038</v>
       </c>
-      <c r="W192">
+      <c r="X192">
         <v>0.001388888888888884</v>
       </c>
     </row>
-    <row r="193" spans="1:23">
+    <row r="193" spans="1:24">
       <c r="A193" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B193">
         <v>216.3</v>
@@ -15025,21 +15604,24 @@
         <v>215.6533333333333</v>
       </c>
       <c r="T193">
+        <v>216.2</v>
+      </c>
+      <c r="U193">
         <v>0.2062500000000114</v>
       </c>
-      <c r="U193">
+      <c r="V193">
         <v>0.0001081849653807865</v>
       </c>
-      <c r="V193">
+      <c r="W193">
         <v>0.000185517284026826</v>
       </c>
-      <c r="W193">
+      <c r="X193">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:23">
+    <row r="194" spans="1:24">
       <c r="A194" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B194">
         <v>216.3</v>
@@ -15096,21 +15678,24 @@
         <v>215.7133333333333</v>
       </c>
       <c r="T194">
+        <v>216.3</v>
+      </c>
+      <c r="U194">
         <v>0.28125</v>
       </c>
-      <c r="U194">
+      <c r="V194">
         <v>0.0001081732626599941</v>
       </c>
-      <c r="V194">
+      <c r="W194">
         <v>0.0002782243106220772</v>
       </c>
-      <c r="W194">
+      <c r="X194">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:23">
+    <row r="195" spans="1:24">
       <c r="A195" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B195">
         <v>216</v>
@@ -15167,21 +15752,24 @@
         <v>215.7466666666667</v>
       </c>
       <c r="T195">
+        <v>216.2</v>
+      </c>
+      <c r="U195">
         <v>0.3062500000000057</v>
       </c>
-      <c r="U195">
+      <c r="V195">
         <v>4.635495534488498E-05</v>
       </c>
-      <c r="V195">
+      <c r="W195">
         <v>0.0001545260685478222</v>
       </c>
-      <c r="W195">
+      <c r="X195">
         <v>-0.001386962552011095</v>
       </c>
     </row>
-    <row r="196" spans="1:23">
+    <row r="196" spans="1:24">
       <c r="A196" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B196">
         <v>216.2</v>
@@ -15238,21 +15826,24 @@
         <v>215.8066666666667</v>
       </c>
       <c r="T196">
+        <v>216.1666666666667</v>
+      </c>
+      <c r="U196">
         <v>0.3375000000000057</v>
       </c>
-      <c r="U196">
+      <c r="V196">
         <v>7.725467777097705E-05</v>
       </c>
-      <c r="V196">
+      <c r="W196">
         <v>0.000278103949076014</v>
       </c>
-      <c r="W196">
+      <c r="X196">
         <v>0.0009259259259257746</v>
       </c>
     </row>
-    <row r="197" spans="1:23">
+    <row r="197" spans="1:24">
       <c r="A197" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B197">
         <v>216.1</v>
@@ -15309,21 +15900,24 @@
         <v>215.8533333333333</v>
       </c>
       <c r="T197">
+        <v>216.1</v>
+      </c>
+      <c r="U197">
         <v>0.3250000000000171</v>
       </c>
-      <c r="U197">
+      <c r="V197">
         <v>4.634922596769009E-05</v>
       </c>
-      <c r="V197">
+      <c r="W197">
         <v>0.0002162429334897631</v>
       </c>
-      <c r="W197">
+      <c r="X197">
         <v>-0.0004625346901017124</v>
       </c>
     </row>
-    <row r="198" spans="1:23">
+    <row r="198" spans="1:24">
       <c r="A198" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B198">
         <v>216.3</v>
@@ -15380,21 +15974,24 @@
         <v>215.9066666666667</v>
       </c>
       <c r="T198">
+        <v>216.2</v>
+      </c>
+      <c r="U198">
         <v>0.3062500000000057</v>
       </c>
-      <c r="U198">
+      <c r="V198">
         <v>7.724512969464747E-05</v>
       </c>
-      <c r="V198">
+      <c r="W198">
         <v>0.0002470813515349501</v>
       </c>
-      <c r="W198">
+      <c r="X198">
         <v>0.0009254974548820183</v>
       </c>
     </row>
-    <row r="199" spans="1:23">
+    <row r="199" spans="1:24">
       <c r="A199" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B199">
         <v>216.1</v>
@@ -15451,21 +16048,24 @@
         <v>215.9533333333333</v>
       </c>
       <c r="T199">
+        <v>216.1666666666667</v>
+      </c>
+      <c r="U199">
         <v>0.28125</v>
       </c>
-      <c r="U199">
+      <c r="V199">
         <v>4.634349800736182E-05</v>
       </c>
-      <c r="V199">
+      <c r="W199">
         <v>0.0002161427777434</v>
       </c>
-      <c r="W199">
+      <c r="X199">
         <v>-0.0009246417013407671</v>
       </c>
     </row>
-    <row r="200" spans="1:23">
+    <row r="200" spans="1:24">
       <c r="A200" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B200">
         <v>216.1</v>
@@ -15522,21 +16122,24 @@
         <v>216</v>
       </c>
       <c r="T200">
+        <v>216.1666666666667</v>
+      </c>
+      <c r="U200">
         <v>0.2125000000000341</v>
       </c>
-      <c r="U200">
+      <c r="V200">
         <v>3.089423359114996E-05</v>
       </c>
-      <c r="V200">
+      <c r="W200">
         <v>0.0002160960701387271</v>
       </c>
-      <c r="W200">
+      <c r="X200">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:23">
+    <row r="201" spans="1:24">
       <c r="A201" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B201">
         <v>216.2</v>
@@ -15593,21 +16196,24 @@
         <v>216.0533333333333</v>
       </c>
       <c r="T201">
+        <v>216.1333333333333</v>
+      </c>
+      <c r="U201">
         <v>0.1499999999999773</v>
       </c>
-      <c r="U201">
+      <c r="V201">
         <v>6.178655833410929E-05</v>
       </c>
-      <c r="V201">
+      <c r="W201">
         <v>0.0002469135802469768</v>
       </c>
-      <c r="W201">
+      <c r="X201">
         <v>0.0004627487274408981</v>
       </c>
     </row>
-    <row r="202" spans="1:23">
+    <row r="202" spans="1:24">
       <c r="A202" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B202">
         <v>215.9</v>
@@ -15664,21 +16270,24 @@
         <v>216.08</v>
       </c>
       <c r="T202">
+        <v>216.0666666666667</v>
+      </c>
+      <c r="U202">
         <v>0.06874999999996589</v>
       </c>
-      <c r="U202">
+      <c r="V202">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="V202">
+      <c r="W202">
         <v>0.0001234263144902492</v>
       </c>
-      <c r="W202">
+      <c r="X202">
         <v>-0.001387604070305248</v>
       </c>
     </row>
-    <row r="203" spans="1:23">
+    <row r="203" spans="1:24">
       <c r="A203" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B203">
         <v>216</v>
@@ -15735,21 +16344,24 @@
         <v>216.1066666666667</v>
       </c>
       <c r="T203">
+        <v>216.0333333333333</v>
+      </c>
+      <c r="U203">
         <v>0.03749999999996589</v>
       </c>
-      <c r="U203">
+      <c r="V203">
         <v>3.089137049561153E-05</v>
       </c>
-      <c r="V203">
+      <c r="W203">
         <v>0.0001234110823151724</v>
       </c>
-      <c r="W203">
+      <c r="X203">
         <v>0.0004631773969430153</v>
       </c>
     </row>
-    <row r="204" spans="1:23">
+    <row r="204" spans="1:24">
       <c r="A204" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B204">
         <v>216</v>
@@ -15806,21 +16418,24 @@
         <v>216.12</v>
       </c>
       <c r="T204">
+        <v>215.9666666666667</v>
+      </c>
+      <c r="U204">
         <v>-0.01250000000004547</v>
       </c>
-      <c r="U204">
+      <c r="V204">
         <v>1.544520812424288E-05</v>
       </c>
-      <c r="V204">
+      <c r="W204">
         <v>6.169792694965537E-05</v>
       </c>
-      <c r="W204">
+      <c r="X204">
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:23">
+    <row r="205" spans="1:24">
       <c r="A205" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B205">
         <v>216</v>
@@ -15877,21 +16492,24 @@
         <v>216.12</v>
       </c>
       <c r="T205">
+        <v>216</v>
+      </c>
+      <c r="U205">
         <v>-0.03750000000002274</v>
       </c>
-      <c r="U205">
+      <c r="V205">
         <v>6.177987829358855E-05</v>
-      </c>
-      <c r="V205">
-        <v>0</v>
       </c>
       <c r="W205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:23">
+      <c r="X205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:24">
       <c r="A206" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B206">
         <v>216.2</v>
@@ -15948,21 +16566,24 @@
         <v>216.1333333333333</v>
       </c>
       <c r="T206">
+        <v>216.0666666666667</v>
+      </c>
+      <c r="U206">
         <v>-0.0625</v>
       </c>
-      <c r="U206">
+      <c r="V206">
         <v>9.266409266417419E-05</v>
       </c>
-      <c r="V206">
+      <c r="W206">
         <v>6.169412055023749E-05</v>
       </c>
-      <c r="W206">
+      <c r="X206">
         <v>0.0009259259259257746</v>
       </c>
     </row>
-    <row r="207" spans="1:23">
+    <row r="207" spans="1:24">
       <c r="A207" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B207">
         <v>216.2</v>
@@ -16019,21 +16640,24 @@
         <v>216.1266666666666</v>
       </c>
       <c r="T207">
+        <v>216.1333333333333</v>
+      </c>
+      <c r="U207">
         <v>-0.06249999999997158</v>
       </c>
-      <c r="U207">
+      <c r="V207">
         <v>7.721292235451926E-05</v>
       </c>
-      <c r="V207">
+      <c r="W207">
         <v>-3.084515731044402E-05</v>
       </c>
-      <c r="W207">
+      <c r="X207">
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:23">
+    <row r="208" spans="1:24">
       <c r="A208" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B208">
         <v>216.4</v>
@@ -16090,21 +16714,24 @@
         <v>216.1333333333333</v>
       </c>
       <c r="T208">
+        <v>216.2666666666667</v>
+      </c>
+      <c r="U208">
         <v>-0.03125</v>
       </c>
-      <c r="U208">
+      <c r="V208">
         <v>0.0001080897453715757</v>
       </c>
-      <c r="V208">
+      <c r="W208">
         <v>3.084610876347149E-05</v>
       </c>
-      <c r="W208">
+      <c r="X208">
         <v>0.0009250693802036469</v>
       </c>
     </row>
-    <row r="209" spans="1:23">
+    <row r="209" spans="1:24">
       <c r="A209" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B209">
         <v>216.2</v>
@@ -16161,21 +16788,24 @@
         <v>216.1266666666667</v>
       </c>
       <c r="T209">
+        <v>216.2666666666667</v>
+      </c>
+      <c r="U209">
         <v>-0.02500000000003411</v>
       </c>
-      <c r="U209">
+      <c r="V209">
         <v>0.000123517786561278</v>
       </c>
-      <c r="V209">
+      <c r="W209">
         <v>-3.084515731022197E-05</v>
       </c>
-      <c r="W209">
+      <c r="X209">
         <v>-0.0009242144177450395</v>
       </c>
     </row>
-    <row r="210" spans="1:23">
+    <row r="210" spans="1:24">
       <c r="A210" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B210">
         <v>216.1</v>
@@ -16232,21 +16862,24 @@
         <v>216.1333333333333</v>
       </c>
       <c r="T210">
+        <v>216.2333333333333</v>
+      </c>
+      <c r="U210">
         <v>0.01249999999998863</v>
       </c>
-      <c r="U210">
+      <c r="V210">
         <v>9.262689885125575E-05</v>
       </c>
-      <c r="V210">
+      <c r="W210">
         <v>3.084610876324945E-05</v>
       </c>
-      <c r="W210">
+      <c r="X210">
         <v>-0.0004625346901017124</v>
       </c>
     </row>
-    <row r="211" spans="1:23">
+    <row r="211" spans="1:24">
       <c r="A211" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B211">
         <v>216</v>
@@ -16303,21 +16936,24 @@
         <v>216.12</v>
       </c>
       <c r="T211">
+        <v>216.1</v>
+      </c>
+      <c r="U211">
         <v>0.01249999999998863</v>
       </c>
-      <c r="U211">
+      <c r="V211">
         <v>0.0001080547065541726</v>
       </c>
-      <c r="V211">
+      <c r="W211">
         <v>-6.169031462055496E-05</v>
       </c>
-      <c r="W211">
+      <c r="X211">
         <v>-0.0004627487274410091</v>
       </c>
     </row>
-    <row r="212" spans="1:23">
+    <row r="212" spans="1:24">
       <c r="A212" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B212">
         <v>216</v>
@@ -16374,21 +17010,24 @@
         <v>216.1133333333333</v>
       </c>
       <c r="T212">
+        <v>216.0333333333333</v>
+      </c>
+      <c r="U212">
         <v>0.02499999999997726</v>
       </c>
-      <c r="U212">
+      <c r="V212">
         <v>9.260831313961937E-05</v>
       </c>
-      <c r="V212">
+      <c r="W212">
         <v>-3.084706027511874E-05</v>
       </c>
-      <c r="W212">
+      <c r="X212">
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:23">
+    <row r="213" spans="1:24">
       <c r="A213" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B213">
         <v>216.2</v>
@@ -16445,21 +17084,24 @@
         <v>216.1066666666667</v>
       </c>
       <c r="T213">
+        <v>216.0666666666667</v>
+      </c>
+      <c r="U213">
         <v>0.04374999999998863</v>
       </c>
-      <c r="U213">
+      <c r="V213">
         <v>0.0001080330272398289</v>
       </c>
-      <c r="V213">
+      <c r="W213">
         <v>-3.084801184571884E-05</v>
       </c>
-      <c r="W213">
+      <c r="X213">
         <v>0.0009259259259257746</v>
       </c>
     </row>
-    <row r="214" spans="1:23">
+    <row r="214" spans="1:24">
       <c r="A214" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B214">
         <v>216.2</v>
@@ -16516,21 +17158,24 @@
         <v>216.1133333333333</v>
       </c>
       <c r="T214">
+        <v>216.1333333333333</v>
+      </c>
+      <c r="U214">
         <v>0.04999999999998295</v>
       </c>
-      <c r="U214">
+      <c r="V214">
         <v>0.0001234529798461725</v>
       </c>
-      <c r="V214">
+      <c r="W214">
         <v>3.084896347482768E-05</v>
       </c>
-      <c r="W214">
+      <c r="X214">
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:23">
+    <row r="215" spans="1:24">
       <c r="A215" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B215">
         <v>216.3</v>
@@ -16587,21 +17232,24 @@
         <v>216.1266666666667</v>
       </c>
       <c r="T215">
+        <v>216.2333333333333</v>
+      </c>
+      <c r="U215">
         <v>0.04999999999998295</v>
       </c>
-      <c r="U215">
+      <c r="V215">
         <v>0.000138867458725711</v>
       </c>
-      <c r="V215">
+      <c r="W215">
         <v>6.169602369143767E-05</v>
       </c>
-      <c r="W215">
+      <c r="X215">
         <v>0.0004625346901019345</v>
       </c>
     </row>
-    <row r="216" spans="1:23">
+    <row r="216" spans="1:24">
       <c r="A216" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B216">
         <v>216.1</v>
@@ -16658,21 +17306,24 @@
         <v>216.12</v>
       </c>
       <c r="T216">
+        <v>216.2</v>
+      </c>
+      <c r="U216">
         <v>0.01250000000001705</v>
       </c>
-      <c r="U216">
+      <c r="V216">
         <v>0.0001079930267358087</v>
       </c>
-      <c r="V216">
+      <c r="W216">
         <v>-3.084610876347149E-05</v>
       </c>
-      <c r="W216">
+      <c r="X216">
         <v>-0.0009246417013407671</v>
       </c>
     </row>
-    <row r="217" spans="1:23">
+    <row r="217" spans="1:24">
       <c r="A217" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B217">
         <v>216</v>
@@ -16729,21 +17380,24 @@
         <v>216.1266666666666</v>
       </c>
       <c r="T217">
+        <v>216.1333333333333</v>
+      </c>
+      <c r="U217">
         <v>2.842170943040401E-14</v>
       </c>
-      <c r="U217">
+      <c r="V217">
         <v>7.712954678673611E-05</v>
       </c>
-      <c r="V217">
+      <c r="W217">
         <v>3.084706027522977E-05</v>
       </c>
-      <c r="W217">
+      <c r="X217">
         <v>-0.0004627487274410091</v>
       </c>
     </row>
-    <row r="218" spans="1:23">
+    <row r="218" spans="1:24">
       <c r="A218" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B218">
         <v>216.1</v>
@@ -16800,21 +17454,24 @@
         <v>216.1333333333333</v>
       </c>
       <c r="T218">
+        <v>216.0666666666667</v>
+      </c>
+      <c r="U218">
         <v>-0.01249999999998863</v>
       </c>
-      <c r="U218">
+      <c r="V218">
         <v>7.71235982786056E-05</v>
       </c>
-      <c r="V218">
+      <c r="W218">
         <v>3.084610876347149E-05</v>
       </c>
-      <c r="W218">
+      <c r="X218">
         <v>0.0004629629629628873</v>
       </c>
     </row>
-    <row r="219" spans="1:23">
+    <row r="219" spans="1:24">
       <c r="A219" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B219">
         <v>215.9</v>
@@ -16871,21 +17528,24 @@
         <v>216.1266666666666</v>
       </c>
       <c r="T219">
+        <v>216</v>
+      </c>
+      <c r="U219">
         <v>-0.01874999999995453</v>
       </c>
-      <c r="U219">
+      <c r="V219">
         <v>1.542353013750386E-05</v>
       </c>
-      <c r="V219">
+      <c r="W219">
         <v>-3.084515731044402E-05</v>
       </c>
-      <c r="W219">
+      <c r="X219">
         <v>-0.0009254974548819073</v>
       </c>
     </row>
-    <row r="220" spans="1:23">
+    <row r="220" spans="1:24">
       <c r="A220" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B220">
         <v>215.8</v>
@@ -16942,21 +17602,24 @@
         <v>216.1133333333333</v>
       </c>
       <c r="T220">
+        <v>215.9333333333333</v>
+      </c>
+      <c r="U220">
         <v>-0.03124999999997158</v>
       </c>
-      <c r="U220">
+      <c r="V220">
         <v>-3.084658451191213E-05</v>
       </c>
-      <c r="V220">
+      <c r="W220">
         <v>-6.169221752672094E-05</v>
       </c>
-      <c r="W220">
+      <c r="X220">
         <v>-0.0004631773969430153</v>
       </c>
     </row>
-    <row r="221" spans="1:23">
+    <row r="221" spans="1:24">
       <c r="A221" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B221">
         <v>216</v>
@@ -17013,21 +17676,24 @@
         <v>216.1</v>
       </c>
       <c r="T221">
+        <v>215.9</v>
+      </c>
+      <c r="U221">
         <v>-0.05624999999997726</v>
       </c>
-      <c r="U221">
+      <c r="V221">
         <v>0</v>
       </c>
-      <c r="V221">
+      <c r="W221">
         <v>-6.169602369121563E-05</v>
       </c>
-      <c r="W221">
+      <c r="X221">
         <v>0.000926784059314123</v>
       </c>
     </row>
-    <row r="222" spans="1:23">
+    <row r="222" spans="1:24">
       <c r="A222" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B222">
         <v>216.1</v>
@@ -17084,21 +17750,24 @@
         <v>216.0933333333333</v>
       </c>
       <c r="T222">
+        <v>215.9666666666667</v>
+      </c>
+      <c r="U222">
         <v>-0.0625</v>
       </c>
-      <c r="U222">
+      <c r="V222">
         <v>-3.08475360529803E-05</v>
       </c>
-      <c r="V222">
+      <c r="W222">
         <v>-3.084991516266733E-05</v>
       </c>
-      <c r="W222">
+      <c r="X222">
         <v>0.0004629629629628873</v>
       </c>
     </row>
-    <row r="223" spans="1:23">
+    <row r="223" spans="1:24">
       <c r="A223" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B223">
         <v>216.2</v>
@@ -17155,21 +17824,24 @@
         <v>216.08</v>
       </c>
       <c r="T223">
+        <v>216.1</v>
+      </c>
+      <c r="U223">
         <v>-0.07500000000001705</v>
       </c>
-      <c r="U223">
+      <c r="V223">
         <v>-1.542424382661167E-05</v>
       </c>
-      <c r="V223">
+      <c r="W223">
         <v>-6.170173381880861E-05</v>
       </c>
-      <c r="W223">
+      <c r="X223">
         <v>0.0004627487274408981</v>
       </c>
     </row>
-    <row r="224" spans="1:23">
+    <row r="224" spans="1:24">
       <c r="A224" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B224">
         <v>216.1</v>
@@ -17226,21 +17898,24 @@
         <v>216.0733333333333</v>
       </c>
       <c r="T224">
+        <v>216.1333333333333</v>
+      </c>
+      <c r="U224">
         <v>-0.05625000000003411</v>
       </c>
-      <c r="U224">
+      <c r="V224">
         <v>-3.084896347482768E-05</v>
       </c>
-      <c r="V224">
+      <c r="W224">
         <v>-3.08527705787931E-05</v>
       </c>
-      <c r="W224">
+      <c r="X224">
         <v>-0.0004625346901017124</v>
       </c>
     </row>
-    <row r="225" spans="1:23">
+    <row r="225" spans="1:24">
       <c r="A225" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B225">
         <v>216.2</v>
@@ -17297,21 +17972,24 @@
         <v>216.08</v>
       </c>
       <c r="T225">
+        <v>216.1666666666667</v>
+      </c>
+      <c r="U225">
         <v>-0.03125</v>
       </c>
-      <c r="U225">
+      <c r="V225">
         <v>3.084991516288937E-05</v>
       </c>
-      <c r="V225">
+      <c r="W225">
         <v>3.085372250155594E-05</v>
       </c>
-      <c r="W225">
+      <c r="X225">
         <v>0.0004627487274408981</v>
       </c>
     </row>
-    <row r="226" spans="1:23">
+    <row r="226" spans="1:24">
       <c r="A226" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B226">
         <v>215.8</v>
@@ -17368,21 +18046,24 @@
         <v>216.0666666666667</v>
       </c>
       <c r="T226">
+        <v>216.0333333333333</v>
+      </c>
+      <c r="U226">
         <v>-0.05000000000001137</v>
       </c>
-      <c r="U226">
+      <c r="V226">
         <v>-6.169792694987741E-05</v>
       </c>
-      <c r="V226">
+      <c r="W226">
         <v>-6.17055411575862E-05</v>
       </c>
-      <c r="W226">
+      <c r="X226">
         <v>-0.001850138760406961</v>
       </c>
     </row>
-    <row r="227" spans="1:23">
+    <row r="227" spans="1:24">
       <c r="A227" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B227">
         <v>215.8</v>
@@ -17439,21 +18120,24 @@
         <v>216.0533333333333</v>
       </c>
       <c r="T227">
+        <v>215.9333333333333</v>
+      </c>
+      <c r="U227">
         <v>-0.04999999999998295</v>
       </c>
-      <c r="U227">
+      <c r="V227">
         <v>-4.627630036391217E-05</v>
       </c>
-      <c r="V227">
+      <c r="W227">
         <v>-6.170934896643221E-05</v>
       </c>
-      <c r="W227">
+      <c r="X227">
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:23">
+    <row r="228" spans="1:24">
       <c r="A228" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B228">
         <v>215.8</v>
@@ -17510,21 +18194,24 @@
         <v>216.0266666666667</v>
       </c>
       <c r="T228">
+        <v>215.8</v>
+      </c>
+      <c r="U228">
         <v>-0.03749999999999432</v>
       </c>
-      <c r="U228">
+      <c r="V228">
         <v>-7.713073659854075E-05</v>
       </c>
-      <c r="V228">
+      <c r="W228">
         <v>-0.0001234263144901382</v>
       </c>
-      <c r="W228">
+      <c r="X228">
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:23">
+    <row r="229" spans="1:24">
       <c r="A229" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B229">
         <v>215.6</v>
@@ -17581,21 +18268,24 @@
         <v>215.9866666666667</v>
       </c>
       <c r="T229">
+        <v>215.7333333333333</v>
+      </c>
+      <c r="U229">
         <v>-0.05000000000001137</v>
       </c>
-      <c r="U229">
+      <c r="V229">
         <v>-7.713668620790148E-05</v>
       </c>
-      <c r="V229">
+      <c r="W229">
         <v>-0.0001851623256389212</v>
       </c>
-      <c r="W229">
+      <c r="X229">
         <v>-0.000926784059314234</v>
       </c>
     </row>
-    <row r="230" spans="1:23">
+    <row r="230" spans="1:24">
       <c r="A230" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B230">
         <v>215.4</v>
@@ -17652,21 +18342,24 @@
         <v>215.9266666666667</v>
       </c>
       <c r="T230">
+        <v>215.6</v>
+      </c>
+      <c r="U230">
         <v>-0.08750000000000568</v>
       </c>
-      <c r="U230">
+      <c r="V230">
         <v>-0.0001079996914294945</v>
       </c>
-      <c r="V230">
+      <c r="W230">
         <v>-0.0002777949256125289</v>
       </c>
-      <c r="W230">
+      <c r="X230">
         <v>-0.0009276437847866026</v>
       </c>
     </row>
-    <row r="231" spans="1:23">
+    <row r="231" spans="1:24">
       <c r="A231" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B231">
         <v>215.5</v>
@@ -17723,21 +18416,24 @@
         <v>215.8866666666667</v>
       </c>
       <c r="T231">
+        <v>215.5</v>
+      </c>
+      <c r="U231">
         <v>-0.125</v>
       </c>
-      <c r="U231">
+      <c r="V231">
         <v>-0.0001080113566225283</v>
       </c>
-      <c r="V231">
+      <c r="W231">
         <v>-0.0001852480780512034</v>
       </c>
-      <c r="W231">
+      <c r="X231">
         <v>0.0004642525533891106</v>
       </c>
     </row>
-    <row r="232" spans="1:23">
+    <row r="232" spans="1:24">
       <c r="A232" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B232">
         <v>215.5</v>
@@ -17794,21 +18490,24 @@
         <v>215.8533333333334</v>
       </c>
       <c r="T232">
+        <v>215.4666666666667</v>
+      </c>
+      <c r="U232">
         <v>-0.1624999999999943</v>
       </c>
-      <c r="U232">
+      <c r="V232">
         <v>-6.172744247789907E-05</v>
       </c>
-      <c r="V232">
+      <c r="W232">
         <v>-0.0001544020010498803</v>
       </c>
-      <c r="W232">
+      <c r="X232">
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:23">
+    <row r="233" spans="1:24">
       <c r="A233" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B233">
         <v>215.5</v>
@@ -17865,21 +18564,24 @@
         <v>215.8133333333333</v>
       </c>
       <c r="T233">
+        <v>215.5</v>
+      </c>
+      <c r="U233">
         <v>-0.21875</v>
       </c>
-      <c r="U233">
+      <c r="V233">
         <v>-7.716406623758942E-05</v>
       </c>
-      <c r="V233">
+      <c r="W233">
         <v>-0.0001853110136513791</v>
       </c>
-      <c r="W233">
+      <c r="X233">
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:23">
+    <row r="234" spans="1:24">
       <c r="A234" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B234">
         <v>215.6</v>
@@ -17936,21 +18638,24 @@
         <v>215.7933333333334</v>
       </c>
       <c r="T234">
+        <v>215.5333333333333</v>
+      </c>
+      <c r="U234">
         <v>-0.2124999999999773</v>
       </c>
-      <c r="U234">
+      <c r="V234">
         <v>-6.173601679215768E-05</v>
       </c>
-      <c r="V234">
+      <c r="W234">
         <v>-9.267268009383045E-05</v>
       </c>
-      <c r="W234">
+      <c r="X234">
         <v>0.0004640371229698292</v>
       </c>
     </row>
-    <row r="235" spans="1:23">
+    <row r="235" spans="1:24">
       <c r="A235" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B235">
         <v>215.6</v>
@@ -18007,21 +18712,24 @@
         <v>215.78</v>
       </c>
       <c r="T235">
+        <v>215.5666666666667</v>
+      </c>
+      <c r="U235">
         <v>-0.21875</v>
       </c>
-      <c r="U235">
+      <c r="V235">
         <v>-6.173982836332748E-05</v>
       </c>
-      <c r="V235">
+      <c r="W235">
         <v>-6.17875127437717E-05</v>
       </c>
-      <c r="W235">
+      <c r="X235">
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:23">
+    <row r="236" spans="1:24">
       <c r="A236" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B236">
         <v>215.7</v>
@@ -18078,21 +18786,24 @@
         <v>215.76</v>
       </c>
       <c r="T236">
+        <v>215.6333333333333</v>
+      </c>
+      <c r="U236">
         <v>-0.2250000000000227</v>
       </c>
-      <c r="U236">
+      <c r="V236">
         <v>-7.717955050634551E-05</v>
       </c>
-      <c r="V236">
+      <c r="W236">
         <v>-9.268699601439057E-05</v>
       </c>
-      <c r="W236">
+      <c r="X236">
         <v>0.0004638218923933568</v>
       </c>
     </row>
-    <row r="237" spans="1:23">
+    <row r="237" spans="1:24">
       <c r="A237" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B237">
         <v>215.6</v>
@@ -18149,21 +18860,24 @@
         <v>215.7266666666667</v>
       </c>
       <c r="T237">
+        <v>215.6333333333333</v>
+      </c>
+      <c r="U237">
         <v>-0.1999999999999886</v>
       </c>
-      <c r="U237">
+      <c r="V237">
         <v>-9.262260917886067E-05</v>
       </c>
-      <c r="V237">
+      <c r="W237">
         <v>-0.000154492646150195</v>
       </c>
-      <c r="W237">
+      <c r="X237">
         <v>-0.0004636068613814714</v>
       </c>
     </row>
-    <row r="238" spans="1:23">
+    <row r="238" spans="1:24">
       <c r="A238" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B238">
         <v>215.3</v>
@@ -18220,21 +18934,24 @@
         <v>215.6666666666667</v>
       </c>
       <c r="T238">
+        <v>215.5333333333333</v>
+      </c>
+      <c r="U238">
         <v>-0.1624999999999943</v>
       </c>
-      <c r="U238">
+      <c r="V238">
         <v>-0.0001698238463556656</v>
       </c>
-      <c r="V238">
+      <c r="W238">
         <v>-0.0002781297320684217</v>
       </c>
-      <c r="W238">
+      <c r="X238">
         <v>-0.001391465677179848</v>
       </c>
     </row>
-    <row r="239" spans="1:23">
+    <row r="239" spans="1:24">
       <c r="A239" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B239">
         <v>215.4</v>
@@ -18291,21 +19008,24 @@
         <v>215.62</v>
       </c>
       <c r="T239">
+        <v>215.4333333333334</v>
+      </c>
+      <c r="U239">
         <v>-0.125</v>
       </c>
-      <c r="U239">
+      <c r="V239">
         <v>-0.000123529230104058</v>
       </c>
-      <c r="V239">
+      <c r="W239">
         <v>-0.0002163833075734534</v>
       </c>
-      <c r="W239">
+      <c r="X239">
         <v>0.0004644681839294229</v>
       </c>
     </row>
-    <row r="240" spans="1:23">
+    <row r="240" spans="1:24">
       <c r="A240" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B240">
         <v>215.4</v>
@@ -18362,21 +19082,24 @@
         <v>215.5666666666667</v>
       </c>
       <c r="T240">
+        <v>215.3666666666667</v>
+      </c>
+      <c r="U240">
         <v>-0.09375</v>
       </c>
-      <c r="U240">
+      <c r="V240">
         <v>-0.0001081014300273742</v>
       </c>
-      <c r="V240">
+      <c r="W240">
         <v>-0.0002473487307916855</v>
       </c>
-      <c r="W240">
+      <c r="X240">
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:23">
+    <row r="241" spans="1:24">
       <c r="A241" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B241">
         <v>215.4</v>
@@ -18433,21 +19156,24 @@
         <v>215.54</v>
       </c>
       <c r="T241">
+        <v>215.4</v>
+      </c>
+      <c r="U241">
         <v>-0.05625000000000568</v>
       </c>
-      <c r="U241">
+      <c r="V241">
         <v>-9.266838618005035E-05</v>
       </c>
-      <c r="V241">
+      <c r="W241">
         <v>-0.0001237049636616527</v>
       </c>
-      <c r="W241">
+      <c r="X241">
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:23">
+    <row r="242" spans="1:24">
       <c r="A242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B242">
         <v>215.4</v>
@@ -18504,21 +19230,24 @@
         <v>215.5133333333333</v>
       </c>
       <c r="T242">
+        <v>215.4</v>
+      </c>
+      <c r="U242">
         <v>-0.05624999999997726</v>
       </c>
-      <c r="U242">
+      <c r="V242">
         <v>-9.267697440573652E-05</v>
       </c>
-      <c r="V242">
+      <c r="W242">
         <v>-0.0001237202684728489</v>
       </c>
-      <c r="W242">
+      <c r="X242">
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:23">
+    <row r="243" spans="1:24">
       <c r="A243" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B243">
         <v>215.1</v>
@@ -18575,21 +19304,24 @@
         <v>215.4666666666667</v>
       </c>
       <c r="T243">
+        <v>215.3</v>
+      </c>
+      <c r="U243">
         <v>-0.07500000000001705</v>
       </c>
-      <c r="U243">
+      <c r="V243">
         <v>-0.0001699235344095884</v>
       </c>
-      <c r="V243">
+      <c r="W243">
         <v>-0.0002165372598756932</v>
       </c>
-      <c r="W243">
+      <c r="X243">
         <v>-0.001392757660167221</v>
       </c>
     </row>
-    <row r="244" spans="1:23">
+    <row r="244" spans="1:24">
       <c r="A244" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B244">
         <v>214.2</v>
@@ -18646,21 +19378,24 @@
         <v>215.3733333333333</v>
       </c>
       <c r="T244">
+        <v>214.9</v>
+      </c>
+      <c r="U244">
         <v>-0.1624999999999659</v>
       </c>
-      <c r="U244">
+      <c r="V244">
         <v>-0.0003090043878622994</v>
       </c>
-      <c r="V244">
+      <c r="W244">
         <v>-0.0004331683168317113</v>
       </c>
-      <c r="W244">
+      <c r="X244">
         <v>-0.004184100418410108</v>
       </c>
     </row>
-    <row r="245" spans="1:23">
+    <row r="245" spans="1:24">
       <c r="A245" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B245">
         <v>214.5</v>
@@ -18717,21 +19452,24 @@
         <v>215.3133333333333</v>
       </c>
       <c r="T245">
+        <v>214.6</v>
+      </c>
+      <c r="U245">
         <v>-0.2312499999999886</v>
       </c>
-      <c r="U245">
+      <c r="V245">
         <v>-0.0002781899109792763</v>
       </c>
-      <c r="V245">
+      <c r="W245">
         <v>-0.0002785860211725888</v>
       </c>
-      <c r="W245">
+      <c r="X245">
         <v>0.001400560224089631</v>
       </c>
     </row>
-    <row r="246" spans="1:23">
+    <row r="246" spans="1:24">
       <c r="A246" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B246">
         <v>214.7</v>
@@ -18788,21 +19526,24 @@
         <v>215.26</v>
       </c>
       <c r="T246">
+        <v>214.4666666666667</v>
+      </c>
+      <c r="U246">
         <v>-0.2625000000000171</v>
       </c>
-      <c r="U246">
+      <c r="V246">
         <v>-0.0002164301394428358</v>
       </c>
-      <c r="V246">
+      <c r="W246">
         <v>-0.0002477010248629341</v>
       </c>
-      <c r="W246">
+      <c r="X246">
         <v>0.0009324009324009896</v>
       </c>
     </row>
-    <row r="247" spans="1:23">
+    <row r="247" spans="1:24">
       <c r="A247" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B247">
         <v>214.9</v>
@@ -18859,21 +19600,24 @@
         <v>215.22</v>
       </c>
       <c r="T247">
+        <v>214.7</v>
+      </c>
+      <c r="U247">
         <v>-0.2875000000000227</v>
       </c>
-      <c r="U247">
+      <c r="V247">
         <v>-0.00017008906481919</v>
       </c>
-      <c r="V247">
+      <c r="W247">
         <v>-0.0001858217968968567</v>
       </c>
-      <c r="W247">
+      <c r="X247">
         <v>0.0009315323707499434</v>
       </c>
     </row>
-    <row r="248" spans="1:23">
+    <row r="248" spans="1:24">
       <c r="A248" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B248">
         <v>214.8</v>
@@ -18930,21 +19674,24 @@
         <v>215.1733333333333</v>
       </c>
       <c r="T248">
+        <v>214.8</v>
+      </c>
+      <c r="U248">
         <v>-0.3187499999999943</v>
       </c>
-      <c r="U248">
+      <c r="V248">
         <v>-0.0002010485454911892</v>
       </c>
-      <c r="V248">
+      <c r="W248">
         <v>-0.0002168323885637369</v>
       </c>
-      <c r="W248">
+      <c r="X248">
         <v>-0.0004653327128897322</v>
       </c>
     </row>
-    <row r="249" spans="1:23">
+    <row r="249" spans="1:24">
       <c r="A249" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B249">
         <v>214.7</v>
@@ -19001,21 +19748,24 @@
         <v>215.1133333333333</v>
       </c>
       <c r="T249">
+        <v>214.8</v>
+      </c>
+      <c r="U249">
         <v>-0.3562500000000171</v>
       </c>
-      <c r="U249">
+      <c r="V249">
         <v>-0.0001856205915109488</v>
       </c>
-      <c r="V249">
+      <c r="W249">
         <v>-0.0002788449622009859</v>
       </c>
-      <c r="W249">
+      <c r="X249">
         <v>-0.0004655493482310646</v>
       </c>
     </row>
-    <row r="250" spans="1:23">
+    <row r="250" spans="1:24">
       <c r="A250" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B250">
         <v>214.5</v>
@@ -19072,21 +19822,24 @@
         <v>215.04</v>
       </c>
       <c r="T250">
+        <v>214.6666666666667</v>
+      </c>
+      <c r="U250">
         <v>-0.3999999999999773</v>
       </c>
-      <c r="U250">
+      <c r="V250">
         <v>-0.0002011263073210534</v>
       </c>
-      <c r="V250">
+      <c r="W250">
         <v>-0.0003409055691571128</v>
       </c>
-      <c r="W250">
+      <c r="X250">
         <v>-0.0009315323707498324</v>
       </c>
     </row>
-    <row r="251" spans="1:23">
+    <row r="251" spans="1:24">
       <c r="A251" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B251">
         <v>214.7</v>
@@ -19143,21 +19896,24 @@
         <v>214.9733333333333</v>
       </c>
       <c r="T251">
+        <v>214.6333333333333</v>
+      </c>
+      <c r="U251">
         <v>-0.3937500000000114</v>
       </c>
-      <c r="U251">
+      <c r="V251">
         <v>-0.0002011667672500161</v>
       </c>
-      <c r="V251">
+      <c r="W251">
         <v>-0.0003100198412699928</v>
       </c>
-      <c r="W251">
+      <c r="X251">
         <v>0.0009324009324009896</v>
       </c>
     </row>
-    <row r="252" spans="1:23">
+    <row r="252" spans="1:24">
       <c r="A252" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B252">
         <v>214.6</v>
@@ -19214,21 +19970,24 @@
         <v>214.9066666666667</v>
       </c>
       <c r="T252">
+        <v>214.6</v>
+      </c>
+      <c r="U252">
         <v>-0.2750000000000057</v>
       </c>
-      <c r="U252">
+      <c r="V252">
         <v>-0.0002321622039932469</v>
       </c>
-      <c r="V252">
+      <c r="W252">
         <v>-0.0003101159833777123</v>
       </c>
-      <c r="W252">
+      <c r="X252">
         <v>-0.0004657661853748607</v>
       </c>
     </row>
-    <row r="253" spans="1:23">
+    <row r="253" spans="1:24">
       <c r="A253" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B253">
         <v>214.5</v>
@@ -19285,21 +20044,24 @@
         <v>214.8533333333334</v>
       </c>
       <c r="T253">
+        <v>214.6</v>
+      </c>
+      <c r="U253">
         <v>-0.2062500000000114</v>
       </c>
-      <c r="U253">
+      <c r="V253">
         <v>-0.0002631782645714509</v>
       </c>
-      <c r="V253">
+      <c r="W253">
         <v>-0.0002481697481075962</v>
       </c>
-      <c r="W253">
+      <c r="X253">
         <v>-0.0004659832246038942</v>
       </c>
     </row>
-    <row r="254" spans="1:23">
+    <row r="254" spans="1:24">
       <c r="A254" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B254">
         <v>214.9</v>
@@ -19356,21 +20118,24 @@
         <v>214.82</v>
       </c>
       <c r="T254">
+        <v>214.6666666666667</v>
+      </c>
+      <c r="U254">
         <v>-0.15625</v>
       </c>
-      <c r="U254">
+      <c r="V254">
         <v>-0.0001858217968968567</v>
       </c>
-      <c r="V254">
+      <c r="W254">
         <v>-0.0001551445947622909</v>
       </c>
-      <c r="W254">
+      <c r="X254">
         <v>0.001864801864801979</v>
       </c>
     </row>
-    <row r="255" spans="1:23">
+    <row r="255" spans="1:24">
       <c r="A255" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B255">
         <v>215.2</v>
@@ -19427,21 +20192,24 @@
         <v>214.8066666666667</v>
       </c>
       <c r="T255">
+        <v>214.8666666666666</v>
+      </c>
+      <c r="U255">
         <v>-0.1062499999999886</v>
       </c>
-      <c r="U255">
+      <c r="V255">
         <v>-0.0001548802775456215</v>
       </c>
-      <c r="V255">
+      <c r="W255">
         <v>-6.206746733705693E-05</v>
       </c>
-      <c r="W255">
+      <c r="X255">
         <v>0.001395998138669086</v>
       </c>
     </row>
-    <row r="256" spans="1:23">
+    <row r="256" spans="1:24">
       <c r="A256" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B256">
         <v>215.4</v>
@@ -19498,21 +20266,24 @@
         <v>214.8066666666667</v>
       </c>
       <c r="T256">
+        <v>215.1666666666667</v>
+      </c>
+      <c r="U256">
         <v>-0.03125</v>
       </c>
-      <c r="U256">
+      <c r="V256">
         <v>-6.196170766448184E-05</v>
       </c>
-      <c r="V256">
+      <c r="W256">
         <v>0</v>
       </c>
-      <c r="W256">
+      <c r="X256">
         <v>0.0009293680297397522</v>
       </c>
     </row>
-    <row r="257" spans="1:23">
+    <row r="257" spans="1:24">
       <c r="A257" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B257">
         <v>215.2</v>
@@ -19569,21 +20340,24 @@
         <v>214.7933333333333</v>
       </c>
       <c r="T257">
+        <v>215.2666666666667</v>
+      </c>
+      <c r="U257">
         <v>0.04375000000001705</v>
       </c>
-      <c r="U257">
+      <c r="V257">
         <v>-9.294832073369896E-05</v>
       </c>
-      <c r="V257">
+      <c r="W257">
         <v>-6.207131994673265E-05</v>
       </c>
-      <c r="W257">
+      <c r="X257">
         <v>-0.0009285051067782213</v>
       </c>
     </row>
-    <row r="258" spans="1:23">
+    <row r="258" spans="1:24">
       <c r="A258" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B258">
         <v>215.2</v>
@@ -19640,21 +20414,24 @@
         <v>214.8</v>
       </c>
       <c r="T258">
+        <v>215.2666666666667</v>
+      </c>
+      <c r="U258">
         <v>0.1437500000000114</v>
       </c>
-      <c r="U258">
+      <c r="V258">
         <v>-9.295696092714856E-05</v>
       </c>
-      <c r="V258">
+      <c r="W258">
         <v>3.103758651734623E-05</v>
       </c>
-      <c r="W258">
+      <c r="X258">
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:23">
+    <row r="259" spans="1:24">
       <c r="A259" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B259">
         <v>215.2</v>
@@ -19711,21 +20488,24 @@
         <v>214.8666666666667</v>
       </c>
       <c r="T259">
+        <v>215.2</v>
+      </c>
+      <c r="U259">
         <v>0.1999999999999886</v>
       </c>
-      <c r="U259">
+      <c r="V259">
         <v>-6.197706848476425E-05</v>
       </c>
-      <c r="V259">
+      <c r="W259">
         <v>0.0003103662321539691</v>
       </c>
-      <c r="W259">
+      <c r="X259">
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:23">
+    <row r="260" spans="1:24">
       <c r="A260" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B260">
         <v>215.4</v>
@@ -19782,21 +20562,24 @@
         <v>214.9266666666667</v>
       </c>
       <c r="T260">
+        <v>215.2666666666667</v>
+      </c>
+      <c r="U260">
         <v>0.2249999999999943</v>
       </c>
-      <c r="U260">
+      <c r="V260">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="V260">
+      <c r="W260">
         <v>0.0002792429413589481</v>
       </c>
-      <c r="W260">
+      <c r="X260">
         <v>0.0009293680297397522</v>
       </c>
     </row>
-    <row r="261" spans="1:23">
+    <row r="261" spans="1:24">
       <c r="A261" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B261">
         <v>215.4</v>
@@ -19853,21 +20636,24 @@
         <v>214.9733333333333</v>
       </c>
       <c r="T261">
+        <v>215.3333333333333</v>
+      </c>
+      <c r="U261">
         <v>0.28125</v>
       </c>
-      <c r="U261">
+      <c r="V261">
         <v>-1.549522746990828E-05</v>
       </c>
-      <c r="V261">
+      <c r="W261">
         <v>0.0002171283228387111</v>
       </c>
-      <c r="W261">
+      <c r="X261">
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:23">
+    <row r="262" spans="1:24">
       <c r="A262" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B262">
         <v>215.5</v>
@@ -19924,21 +20710,24 @@
         <v>215.0133333333333</v>
       </c>
       <c r="T262">
+        <v>215.4333333333333</v>
+      </c>
+      <c r="U262">
         <v>0.3062500000000057</v>
       </c>
-      <c r="U262">
+      <c r="V262">
         <v>0</v>
       </c>
-      <c r="V262">
+      <c r="W262">
         <v>0.0001860695900266496</v>
       </c>
-      <c r="W262">
+      <c r="X262">
         <v>0.0004642525533891106</v>
       </c>
     </row>
-    <row r="263" spans="1:23">
+    <row r="263" spans="1:24">
       <c r="A263" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B263">
         <v>215.9</v>
@@ -19995,21 +20784,24 @@
         <v>215.0866666666667</v>
       </c>
       <c r="T263">
+        <v>215.6</v>
+      </c>
+      <c r="U263">
         <v>0.3312500000000114</v>
       </c>
-      <c r="U263">
+      <c r="V263">
         <v>6.198187030292956E-05</v>
       </c>
-      <c r="V263">
+      <c r="W263">
         <v>0.000341064120054746</v>
       </c>
-      <c r="W263">
+      <c r="X263">
         <v>0.001856148491879317</v>
       </c>
     </row>
-    <row r="264" spans="1:23">
+    <row r="264" spans="1:24">
       <c r="A264" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B264">
         <v>215.6</v>
@@ -20066,21 +20858,24 @@
         <v>215.1466666666667</v>
       </c>
       <c r="T264">
+        <v>215.6666666666667</v>
+      </c>
+      <c r="U264">
         <v>0.3062500000000057</v>
       </c>
-      <c r="U264">
+      <c r="V264">
         <v>0</v>
       </c>
-      <c r="V264">
+      <c r="W264">
         <v>0.0002789573195300932</v>
       </c>
-      <c r="W264">
+      <c r="X264">
         <v>-0.001389532190829157</v>
       </c>
     </row>
-    <row r="265" spans="1:23">
+    <row r="265" spans="1:24">
       <c r="A265" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B265">
         <v>215.6</v>
@@ -20137,21 +20932,24 @@
         <v>215.22</v>
       </c>
       <c r="T265">
+        <v>215.7</v>
+      </c>
+      <c r="U265">
         <v>0.3000000000000114</v>
       </c>
-      <c r="U265">
+      <c r="V265">
         <v>0</v>
       </c>
-      <c r="V265">
+      <c r="W265">
         <v>0.0003408527516111093</v>
       </c>
-      <c r="W265">
+      <c r="X265">
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:23">
+    <row r="266" spans="1:24">
       <c r="A266" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B266">
         <v>215.8</v>
@@ -20208,21 +21006,24 @@
         <v>215.2933333333334</v>
       </c>
       <c r="T266">
+        <v>215.6666666666667</v>
+      </c>
+      <c r="U266">
         <v>0.2937499999999602</v>
       </c>
-      <c r="U266">
+      <c r="V266">
         <v>1.549450719728895E-05</v>
       </c>
-      <c r="V266">
+      <c r="W266">
         <v>0.0003407366106003007</v>
       </c>
-      <c r="W266">
+      <c r="X266">
         <v>0.0009276437847867136</v>
       </c>
     </row>
-    <row r="267" spans="1:23">
+    <row r="267" spans="1:24">
       <c r="A267" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B267">
         <v>215.9</v>
@@ -20279,21 +21080,24 @@
         <v>215.38</v>
       </c>
       <c r="T267">
+        <v>215.7666666666667</v>
+      </c>
+      <c r="U267">
         <v>0.3062500000000341</v>
       </c>
-      <c r="U267">
+      <c r="V267">
         <v>4.648280136354543E-05</v>
       </c>
-      <c r="V267">
+      <c r="W267">
         <v>0.0004025515575647454</v>
       </c>
-      <c r="W267">
+      <c r="X267">
         <v>0.0004633920296570615</v>
       </c>
     </row>
-    <row r="268" spans="1:23">
+    <row r="268" spans="1:24">
       <c r="A268" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B268">
         <v>215.8</v>
@@ -20350,21 +21154,24 @@
         <v>215.4666666666667</v>
       </c>
       <c r="T268">
+        <v>215.8333333333333</v>
+      </c>
+      <c r="U268">
         <v>0.28125</v>
       </c>
-      <c r="U268">
+      <c r="V268">
         <v>7.746773468841894E-05</v>
       </c>
-      <c r="V268">
+      <c r="W268">
         <v>0.0004023895750147055</v>
       </c>
-      <c r="W268">
+      <c r="X268">
         <v>-0.0004631773969430153</v>
       </c>
     </row>
-    <row r="269" spans="1:23">
+    <row r="269" spans="1:24">
       <c r="A269" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B269">
         <v>215.7</v>
@@ -20421,21 +21228,24 @@
         <v>215.52</v>
       </c>
       <c r="T269">
+        <v>215.8</v>
+      </c>
+      <c r="U269">
         <v>0.2437500000000057</v>
       </c>
-      <c r="U269">
+      <c r="V269">
         <v>4.647704034210776E-05</v>
       </c>
-      <c r="V269">
+      <c r="W269">
         <v>0.0002475247524751367</v>
       </c>
-      <c r="W269">
+      <c r="X269">
         <v>-0.0004633920296571725</v>
       </c>
     </row>
-    <row r="270" spans="1:23">
+    <row r="270" spans="1:24">
       <c r="A270" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B270">
         <v>215.8</v>
@@ -20492,21 +21302,24 @@
         <v>215.56</v>
       </c>
       <c r="T270">
+        <v>215.7666666666667</v>
+      </c>
+      <c r="U270">
         <v>0.2249999999999943</v>
       </c>
-      <c r="U270">
+      <c r="V270">
         <v>6.196650710288409E-05</v>
       </c>
-      <c r="V270">
+      <c r="W270">
         <v>0.000185597624350553</v>
       </c>
-      <c r="W270">
+      <c r="X270">
         <v>0.0004636068613816935</v>
       </c>
     </row>
-    <row r="271" spans="1:23">
+    <row r="271" spans="1:24">
       <c r="A271" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B271">
         <v>216.1</v>
@@ -20563,21 +21376,24 @@
         <v>215.6066666666667</v>
       </c>
       <c r="T271">
+        <v>215.8666666666666</v>
+      </c>
+      <c r="U271">
         <v>0.1937500000000227</v>
       </c>
-      <c r="U271">
+      <c r="V271">
         <v>0.0001084346681123893</v>
       </c>
-      <c r="V271">
+      <c r="W271">
         <v>0.0002164903816415098</v>
       </c>
-      <c r="W271">
+      <c r="X271">
         <v>0.001390176088971184</v>
       </c>
     </row>
-    <row r="272" spans="1:23">
+    <row r="272" spans="1:24">
       <c r="A272" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B272">
         <v>216.3</v>
@@ -20634,21 +21450,24 @@
         <v>215.68</v>
       </c>
       <c r="T272">
+        <v>216.0666666666667</v>
+      </c>
+      <c r="U272">
         <v>0.2249999999999943</v>
       </c>
-      <c r="U272">
+      <c r="V272">
         <v>0.0001394008859703089</v>
       </c>
-      <c r="V272">
+      <c r="W272">
         <v>0.0003401255372439405</v>
       </c>
-      <c r="W272">
+      <c r="X272">
         <v>0.0009254974548820183</v>
       </c>
     </row>
-    <row r="273" spans="1:23">
+    <row r="273" spans="1:24">
       <c r="A273" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B273">
         <v>216.3</v>
@@ -20705,21 +21524,24 @@
         <v>215.7533333333334</v>
       </c>
       <c r="T273">
+        <v>216.2333333333333</v>
+      </c>
+      <c r="U273">
         <v>0.2437500000000057</v>
       </c>
-      <c r="U273">
+      <c r="V273">
         <v>0.0001858419414286772</v>
       </c>
-      <c r="V273">
+      <c r="W273">
         <v>0.0003400098911969796</v>
       </c>
-      <c r="W273">
+      <c r="X273">
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:23">
+    <row r="274" spans="1:24">
       <c r="A274" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B274">
         <v>216.1</v>
@@ -20776,21 +21598,24 @@
         <v>215.8133333333334</v>
       </c>
       <c r="T274">
+        <v>216.2333333333333</v>
+      </c>
+      <c r="U274">
         <v>0.2249999999999943</v>
       </c>
-      <c r="U274">
+      <c r="V274">
         <v>0.0002941950668131632</v>
       </c>
-      <c r="V274">
+      <c r="W274">
         <v>0.0002780953558074728</v>
       </c>
-      <c r="W274">
+      <c r="X274">
         <v>-0.0009246417013407671</v>
       </c>
     </row>
-    <row r="275" spans="1:23">
+    <row r="275" spans="1:24">
       <c r="A275" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B275">
         <v>216.2</v>
@@ -20847,21 +21672,24 @@
         <v>215.8666666666667</v>
       </c>
       <c r="T275">
+        <v>216.2</v>
+      </c>
+      <c r="U275">
         <v>0.1999999999999886</v>
       </c>
-      <c r="U275">
+      <c r="V275">
         <v>0.0002631497476859312</v>
       </c>
-      <c r="V275">
+      <c r="W275">
         <v>0.0002471271469171032</v>
       </c>
-      <c r="W275">
+      <c r="X275">
         <v>0.0004627487274408981</v>
       </c>
     </row>
-    <row r="276" spans="1:23">
+    <row r="276" spans="1:24">
       <c r="A276" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B276">
         <v>216.3</v>
@@ -20918,21 +21746,24 @@
         <v>215.9266666666667</v>
       </c>
       <c r="T276">
+        <v>216.2</v>
+      </c>
+      <c r="U276">
         <v>0.2062499999999829</v>
       </c>
-      <c r="U276">
+      <c r="V276">
         <v>0.0002476051935187407</v>
       </c>
-      <c r="V276">
+      <c r="W276">
         <v>0.0002779493514515341</v>
       </c>
-      <c r="W276">
+      <c r="X276">
         <v>0.0004625346901019345</v>
       </c>
     </row>
-    <row r="277" spans="1:23">
+    <row r="277" spans="1:24">
       <c r="A277" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B277">
         <v>216.3</v>
@@ -20989,21 +21820,24 @@
         <v>215.98</v>
       </c>
       <c r="T277">
+        <v>216.2666666666667</v>
+      </c>
+      <c r="U277">
         <v>0.2250000000000227</v>
       </c>
-      <c r="U277">
+      <c r="V277">
         <v>0.0002166009128181656</v>
       </c>
-      <c r="V277">
+      <c r="W277">
         <v>0.0002469974374015305</v>
       </c>
-      <c r="W277">
+      <c r="X277">
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:23">
+    <row r="278" spans="1:24">
       <c r="A278" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B278">
         <v>216.2</v>
@@ -21060,21 +21894,24 @@
         <v>216</v>
       </c>
       <c r="T278">
+        <v>216.2666666666667</v>
+      </c>
+      <c r="U278">
         <v>0.2312499999999886</v>
       </c>
-      <c r="U278">
+      <c r="V278">
         <v>0.0002165540070226957</v>
       </c>
-      <c r="V278">
+      <c r="W278">
         <v>9.260116677478614E-05</v>
       </c>
-      <c r="W278">
+      <c r="X278">
         <v>-0.000462320850670439</v>
       </c>
     </row>
-    <row r="279" spans="1:23">
+    <row r="279" spans="1:24">
       <c r="A279" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B279">
         <v>216.1</v>
@@ -21131,21 +21968,24 @@
         <v>216.0333333333333</v>
       </c>
       <c r="T279">
+        <v>216.2</v>
+      </c>
+      <c r="U279">
         <v>0.21875</v>
       </c>
-      <c r="U279">
+      <c r="V279">
         <v>0.0002165071215378678</v>
       </c>
-      <c r="V279">
+      <c r="W279">
         <v>0.0001543209876542218</v>
       </c>
-      <c r="W279">
+      <c r="X279">
         <v>-0.0004625346901017124</v>
       </c>
     </row>
-    <row r="280" spans="1:23">
+    <row r="280" spans="1:24">
       <c r="A280" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B280">
         <v>216.1</v>
@@ -21202,21 +22042,24 @@
         <v>216.0666666666667</v>
       </c>
       <c r="T280">
+        <v>216.1333333333333</v>
+      </c>
+      <c r="U280">
         <v>0.1624999999999943</v>
       </c>
-      <c r="U280">
+      <c r="V280">
         <v>0.000247383150115299</v>
       </c>
-      <c r="V280">
+      <c r="W280">
         <v>0.0001542971763617285</v>
       </c>
-      <c r="W280">
+      <c r="X280">
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:23">
+    <row r="281" spans="1:24">
       <c r="A281" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B281">
         <v>216</v>
@@ -21273,21 +22116,24 @@
         <v>216.08</v>
       </c>
       <c r="T281">
+        <v>216.0666666666666</v>
+      </c>
+      <c r="U281">
         <v>0.09999999999999432</v>
       </c>
-      <c r="U281">
+      <c r="V281">
         <v>0.0002009490980476869</v>
       </c>
-      <c r="V281">
+      <c r="W281">
         <v>6.170934896632119E-05</v>
       </c>
-      <c r="W281">
+      <c r="X281">
         <v>-0.0004627487274410091</v>
       </c>
     </row>
-    <row r="282" spans="1:23">
+    <row r="282" spans="1:24">
       <c r="A282" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B282">
         <v>215.8</v>
@@ -21344,21 +22190,24 @@
         <v>216.0733333333334</v>
       </c>
       <c r="T282">
+        <v>215.9666666666667</v>
+      </c>
+      <c r="U282">
         <v>0.0625</v>
       </c>
-      <c r="U282">
+      <c r="V282">
         <v>0.0001854542082648791</v>
       </c>
-      <c r="V282">
+      <c r="W282">
         <v>-3.085277057868208E-05</v>
       </c>
-      <c r="W282">
+      <c r="X282">
         <v>-0.0009259259259258856</v>
       </c>
     </row>
-    <row r="283" spans="1:23">
+    <row r="283" spans="1:24">
       <c r="A283" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B283">
         <v>215.8</v>
@@ -21415,21 +22264,24 @@
         <v>216.0733333333333</v>
       </c>
       <c r="T283">
+        <v>215.8666666666667</v>
+      </c>
+      <c r="U283">
         <v>0.01875000000001137</v>
       </c>
-      <c r="U283">
+      <c r="V283">
         <v>0.0002008714731605021</v>
       </c>
-      <c r="V283">
+      <c r="W283">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="W283">
+      <c r="X283">
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:23">
+    <row r="284" spans="1:24">
       <c r="A284" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B284">
         <v>215.7</v>
@@ -21486,21 +22338,24 @@
         <v>216.0733333333334</v>
       </c>
       <c r="T284">
+        <v>215.7666666666667</v>
+      </c>
+      <c r="U284">
         <v>-0.05000000000001137</v>
       </c>
-      <c r="U284">
+      <c r="V284">
         <v>0.0001235883888708322</v>
       </c>
-      <c r="V284">
+      <c r="W284">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W284">
+      <c r="X284">
         <v>-0.0004633920296571725</v>
       </c>
     </row>
-    <row r="285" spans="1:23">
+    <row r="285" spans="1:24">
       <c r="A285" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B285">
         <v>215.8</v>
@@ -21557,21 +22412,24 @@
         <v>216.0733333333333</v>
       </c>
       <c r="T285">
+        <v>215.7666666666667</v>
+      </c>
+      <c r="U285">
         <v>-0.1187500000000057</v>
       </c>
-      <c r="U285">
+      <c r="V285">
         <v>9.267983750138598E-05</v>
       </c>
-      <c r="V285">
+      <c r="W285">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="W285">
+      <c r="X285">
         <v>0.0004636068613816935</v>
       </c>
     </row>
-    <row r="286" spans="1:23">
+    <row r="286" spans="1:24">
       <c r="A286" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B286">
         <v>215.6</v>
@@ -21628,21 +22486,24 @@
         <v>216.04</v>
       </c>
       <c r="T286">
+        <v>215.7</v>
+      </c>
+      <c r="U286">
         <v>-0.1812499999999773</v>
       </c>
-      <c r="U286">
+      <c r="V286">
         <v>3.089041624826372E-05</v>
       </c>
-      <c r="V286">
+      <c r="W286">
         <v>-0.0001542686125080017</v>
       </c>
-      <c r="W286">
+      <c r="X286">
         <v>-0.000926784059314234</v>
       </c>
     </row>
-    <row r="287" spans="1:23">
+    <row r="287" spans="1:24">
       <c r="A287" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B287">
         <v>215.6</v>
@@ -21699,21 +22560,24 @@
         <v>215.9933333333333</v>
       </c>
       <c r="T287">
+        <v>215.6666666666667</v>
+      </c>
+      <c r="U287">
         <v>-0.2125000000000341</v>
       </c>
-      <c r="U287">
+      <c r="V287">
         <v>6.177892411995956E-05</v>
       </c>
-      <c r="V287">
+      <c r="W287">
         <v>-0.0002160093809788766</v>
       </c>
-      <c r="W287">
+      <c r="X287">
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:23">
+    <row r="288" spans="1:24">
       <c r="A288" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B288">
         <v>215.7</v>
@@ -21770,21 +22634,24 @@
         <v>215.9533333333333</v>
       </c>
       <c r="T288">
+        <v>215.6333333333333</v>
+      </c>
+      <c r="U288">
         <v>-0.2249999999999943</v>
       </c>
-      <c r="U288">
+      <c r="V288">
         <v>7.721888465073157E-05</v>
       </c>
-      <c r="V288">
+      <c r="W288">
         <v>-0.0001851909009537023</v>
       </c>
-      <c r="W288">
+      <c r="X288">
         <v>0.0004638218923933568</v>
       </c>
     </row>
-    <row r="289" spans="1:23">
+    <row r="289" spans="1:24">
       <c r="A289" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B289">
         <v>215.5</v>
@@ -21841,21 +22708,24 @@
         <v>215.9133333333333</v>
       </c>
       <c r="T289">
+        <v>215.6</v>
+      </c>
+      <c r="U289">
         <v>-0.2375000000000114</v>
       </c>
-      <c r="U289">
+      <c r="V289">
         <v>4.632775341284479E-05</v>
       </c>
-      <c r="V289">
+      <c r="W289">
         <v>-0.000185225202976036</v>
       </c>
-      <c r="W289">
+      <c r="X289">
         <v>-0.0009272137227630539</v>
       </c>
     </row>
-    <row r="290" spans="1:23">
+    <row r="290" spans="1:24">
       <c r="A290" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B290">
         <v>215.4</v>
@@ -21912,21 +22782,24 @@
         <v>215.86</v>
       </c>
       <c r="T290">
+        <v>215.5333333333333</v>
+      </c>
+      <c r="U290">
         <v>-0.2437499999999773</v>
       </c>
-      <c r="U290">
+      <c r="V290">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="V290">
+      <c r="W290">
         <v>-0.0002470126902768266</v>
       </c>
-      <c r="W290">
+      <c r="X290">
         <v>-0.0004640371229698292</v>
       </c>
     </row>
-    <row r="291" spans="1:23">
+    <row r="291" spans="1:24">
       <c r="A291" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B291">
         <v>215.3</v>
@@ -21983,21 +22856,24 @@
         <v>215.7933333333333</v>
       </c>
       <c r="T291">
+        <v>215.4</v>
+      </c>
+      <c r="U291">
         <v>-0.25</v>
       </c>
-      <c r="U291">
+      <c r="V291">
         <v>-1.544186908364331E-05</v>
       </c>
-      <c r="V291">
+      <c r="W291">
         <v>-0.0003088421507768668</v>
       </c>
-      <c r="W291">
+      <c r="X291">
         <v>-0.0004642525533889996</v>
       </c>
     </row>
-    <row r="292" spans="1:23">
+    <row r="292" spans="1:24">
       <c r="A292" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B292">
         <v>215.1</v>
@@ -22054,21 +22930,24 @@
         <v>215.7133333333333</v>
       </c>
       <c r="T292">
+        <v>215.2666666666667</v>
+      </c>
+      <c r="U292">
         <v>-0.25</v>
       </c>
-      <c r="U292">
+      <c r="V292">
         <v>-6.176843015537337E-05</v>
       </c>
-      <c r="V292">
+      <c r="W292">
         <v>-0.0003707250764619641</v>
       </c>
-      <c r="W292">
+      <c r="X292">
         <v>-0.0009289363678588458</v>
       </c>
     </row>
-    <row r="293" spans="1:23">
+    <row r="293" spans="1:24">
       <c r="A293" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B293">
         <v>215.2</v>
@@ -22125,21 +23004,24 @@
         <v>215.6466666666666</v>
       </c>
       <c r="T293">
+        <v>215.2</v>
+      </c>
+      <c r="U293">
         <v>-0.2562500000000227</v>
       </c>
-      <c r="U293">
+      <c r="V293">
         <v>-0.0001081014300273742</v>
       </c>
-      <c r="V293">
+      <c r="W293">
         <v>-0.0003090521370956445</v>
       </c>
-      <c r="W293">
+      <c r="X293">
         <v>0.0004649000464900244</v>
       </c>
     </row>
-    <row r="294" spans="1:23">
+    <row r="294" spans="1:24">
       <c r="A294" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B294">
         <v>215.2</v>
@@ -22196,21 +23078,24 @@
         <v>215.5866666666666</v>
       </c>
       <c r="T294">
+        <v>215.1666666666667</v>
+      </c>
+      <c r="U294">
         <v>-0.2437499999999773</v>
       </c>
-      <c r="U294">
+      <c r="V294">
         <v>-6.177892412007058E-05</v>
       </c>
-      <c r="V294">
+      <c r="W294">
         <v>-0.0002782329118620197</v>
       </c>
-      <c r="W294">
+      <c r="X294">
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:23">
+    <row r="295" spans="1:24">
       <c r="A295" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B295">
         <v>215.1</v>
@@ -22267,21 +23152,24 @@
         <v>215.52</v>
       </c>
       <c r="T295">
+        <v>215.1666666666667</v>
+      </c>
+      <c r="U295">
         <v>-0.2437500000000057</v>
       </c>
-      <c r="U295">
+      <c r="V295">
         <v>-7.722842623902881E-05</v>
       </c>
-      <c r="V295">
+      <c r="W295">
         <v>-0.0003092337188445038</v>
       </c>
-      <c r="W295">
+      <c r="X295">
         <v>-0.0004646840148698761</v>
       </c>
     </row>
-    <row r="296" spans="1:23">
+    <row r="296" spans="1:24">
       <c r="A296" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B296">
         <v>215.1</v>
@@ -22338,21 +23226,24 @@
         <v>215.46</v>
       </c>
       <c r="T296">
+        <v>215.1333333333333</v>
+      </c>
+      <c r="U296">
         <v>-0.2562499999999943</v>
       </c>
-      <c r="U296">
+      <c r="V296">
         <v>-0.0001081281473014339</v>
       </c>
-      <c r="V296">
+      <c r="W296">
         <v>-0.0002783964365256075</v>
       </c>
-      <c r="W296">
+      <c r="X296">
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:23">
+    <row r="297" spans="1:24">
       <c r="A297" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B297">
         <v>215.1</v>
@@ -22409,15 +23300,18 @@
         <v>215.4133333333333</v>
       </c>
       <c r="T297">
+        <v>215.1</v>
+      </c>
+      <c r="U297">
         <v>-0.25</v>
       </c>
-      <c r="U297">
+      <c r="V297">
         <v>-0.0001235883888710543</v>
       </c>
-      <c r="V297">
+      <c r="W297">
         <v>-0.0002165908598658062</v>
       </c>
-      <c r="W297">
+      <c r="X297">
         <v>0</v>
       </c>
     </row>
